--- a/ncis-sprint-burndowns.xlsx
+++ b/ncis-sprint-burndowns.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC6F50A-4F82-4F44-9822-2D9D00CEA510}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85E044-5E09-47AB-AE93-B0D6A6A4DCCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="Sprints" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$I$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>Backlog Sprint</t>
   </si>
@@ -195,6 +195,30 @@
   </si>
   <si>
     <t>Issue Key</t>
+  </si>
+  <si>
+    <t>NCIS-232</t>
+  </si>
+  <si>
+    <t>NCIS-406</t>
+  </si>
+  <si>
+    <t>NCIS-418</t>
+  </si>
+  <si>
+    <t>NCIS-413</t>
+  </si>
+  <si>
+    <t>NCIS-421</t>
+  </si>
+  <si>
+    <t>NCIS-415</t>
+  </si>
+  <si>
+    <t>NCIS-416</t>
+  </si>
+  <si>
+    <t>NCIS-417</t>
   </si>
 </sst>
 </file>
@@ -218,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +273,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -275,9 +305,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -292,6 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3743,10 +3773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C989A-0DB4-4957-8B7C-55617C9397A2}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3771,93 +3801,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9">
-        <f ca="1">VLOOKUP(N2,SP!A$2:$C$8,3)</f>
-        <v>3</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="8">
+        <f>VLOOKUP(N2,SP!A$2:$C$9,3)</f>
+        <v>55</v>
+      </c>
+      <c r="C2" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K2)/(Sprints!$B$2:$B$20&gt;=K2),Sprints!$C$2:$C$20)</f>
         <v>5</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L2)/(Sprints!$B$2:$B$20&gt;=L2),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
-      </c>
-      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M2)/(Sprints!$B$2:$B$20&gt;=M2),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
-      </c>
-      <c r="F2" s="9">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8">
         <f ca="1" xml:space="preserve"> E2 - D2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O2)/(Sprints!$B$2:$B$20&gt;=O2),Sprints!$C$2:$C$20)</f>
-        <v>17</v>
-      </c>
-      <c r="H2" s="9">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O2)/(Sprints!$B$2:$B$20&gt;=O2),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P2)/(Sprints!$B$2:$B$20&gt;=P2),Sprints!$C$2:$C$20)</f>
-        <v>18</v>
-      </c>
-      <c r="I2" s="9">
-        <f ca="1">H2 - G2</f>
-        <v>1</v>
+        <v>#N/A</v>
+      </c>
+      <c r="I2" s="8" t="e">
+        <f t="shared" ref="I2:I13" ca="1" si="0">H2 - G2</f>
+        <v>#N/A</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>32</v>
@@ -3866,62 +3896,59 @@
         <v>43535</v>
       </c>
       <c r="L2" s="5">
-        <v>43626</v>
-      </c>
-      <c r="M2" s="5">
-        <v>43628</v>
-      </c>
-      <c r="N2" s="4">
-        <f ca="1">IF(ISBLANK(M2), TODAY()-L2, M2-L2)</f>
-        <v>2</v>
+        <v>43537</v>
+      </c>
+      <c r="M2" s="7">
+        <v>43658</v>
+      </c>
+      <c r="N2" s="8">
+        <f>IF(ISBLANK(L2), IF(ISBLANK(M2),0, TODAY-M2), M2-L2)</f>
+        <v>121</v>
       </c>
       <c r="O2" s="5">
-        <v>43706</v>
-      </c>
-      <c r="P2" s="6">
-        <f ca="1">TODAY()</f>
         <v>43717</v>
       </c>
-      <c r="Q2" s="4">
-        <f ca="1">IF(ISBLANK(P2), TODAY()-O2, P2-O2)</f>
-        <v>11</v>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8">
+        <f ca="1">IF(ISBLANK(P2), IF(ISBLANK(O2),0,TODAY()-O2), P2-O2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9">
-        <f ca="1">VLOOKUP(N3,SP!A$2:$C$8,3)</f>
-        <v>3</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="8">
+        <f>VLOOKUP(N3,SP!A$2:$C$9,3)</f>
+        <v>55</v>
+      </c>
+      <c r="C3" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K3)/(Sprints!$B$2:$B$20&gt;=K3),Sprints!$C$2:$C$20)</f>
         <v>5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L3)/(Sprints!$B$2:$B$20&gt;=L3),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
-      </c>
-      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M3)/(Sprints!$B$2:$B$20&gt;=M3),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:F13" ca="1" si="0" xml:space="preserve"> E3 - D3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F13" ca="1" si="1" xml:space="preserve"> E3 - D3</f>
+        <v>9</v>
+      </c>
+      <c r="G3" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O3)/(Sprints!$B$2:$B$20&gt;=O3),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P3)/(Sprints!$B$2:$B$20&gt;=P3),Sprints!$C$2:$C$20)</f>
-        <v>18</v>
-      </c>
-      <c r="I3" s="9">
-        <f ca="1">H3 - G3</f>
-        <v>1</v>
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>32</v>
@@ -3930,591 +3957,588 @@
         <v>43535</v>
       </c>
       <c r="L3" s="5">
-        <v>43626</v>
+        <v>43539</v>
       </c>
       <c r="M3" s="5">
-        <v>43628</v>
-      </c>
-      <c r="N3" s="4">
-        <f ca="1">IF(ISBLANK(M3), TODAY()-L3, M3-L3)</f>
-        <v>2</v>
+        <v>43658</v>
+      </c>
+      <c r="N3" s="8">
+        <f>IF(ISBLANK(L3), IF(ISBLANK(M3),0, TODAY-M3), M3-L3)</f>
+        <v>119</v>
       </c>
       <c r="O3" s="5">
         <v>43706</v>
       </c>
-      <c r="P3" s="6">
-        <f ca="1">TODAY()</f>
-        <v>43717</v>
-      </c>
-      <c r="Q3" s="4">
-        <f ca="1">IF(ISBLANK(P3), TODAY()-O3, P3-O3)</f>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8">
+        <f ca="1">IF(ISBLANK(P3), IF(ISBLANK(O3),0,TODAY()-O3), P3-O3)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9">
-        <f ca="1">VLOOKUP(N4,SP!A$2:$C$8,3)</f>
-        <v>21</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="8">
+        <f>VLOOKUP(N4,SP!A$2:$C$9,3)</f>
+        <v>34</v>
+      </c>
+      <c r="C4" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K4)/(Sprints!$B$2:$B$20&gt;=K4),Sprints!$C$2:$C$20)</f>
         <v>9</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L4)/(Sprints!$B$2:$B$20&gt;=L4),Sprints!$C$2:$C$20)</f>
-        <v>10</v>
-      </c>
-      <c r="E4" s="9">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M4)/(Sprints!$B$2:$B$20&gt;=M4),Sprints!$C$2:$C$20)</f>
-        <v>10</v>
-      </c>
-      <c r="F4" s="9">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O4)/(Sprints!$B$2:$B$20&gt;=O4),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="H4" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P4)/(Sprints!$B$2:$B$20&gt;=P4),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="I4" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="9">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O4)/(Sprints!$B$2:$B$20&gt;=O4),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
-      </c>
-      <c r="H4" s="9">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P4)/(Sprints!$B$2:$B$20&gt;=P4),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
-      </c>
-      <c r="I4" s="9">
-        <f ca="1">H4 - G4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>43594</v>
       </c>
-      <c r="L4" s="8">
-        <v>43604</v>
-      </c>
-      <c r="M4" s="8">
-        <v>43624</v>
-      </c>
-      <c r="N4" s="7">
-        <f t="shared" ref="N4:N13" ca="1" si="1">IF(ISBLANK(M4), TODAY()-L4, M4-L4)</f>
-        <v>20</v>
-      </c>
-      <c r="O4" s="8">
-        <v>43631</v>
-      </c>
-      <c r="P4" s="8">
-        <v>43634</v>
-      </c>
-      <c r="Q4" s="7">
-        <f t="shared" ref="Q4:Q13" ca="1" si="2">IF(ISBLANK(P4), TODAY()-O4, P4-O4)</f>
+      <c r="L4" s="7">
+        <v>43614</v>
+      </c>
+      <c r="M4" s="7">
+        <v>43654</v>
+      </c>
+      <c r="N4" s="8">
+        <f>IF(ISBLANK(L4), IF(ISBLANK(M4),0, TODAY-M4), M4-L4)</f>
+        <v>40</v>
+      </c>
+      <c r="O4" s="7">
+        <v>43661</v>
+      </c>
+      <c r="P4" s="7">
+        <v>43664</v>
+      </c>
+      <c r="Q4" s="8">
+        <f ca="1">IF(ISBLANK(P4), IF(ISBLANK(O4),0,TODAY()-O4), P4-O4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9">
-        <f ca="1">VLOOKUP(N5,SP!A$2:$C$8,3)</f>
+      <c r="B5" s="8">
+        <f>VLOOKUP(N5,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K5)/(Sprints!$B$2:$B$20&gt;=K5),Sprints!$C$2:$C$20)</f>
         <v>10</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L5)/(Sprints!$B$2:$B$20&gt;=L5),Sprints!$C$2:$C$20)</f>
         <v>10</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M5)/(Sprints!$B$2:$B$20&gt;=M5),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O5)/(Sprints!$B$2:$B$20&gt;=O5),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="H5" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P5)/(Sprints!$B$2:$B$20&gt;=P5),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="I5" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="9">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O5)/(Sprints!$B$2:$B$20&gt;=O5),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
-      </c>
-      <c r="H5" s="9">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P5)/(Sprints!$B$2:$B$20&gt;=P5),Sprints!$C$2:$C$20)</f>
-        <v>13</v>
-      </c>
-      <c r="I5" s="9">
-        <f ca="1">H5 - G5</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>43600</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>43600</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>43622</v>
       </c>
-      <c r="N5" s="7">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N5" s="8">
+        <f>IF(ISBLANK(L5), IF(ISBLANK(M5),0, TODAY-M5), M5-L5)</f>
         <v>22</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>43626</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>43648</v>
       </c>
-      <c r="Q5" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q5" s="8">
+        <f ca="1">IF(ISBLANK(P5), IF(ISBLANK(O5),0,TODAY()-O5), P5-O5)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9">
-        <f ca="1">VLOOKUP(N6,SP!A$2:$C$8,3)</f>
+      <c r="B6" s="8">
+        <f>VLOOKUP(N6,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K6)/(Sprints!$B$2:$B$20&gt;=K6),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L6)/(Sprints!$B$2:$B$20&gt;=L6),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M6)/(Sprints!$B$2:$B$20&gt;=M6),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="F6" s="9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F6" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O6)/(Sprints!$B$2:$B$20&gt;=O6),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P6)/(Sprints!$B$2:$B$20&gt;=P6),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I6" s="9">
-        <f ca="1">H6 - G6</f>
+      <c r="I6" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>43613</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>43619</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>43654</v>
       </c>
-      <c r="N6" s="7">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N6" s="8">
+        <f>IF(ISBLANK(L6), IF(ISBLANK(M6),0, TODAY-M6), M6-L6)</f>
         <v>35</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>43661</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>43664</v>
       </c>
-      <c r="Q6" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q6" s="8">
+        <f ca="1">IF(ISBLANK(P6), IF(ISBLANK(O6),0,TODAY()-O6), P6-O6)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9">
-        <f ca="1">VLOOKUP(N7,SP!A$2:$C$8,3)</f>
+      <c r="B7" s="8">
+        <f>VLOOKUP(N7,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K7)/(Sprints!$B$2:$B$20&gt;=K7),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L7)/(Sprints!$B$2:$B$20&gt;=L7),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M7)/(Sprints!$B$2:$B$20&gt;=M7),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="F7" s="9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F7" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O7)/(Sprints!$B$2:$B$20&gt;=O7),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P7)/(Sprints!$B$2:$B$20&gt;=P7),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I7" s="9">
-        <f ca="1">H7 - G7</f>
+      <c r="I7" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>43613</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>43620</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>43648</v>
       </c>
-      <c r="N7" s="7">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N7" s="8">
+        <f>IF(ISBLANK(L7), IF(ISBLANK(M7),0, TODAY-M7), M7-L7)</f>
         <v>28</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>43661</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>43664</v>
       </c>
-      <c r="Q7" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q7" s="8">
+        <f ca="1">IF(ISBLANK(P7), IF(ISBLANK(O7),0,TODAY()-O7), P7-O7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9">
-        <f ca="1">VLOOKUP(N8,SP!A$2:$C$8,3)</f>
-        <v>34</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="8">
+        <f>VLOOKUP(N8,SP!A$2:$C$9,3)</f>
+        <v>55</v>
+      </c>
+      <c r="C8" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K8)/(Sprints!$B$2:$B$20&gt;=K8),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L8)/(Sprints!$B$2:$B$20&gt;=L8),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M8)/(Sprints!$B$2:$B$20&gt;=M8),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="F8" s="9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F8" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O8)/(Sprints!$B$2:$B$20&gt;=O8),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P8)/(Sprints!$B$2:$B$20&gt;=P8),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I8" s="9">
-        <f ca="1">H8 - G8</f>
+      <c r="I8" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>43613</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>43613</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>43658</v>
       </c>
-      <c r="N8" s="7">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N8" s="8">
+        <f>IF(ISBLANK(L8), IF(ISBLANK(M8),0, TODAY-M8), M8-L8)</f>
         <v>45</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>43661</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>43662</v>
       </c>
-      <c r="Q8" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q8" s="8">
+        <f ca="1">IF(ISBLANK(P8), IF(ISBLANK(O8),0,TODAY()-O8), P8-O8)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9">
-        <f ca="1">VLOOKUP(N9,SP!A$2:$C$8,3)</f>
+      <c r="B9" s="8">
+        <f>VLOOKUP(N9,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K9)/(Sprints!$B$2:$B$20&gt;=K9),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L9)/(Sprints!$B$2:$B$20&gt;=L9),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M9)/(Sprints!$B$2:$B$20&gt;=M9),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F9" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O9)/(Sprints!$B$2:$B$20&gt;=O9),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P9)/(Sprints!$B$2:$B$20&gt;=P9),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I9" s="9">
-        <f ca="1">H9 - G9</f>
+      <c r="I9" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>43613</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>43615</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>43648</v>
       </c>
-      <c r="N9" s="7">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N9" s="8">
+        <f>IF(ISBLANK(L9), IF(ISBLANK(M9),0, TODAY-M9), M9-L9)</f>
         <v>33</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>43661</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>43662</v>
       </c>
-      <c r="Q9" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q9" s="8">
+        <f ca="1">IF(ISBLANK(P9), IF(ISBLANK(O9),0,TODAY()-O9), P9-O9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9">
-        <f ca="1">VLOOKUP(N10,SP!A$2:$C$8,3)</f>
+      <c r="B10" s="8">
+        <f>VLOOKUP(N10,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K10)/(Sprints!$B$2:$B$20&gt;=K10),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L10)/(Sprints!$B$2:$B$20&gt;=L10),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M10)/(Sprints!$B$2:$B$20&gt;=M10),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F10" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O10)/(Sprints!$B$2:$B$20&gt;=O10),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P10)/(Sprints!$B$2:$B$20&gt;=P10),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I10" s="9">
-        <f ca="1">H10 - G10</f>
+      <c r="I10" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>43613</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>43621</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>43648</v>
       </c>
-      <c r="N10" s="7">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N10" s="8">
+        <f>IF(ISBLANK(L10), IF(ISBLANK(M10),0, TODAY-M10), M10-L10)</f>
         <v>27</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>43661</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <v>43662</v>
       </c>
-      <c r="Q10" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q10" s="8">
+        <f ca="1">IF(ISBLANK(P10), IF(ISBLANK(O10),0,TODAY()-O10), P10-O10)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9">
-        <f ca="1">VLOOKUP(N11,SP!A$2:$C$8,3)</f>
+      <c r="B11" s="8">
+        <f>VLOOKUP(N11,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K11)/(Sprints!$B$2:$B$20&gt;=K11),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L11)/(Sprints!$B$2:$B$20&gt;=L11),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M11)/(Sprints!$B$2:$B$20&gt;=M11),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F11" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O11)/(Sprints!$B$2:$B$20&gt;=O11),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P11)/(Sprints!$B$2:$B$20&gt;=P11),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I11" s="9">
-        <f ca="1">H11 - G11</f>
+      <c r="I11" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>43613</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>43620</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>43658</v>
       </c>
-      <c r="N11" s="7">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N11" s="8">
+        <f>IF(ISBLANK(L11), IF(ISBLANK(M11),0, TODAY-M11), M11-L11)</f>
         <v>38</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>43661</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>43664</v>
       </c>
-      <c r="Q11" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q11" s="8">
+        <f ca="1">IF(ISBLANK(P11), IF(ISBLANK(O11),0,TODAY()-O11), P11-O11)</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9">
-        <f ca="1">VLOOKUP(N12,SP!A$2:$C$8,3)</f>
+      <c r="B12" s="8">
+        <f>VLOOKUP(N12,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K12)/(Sprints!$B$2:$B$20&gt;=K12),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L12)/(Sprints!$B$2:$B$20&gt;=L12),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M12)/(Sprints!$B$2:$B$20&gt;=M12),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F12" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O12)/(Sprints!$B$2:$B$20&gt;=O12),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P12)/(Sprints!$B$2:$B$20&gt;=P12),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I12" s="9">
-        <f ca="1">H12 - G12</f>
+      <c r="I12" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>43613</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>43623</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>43658</v>
       </c>
-      <c r="N12" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N12" s="8">
+        <f>IF(ISBLANK(L12), IF(ISBLANK(M12),0, TODAY-M12), M12-L12)</f>
         <v>35</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>43661</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <v>43662</v>
       </c>
-      <c r="Q12" s="4">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q12" s="8">
+        <f ca="1">IF(ISBLANK(P12), IF(ISBLANK(O12),0,TODAY()-O12), P12-O12)</f>
         <v>1</v>
       </c>
     </row>
@@ -4522,67 +4546,165 @@
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="9">
-        <f ca="1">VLOOKUP(N13,SP!A$2:$C$8,3)</f>
+      <c r="B13" s="8">
+        <f>VLOOKUP(N13,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K13)/(Sprints!$B$2:$B$20&gt;=K13),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L13)/(Sprints!$B$2:$B$20&gt;=L13),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M13)/(Sprints!$B$2:$B$20&gt;=M13),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="F13" s="9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F13" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O13)/(Sprints!$B$2:$B$20&gt;=O13),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P13)/(Sprints!$B$2:$B$20&gt;=P13),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I13" s="9">
-        <f ca="1">H13 - G13</f>
+      <c r="I13" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>43620</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>43621</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>43658</v>
       </c>
-      <c r="N13" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N13" s="8">
+        <f>IF(ISBLANK(L13), IF(ISBLANK(M13),0, TODAY-M13), M13-L13)</f>
         <v>37</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>43661</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <v>43662</v>
       </c>
-      <c r="Q13" s="4">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q13" s="8">
+        <f ca="1">IF(ISBLANK(P13), IF(ISBLANK(O13),0,TODAY()-O13), P13-O13)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8">
+        <f>VLOOKUP(N14,SP!A$2:$C$9,3)</f>
+        <v>55</v>
+      </c>
+      <c r="C14" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K14)/(Sprints!$B$2:$B$20&gt;=K14),Sprints!$C$2:$C$20)</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L14)/(Sprints!$B$2:$B$20&gt;=L14),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="E14" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M14)/(Sprints!$B$2:$B$20&gt;=M14),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14" ca="1" si="2" xml:space="preserve"> E14 - D14</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O14)/(Sprints!$B$2:$B$20&gt;=O14),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P14)/(Sprints!$B$2:$B$20&gt;=P14),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="8" t="e">
+        <f t="shared" ref="I14" ca="1" si="3">H14 - G14</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="5">
+        <v>43516</v>
+      </c>
+      <c r="L14" s="5">
+        <v>43628</v>
+      </c>
+      <c r="M14" s="5">
+        <v>43711</v>
+      </c>
+      <c r="N14" s="8">
+        <f>IF(ISBLANK(L14), IF(ISBLANK(M14),0, TODAY-M14), M14-L14)</f>
+        <v>83</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="Q14" s="8">
+        <f ca="1">IF(ISBLANK(P14), IF(ISBLANK(O14),0,TODAY()-O14), P14-O14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I18" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}"/>
+  <autoFilter ref="A1:I14" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
@@ -4593,16 +4715,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA68DE-49B5-450C-B56C-8FE4562D72A6}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4692,6 +4814,17 @@
       </c>
       <c r="C8">
         <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ncis-sprint-burndowns.xlsx
+++ b/ncis-sprint-burndowns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85E044-5E09-47AB-AE93-B0D6A6A4DCCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47746CA-29AD-45CC-82BF-7EFD12560205}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Summary" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sprints" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$1:$K$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>Backlog Sprint</t>
   </si>
@@ -219,6 +219,29 @@
   </si>
   <si>
     <t>NCIS-417</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
+  </si>
+  <si>
+    <t>Sprint 12</t>
+  </si>
+  <si>
+    <t>Story Points
+(Original)</t>
+  </si>
+  <si>
+    <t>Story Points
+(Real)</t>
+  </si>
+  <si>
+    <t>NCIS-176</t>
+  </si>
+  <si>
+    <t>Sprint 14</t>
+  </si>
+  <si>
+    <t>NCIS-220</t>
   </si>
 </sst>
 </file>
@@ -292,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -323,6 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3773,942 +3797,1418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C989A-0DB4-4957-8B7C-55617C9397A2}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="4" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8">
-        <f>VLOOKUP(N2,SP!A$2:$C$9,3)</f>
+      <c r="C2" s="11"/>
+      <c r="D2" s="8">
+        <f>VLOOKUP(P2,SP!A$2:$C$9,3)</f>
         <v>55</v>
-      </c>
-      <c r="C2" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K2)/(Sprints!$B$2:$B$20&gt;=K2),Sprints!$C$2:$C$20)</f>
-        <v>5</v>
-      </c>
-      <c r="D2" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L2)/(Sprints!$B$2:$B$20&gt;=L2),Sprints!$C$2:$C$20)</f>
-        <v>5</v>
       </c>
       <c r="E2" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M2)/(Sprints!$B$2:$B$20&gt;=M2),Sprints!$C$2:$C$20)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N2)/(Sprints!$B$2:$B$20&gt;=N2),Sprints!$C$2:$C$20)</f>
+        <v>5</v>
+      </c>
+      <c r="G2" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O2)/(Sprints!$B$2:$B$20&gt;=O2),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="F2" s="8">
-        <f ca="1" xml:space="preserve"> E2 - D2</f>
+      <c r="H2" s="8">
+        <f ca="1" xml:space="preserve"> G2 - F2</f>
         <v>9</v>
       </c>
-      <c r="G2" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O2)/(Sprints!$B$2:$B$20&gt;=O2),Sprints!$C$2:$C$20)</f>
+      <c r="I2" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q2)/(Sprints!$B$2:$B$20&gt;=Q2),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P2)/(Sprints!$B$2:$B$20&gt;=P2),Sprints!$C$2:$C$20)</f>
+      <c r="J2" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R2)/(Sprints!$B$2:$B$20&gt;=R2),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
-      <c r="I2" s="8" t="e">
-        <f t="shared" ref="I2:I13" ca="1" si="0">H2 - G2</f>
+      <c r="K2" s="8" t="e">
+        <f t="shared" ref="K2:K13" ca="1" si="0">J2 - I2</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="5">
+      <c r="M2" s="5">
         <v>43535</v>
       </c>
-      <c r="L2" s="5">
+      <c r="N2" s="5">
         <v>43537</v>
       </c>
-      <c r="M2" s="7">
+      <c r="O2" s="7">
         <v>43658</v>
       </c>
-      <c r="N2" s="8">
-        <f>IF(ISBLANK(L2), IF(ISBLANK(M2),0, TODAY-M2), M2-L2)</f>
+      <c r="P2" s="8">
+        <f>IF(ISBLANK(N2), IF(ISBLANK(O2),0, TODAY-O2), O2-N2)</f>
         <v>121</v>
       </c>
-      <c r="O2" s="5">
+      <c r="Q2" s="5">
         <v>43717</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8">
-        <f ca="1">IF(ISBLANK(P2), IF(ISBLANK(O2),0,TODAY()-O2), P2-O2)</f>
-        <v>0</v>
+      <c r="R2" s="7"/>
+      <c r="S2" s="8">
+        <f t="shared" ref="S2:S21" ca="1" si="1">IF(ISBLANK(R2), IF(ISBLANK(Q2),0,TODAY()-Q2), R2-Q2)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8">
-        <f>VLOOKUP(N3,SP!A$2:$C$9,3)</f>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8">
+        <f>VLOOKUP(P3,SP!A$2:$C$9,3)</f>
         <v>55</v>
-      </c>
-      <c r="C3" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K3)/(Sprints!$B$2:$B$20&gt;=K3),Sprints!$C$2:$C$20)</f>
-        <v>5</v>
-      </c>
-      <c r="D3" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L3)/(Sprints!$B$2:$B$20&gt;=L3),Sprints!$C$2:$C$20)</f>
-        <v>5</v>
       </c>
       <c r="E3" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M3)/(Sprints!$B$2:$B$20&gt;=M3),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F13" ca="1" si="1" xml:space="preserve"> E3 - D3</f>
-        <v>9</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N3)/(Sprints!$B$2:$B$20&gt;=N3),Sprints!$C$2:$C$20)</f>
+        <v>5</v>
       </c>
       <c r="G3" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O3)/(Sprints!$B$2:$B$20&gt;=O3),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H13" ca="1" si="2" xml:space="preserve"> G3 - F3</f>
+        <v>9</v>
+      </c>
+      <c r="I3" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q3)/(Sprints!$B$2:$B$20&gt;=Q3),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="H3" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P3)/(Sprints!$B$2:$B$20&gt;=P3),Sprints!$C$2:$C$20)</f>
+      <c r="J3" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R3)/(Sprints!$B$2:$B$20&gt;=R3),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
-      <c r="I3" s="8" t="e">
+      <c r="K3" s="8" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="5">
+      <c r="M3" s="5">
         <v>43535</v>
       </c>
-      <c r="L3" s="5">
+      <c r="N3" s="5">
         <v>43539</v>
       </c>
-      <c r="M3" s="5">
+      <c r="O3" s="5">
         <v>43658</v>
       </c>
-      <c r="N3" s="8">
-        <f>IF(ISBLANK(L3), IF(ISBLANK(M3),0, TODAY-M3), M3-L3)</f>
+      <c r="P3" s="8">
+        <f>IF(ISBLANK(N3), IF(ISBLANK(O3),0, TODAY-O3), O3-N3)</f>
         <v>119</v>
       </c>
-      <c r="O3" s="5">
+      <c r="Q3" s="5">
         <v>43706</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8">
-        <f ca="1">IF(ISBLANK(P3), IF(ISBLANK(O3),0,TODAY()-O3), P3-O3)</f>
-        <v>11</v>
+      <c r="R3" s="7"/>
+      <c r="S3" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8">
-        <f>VLOOKUP(N4,SP!A$2:$C$9,3)</f>
+      <c r="C4" s="11"/>
+      <c r="D4" s="8">
+        <f>VLOOKUP(P4,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="C4" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K4)/(Sprints!$B$2:$B$20&gt;=K4),Sprints!$C$2:$C$20)</f>
-        <v>9</v>
-      </c>
-      <c r="D4" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L4)/(Sprints!$B$2:$B$20&gt;=L4),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="E4" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M4)/(Sprints!$B$2:$B$20&gt;=M4),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N4)/(Sprints!$B$2:$B$20&gt;=N4),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
       </c>
       <c r="G4" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O4)/(Sprints!$B$2:$B$20&gt;=O4),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="H4" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P4)/(Sprints!$B$2:$B$20&gt;=P4),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q4)/(Sprints!$B$2:$B$20&gt;=Q4),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R4)/(Sprints!$B$2:$B$20&gt;=R4),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="K4" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="7">
+      <c r="M4" s="7">
         <v>43594</v>
       </c>
-      <c r="L4" s="7">
+      <c r="N4" s="7">
         <v>43614</v>
       </c>
-      <c r="M4" s="7">
+      <c r="O4" s="7">
         <v>43654</v>
       </c>
-      <c r="N4" s="8">
-        <f>IF(ISBLANK(L4), IF(ISBLANK(M4),0, TODAY-M4), M4-L4)</f>
+      <c r="P4" s="8">
+        <f>IF(ISBLANK(N4), IF(ISBLANK(O4),0, TODAY-O4), O4-N4)</f>
         <v>40</v>
       </c>
-      <c r="O4" s="7">
+      <c r="Q4" s="7">
         <v>43661</v>
       </c>
-      <c r="P4" s="7">
+      <c r="R4" s="7">
         <v>43664</v>
       </c>
-      <c r="Q4" s="8">
-        <f ca="1">IF(ISBLANK(P4), IF(ISBLANK(O4),0,TODAY()-O4), P4-O4)</f>
+      <c r="S4" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8">
-        <f>VLOOKUP(N5,SP!A$2:$C$9,3)</f>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8">
+        <f>VLOOKUP(P5,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="C5" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K5)/(Sprints!$B$2:$B$20&gt;=K5),Sprints!$C$2:$C$20)</f>
-        <v>10</v>
-      </c>
-      <c r="D5" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L5)/(Sprints!$B$2:$B$20&gt;=L5),Sprints!$C$2:$C$20)</f>
-        <v>10</v>
       </c>
       <c r="E5" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M5)/(Sprints!$B$2:$B$20&gt;=M5),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N5)/(Sprints!$B$2:$B$20&gt;=N5),Sprints!$C$2:$C$20)</f>
+        <v>10</v>
       </c>
       <c r="G5" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O5)/(Sprints!$B$2:$B$20&gt;=O5),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q5)/(Sprints!$B$2:$B$20&gt;=Q5),Sprints!$C$2:$C$20)</f>
         <v>12</v>
       </c>
-      <c r="H5" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P5)/(Sprints!$B$2:$B$20&gt;=P5),Sprints!$C$2:$C$20)</f>
+      <c r="J5" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R5)/(Sprints!$B$2:$B$20&gt;=R5),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="I5" s="8">
+      <c r="K5" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="7">
+      <c r="M5" s="7">
         <v>43600</v>
       </c>
-      <c r="L5" s="7">
+      <c r="N5" s="7">
         <v>43600</v>
       </c>
-      <c r="M5" s="7">
+      <c r="O5" s="7">
         <v>43622</v>
       </c>
-      <c r="N5" s="8">
-        <f>IF(ISBLANK(L5), IF(ISBLANK(M5),0, TODAY-M5), M5-L5)</f>
+      <c r="P5" s="8">
+        <f>IF(ISBLANK(N5), IF(ISBLANK(O5),0, TODAY-O5), O5-N5)</f>
         <v>22</v>
       </c>
-      <c r="O5" s="7">
+      <c r="Q5" s="7">
         <v>43626</v>
       </c>
-      <c r="P5" s="7">
+      <c r="R5" s="7">
         <v>43648</v>
       </c>
-      <c r="Q5" s="8">
-        <f ca="1">IF(ISBLANK(P5), IF(ISBLANK(O5),0,TODAY()-O5), P5-O5)</f>
+      <c r="S5" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8">
-        <f>VLOOKUP(N6,SP!A$2:$C$9,3)</f>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8">
+        <f>VLOOKUP(P6,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="C6" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K6)/(Sprints!$B$2:$B$20&gt;=K6),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
-      </c>
-      <c r="D6" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L6)/(Sprints!$B$2:$B$20&gt;=L6),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="E6" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M6)/(Sprints!$B$2:$B$20&gt;=M6),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N6)/(Sprints!$B$2:$B$20&gt;=N6),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
       </c>
       <c r="G6" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O6)/(Sprints!$B$2:$B$20&gt;=O6),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="H6" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P6)/(Sprints!$B$2:$B$20&gt;=P6),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q6)/(Sprints!$B$2:$B$20&gt;=Q6),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R6)/(Sprints!$B$2:$B$20&gt;=R6),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="K6" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7">
+      <c r="M6" s="7">
         <v>43613</v>
       </c>
-      <c r="L6" s="7">
+      <c r="N6" s="7">
         <v>43619</v>
       </c>
-      <c r="M6" s="7">
+      <c r="O6" s="7">
         <v>43654</v>
       </c>
-      <c r="N6" s="8">
-        <f>IF(ISBLANK(L6), IF(ISBLANK(M6),0, TODAY-M6), M6-L6)</f>
+      <c r="P6" s="8">
+        <f>IF(ISBLANK(N6), IF(ISBLANK(O6),0, TODAY-O6), O6-N6)</f>
         <v>35</v>
       </c>
-      <c r="O6" s="7">
+      <c r="Q6" s="7">
         <v>43661</v>
       </c>
-      <c r="P6" s="7">
+      <c r="R6" s="7">
         <v>43664</v>
       </c>
-      <c r="Q6" s="8">
-        <f ca="1">IF(ISBLANK(P6), IF(ISBLANK(O6),0,TODAY()-O6), P6-O6)</f>
+      <c r="S6" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8">
-        <f>VLOOKUP(N7,SP!A$2:$C$9,3)</f>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8">
+        <f>VLOOKUP(P7,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="C7" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K7)/(Sprints!$B$2:$B$20&gt;=K7),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
-      </c>
-      <c r="D7" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L7)/(Sprints!$B$2:$B$20&gt;=L7),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="E7" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M7)/(Sprints!$B$2:$B$20&gt;=M7),Sprints!$C$2:$C$20)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N7)/(Sprints!$B$2:$B$20&gt;=N7),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
       </c>
       <c r="G7" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O7)/(Sprints!$B$2:$B$20&gt;=O7),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q7)/(Sprints!$B$2:$B$20&gt;=Q7),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H7" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P7)/(Sprints!$B$2:$B$20&gt;=P7),Sprints!$C$2:$C$20)</f>
+      <c r="J7" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R7)/(Sprints!$B$2:$B$20&gt;=R7),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I7" s="8">
+      <c r="K7" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="7">
+      <c r="M7" s="7">
         <v>43613</v>
       </c>
-      <c r="L7" s="7">
+      <c r="N7" s="7">
         <v>43620</v>
       </c>
-      <c r="M7" s="7">
+      <c r="O7" s="7">
         <v>43648</v>
       </c>
-      <c r="N7" s="8">
-        <f>IF(ISBLANK(L7), IF(ISBLANK(M7),0, TODAY-M7), M7-L7)</f>
+      <c r="P7" s="8">
+        <f>IF(ISBLANK(N7), IF(ISBLANK(O7),0, TODAY-O7), O7-N7)</f>
         <v>28</v>
       </c>
-      <c r="O7" s="7">
+      <c r="Q7" s="7">
         <v>43661</v>
       </c>
-      <c r="P7" s="7">
+      <c r="R7" s="7">
         <v>43664</v>
       </c>
-      <c r="Q7" s="8">
-        <f ca="1">IF(ISBLANK(P7), IF(ISBLANK(O7),0,TODAY()-O7), P7-O7)</f>
+      <c r="S7" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8">
-        <f>VLOOKUP(N8,SP!A$2:$C$9,3)</f>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8">
+        <f>VLOOKUP(P8,SP!A$2:$C$9,3)</f>
         <v>55</v>
-      </c>
-      <c r="C8" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K8)/(Sprints!$B$2:$B$20&gt;=K8),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
-      </c>
-      <c r="D8" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L8)/(Sprints!$B$2:$B$20&gt;=L8),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="E8" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M8)/(Sprints!$B$2:$B$20&gt;=M8),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N8)/(Sprints!$B$2:$B$20&gt;=N8),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
       </c>
       <c r="G8" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O8)/(Sprints!$B$2:$B$20&gt;=O8),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="H8" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P8)/(Sprints!$B$2:$B$20&gt;=P8),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q8)/(Sprints!$B$2:$B$20&gt;=Q8),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R8)/(Sprints!$B$2:$B$20&gt;=R8),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="K8" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="7">
+      <c r="M8" s="7">
         <v>43613</v>
       </c>
-      <c r="L8" s="7">
+      <c r="N8" s="7">
         <v>43613</v>
       </c>
-      <c r="M8" s="7">
+      <c r="O8" s="7">
         <v>43658</v>
       </c>
-      <c r="N8" s="8">
-        <f>IF(ISBLANK(L8), IF(ISBLANK(M8),0, TODAY-M8), M8-L8)</f>
+      <c r="P8" s="8">
+        <f>IF(ISBLANK(N8), IF(ISBLANK(O8),0, TODAY-O8), O8-N8)</f>
         <v>45</v>
       </c>
-      <c r="O8" s="7">
+      <c r="Q8" s="7">
         <v>43661</v>
       </c>
-      <c r="P8" s="7">
+      <c r="R8" s="7">
         <v>43662</v>
       </c>
-      <c r="Q8" s="8">
-        <f ca="1">IF(ISBLANK(P8), IF(ISBLANK(O8),0,TODAY()-O8), P8-O8)</f>
+      <c r="S8" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8">
-        <f>VLOOKUP(N9,SP!A$2:$C$9,3)</f>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8">
+        <f>VLOOKUP(P9,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="C9" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K9)/(Sprints!$B$2:$B$20&gt;=K9),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
-      </c>
-      <c r="D9" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L9)/(Sprints!$B$2:$B$20&gt;=L9),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="E9" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M9)/(Sprints!$B$2:$B$20&gt;=M9),Sprints!$C$2:$C$20)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N9)/(Sprints!$B$2:$B$20&gt;=N9),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
       </c>
       <c r="G9" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O9)/(Sprints!$B$2:$B$20&gt;=O9),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q9)/(Sprints!$B$2:$B$20&gt;=Q9),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H9" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P9)/(Sprints!$B$2:$B$20&gt;=P9),Sprints!$C$2:$C$20)</f>
+      <c r="J9" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R9)/(Sprints!$B$2:$B$20&gt;=R9),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I9" s="8">
+      <c r="K9" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="7">
+      <c r="M9" s="7">
         <v>43613</v>
       </c>
-      <c r="L9" s="7">
+      <c r="N9" s="7">
         <v>43615</v>
       </c>
-      <c r="M9" s="7">
+      <c r="O9" s="7">
         <v>43648</v>
       </c>
-      <c r="N9" s="8">
-        <f>IF(ISBLANK(L9), IF(ISBLANK(M9),0, TODAY-M9), M9-L9)</f>
+      <c r="P9" s="8">
+        <f>IF(ISBLANK(N9), IF(ISBLANK(O9),0, TODAY-O9), O9-N9)</f>
         <v>33</v>
       </c>
-      <c r="O9" s="7">
+      <c r="Q9" s="7">
         <v>43661</v>
       </c>
-      <c r="P9" s="7">
+      <c r="R9" s="7">
         <v>43662</v>
       </c>
-      <c r="Q9" s="8">
-        <f ca="1">IF(ISBLANK(P9), IF(ISBLANK(O9),0,TODAY()-O9), P9-O9)</f>
+      <c r="S9" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8">
-        <f>VLOOKUP(N10,SP!A$2:$C$9,3)</f>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8">
+        <f>VLOOKUP(P10,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="C10" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K10)/(Sprints!$B$2:$B$20&gt;=K10),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
-      </c>
-      <c r="D10" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L10)/(Sprints!$B$2:$B$20&gt;=L10),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="E10" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M10)/(Sprints!$B$2:$B$20&gt;=M10),Sprints!$C$2:$C$20)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N10)/(Sprints!$B$2:$B$20&gt;=N10),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
       </c>
       <c r="G10" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O10)/(Sprints!$B$2:$B$20&gt;=O10),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q10)/(Sprints!$B$2:$B$20&gt;=Q10),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H10" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P10)/(Sprints!$B$2:$B$20&gt;=P10),Sprints!$C$2:$C$20)</f>
+      <c r="J10" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R10)/(Sprints!$B$2:$B$20&gt;=R10),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I10" s="8">
+      <c r="K10" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="7">
+      <c r="M10" s="7">
         <v>43613</v>
       </c>
-      <c r="L10" s="7">
+      <c r="N10" s="7">
         <v>43621</v>
       </c>
-      <c r="M10" s="7">
+      <c r="O10" s="7">
         <v>43648</v>
       </c>
-      <c r="N10" s="8">
-        <f>IF(ISBLANK(L10), IF(ISBLANK(M10),0, TODAY-M10), M10-L10)</f>
+      <c r="P10" s="8">
+        <f>IF(ISBLANK(N10), IF(ISBLANK(O10),0, TODAY-O10), O10-N10)</f>
         <v>27</v>
       </c>
-      <c r="O10" s="7">
+      <c r="Q10" s="7">
         <v>43661</v>
       </c>
-      <c r="P10" s="7">
+      <c r="R10" s="7">
         <v>43662</v>
       </c>
-      <c r="Q10" s="8">
-        <f ca="1">IF(ISBLANK(P10), IF(ISBLANK(O10),0,TODAY()-O10), P10-O10)</f>
+      <c r="S10" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="8">
-        <f>VLOOKUP(N11,SP!A$2:$C$9,3)</f>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8">
+        <f>VLOOKUP(P11,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="C11" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K11)/(Sprints!$B$2:$B$20&gt;=K11),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
-      </c>
-      <c r="D11" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L11)/(Sprints!$B$2:$B$20&gt;=L11),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="E11" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M11)/(Sprints!$B$2:$B$20&gt;=M11),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N11)/(Sprints!$B$2:$B$20&gt;=N11),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O11)/(Sprints!$B$2:$B$20&gt;=O11),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="H11" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P11)/(Sprints!$B$2:$B$20&gt;=P11),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q11)/(Sprints!$B$2:$B$20&gt;=Q11),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R11)/(Sprints!$B$2:$B$20&gt;=R11),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="K11" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="7">
+      <c r="M11" s="7">
         <v>43613</v>
       </c>
-      <c r="L11" s="7">
+      <c r="N11" s="7">
         <v>43620</v>
       </c>
-      <c r="M11" s="7">
+      <c r="O11" s="7">
         <v>43658</v>
       </c>
-      <c r="N11" s="8">
-        <f>IF(ISBLANK(L11), IF(ISBLANK(M11),0, TODAY-M11), M11-L11)</f>
+      <c r="P11" s="8">
+        <f>IF(ISBLANK(N11), IF(ISBLANK(O11),0, TODAY-O11), O11-N11)</f>
         <v>38</v>
       </c>
-      <c r="O11" s="7">
+      <c r="Q11" s="7">
         <v>43661</v>
       </c>
-      <c r="P11" s="7">
+      <c r="R11" s="7">
         <v>43664</v>
       </c>
-      <c r="Q11" s="8">
-        <f ca="1">IF(ISBLANK(P11), IF(ISBLANK(O11),0,TODAY()-O11), P11-O11)</f>
+      <c r="S11" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8">
-        <f>VLOOKUP(N12,SP!A$2:$C$9,3)</f>
+      <c r="C12" s="11"/>
+      <c r="D12" s="8">
+        <f>VLOOKUP(P12,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="C12" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K12)/(Sprints!$B$2:$B$20&gt;=K12),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
-      </c>
-      <c r="D12" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L12)/(Sprints!$B$2:$B$20&gt;=L12),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="E12" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M12)/(Sprints!$B$2:$B$20&gt;=M12),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N12)/(Sprints!$B$2:$B$20&gt;=N12),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
       </c>
       <c r="G12" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O12)/(Sprints!$B$2:$B$20&gt;=O12),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="H12" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P12)/(Sprints!$B$2:$B$20&gt;=P12),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q12)/(Sprints!$B$2:$B$20&gt;=Q12),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R12)/(Sprints!$B$2:$B$20&gt;=R12),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="K12" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="7">
+      <c r="M12" s="7">
         <v>43613</v>
       </c>
-      <c r="L12" s="7">
+      <c r="N12" s="7">
         <v>43623</v>
       </c>
-      <c r="M12" s="7">
+      <c r="O12" s="7">
         <v>43658</v>
       </c>
-      <c r="N12" s="8">
-        <f>IF(ISBLANK(L12), IF(ISBLANK(M12),0, TODAY-M12), M12-L12)</f>
+      <c r="P12" s="8">
+        <f>IF(ISBLANK(N12), IF(ISBLANK(O12),0, TODAY-O12), O12-N12)</f>
         <v>35</v>
       </c>
-      <c r="O12" s="7">
+      <c r="Q12" s="7">
         <v>43661</v>
       </c>
-      <c r="P12" s="7">
+      <c r="R12" s="7">
         <v>43662</v>
       </c>
-      <c r="Q12" s="8">
-        <f ca="1">IF(ISBLANK(P12), IF(ISBLANK(O12),0,TODAY()-O12), P12-O12)</f>
+      <c r="S12" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="8">
-        <f>VLOOKUP(N13,SP!A$2:$C$9,3)</f>
+      <c r="C13" s="11"/>
+      <c r="D13" s="8">
+        <f>VLOOKUP(P13,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="C13" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K13)/(Sprints!$B$2:$B$20&gt;=K13),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
-      </c>
-      <c r="D13" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L13)/(Sprints!$B$2:$B$20&gt;=L13),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="E13" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M13)/(Sprints!$B$2:$B$20&gt;=M13),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N13)/(Sprints!$B$2:$B$20&gt;=N13),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
       </c>
       <c r="G13" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O13)/(Sprints!$B$2:$B$20&gt;=O13),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="H13" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P13)/(Sprints!$B$2:$B$20&gt;=P13),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q13)/(Sprints!$B$2:$B$20&gt;=Q13),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R13)/(Sprints!$B$2:$B$20&gt;=R13),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="K13" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="7">
+      <c r="M13" s="7">
         <v>43620</v>
       </c>
-      <c r="L13" s="7">
+      <c r="N13" s="7">
         <v>43621</v>
       </c>
-      <c r="M13" s="7">
+      <c r="O13" s="7">
         <v>43658</v>
       </c>
-      <c r="N13" s="8">
-        <f>IF(ISBLANK(L13), IF(ISBLANK(M13),0, TODAY-M13), M13-L13)</f>
+      <c r="P13" s="8">
+        <f>IF(ISBLANK(N13), IF(ISBLANK(O13),0, TODAY-O13), O13-N13)</f>
         <v>37</v>
       </c>
-      <c r="O13" s="7">
+      <c r="Q13" s="7">
         <v>43661</v>
       </c>
-      <c r="P13" s="7">
+      <c r="R13" s="7">
         <v>43662</v>
       </c>
-      <c r="Q13" s="8">
-        <f ca="1">IF(ISBLANK(P13), IF(ISBLANK(O13),0,TODAY()-O13), P13-O13)</f>
+      <c r="S13" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="8">
-        <f>VLOOKUP(N14,SP!A$2:$C$9,3)</f>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8">
+        <f>VLOOKUP(P14,SP!A$2:$C$9,3)</f>
         <v>55</v>
       </c>
-      <c r="C14" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=K14)/(Sprints!$B$2:$B$20&gt;=K14),Sprints!$C$2:$C$20)</f>
+      <c r="E14" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M14)/(Sprints!$B$2:$B$20&gt;=M14),Sprints!$C$2:$C$20)</f>
         <v>4</v>
       </c>
-      <c r="D14" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=L14)/(Sprints!$B$2:$B$20&gt;=L14),Sprints!$C$2:$C$20)</f>
+      <c r="F14" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N14)/(Sprints!$B$2:$B$20&gt;=N14),Sprints!$C$2:$C$20)</f>
         <v>12</v>
       </c>
-      <c r="E14" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M14)/(Sprints!$B$2:$B$20&gt;=M14),Sprints!$C$2:$C$20)</f>
+      <c r="G14" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O14)/(Sprints!$B$2:$B$20&gt;=O14),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14" ca="1" si="2" xml:space="preserve"> E14 - D14</f>
+      <c r="H14" s="8">
+        <f t="shared" ref="H14" ca="1" si="3" xml:space="preserve"> G14 - F14</f>
         <v>6</v>
       </c>
-      <c r="G14" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O14)/(Sprints!$B$2:$B$20&gt;=O14),Sprints!$C$2:$C$20)</f>
+      <c r="I14" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q14)/(Sprints!$B$2:$B$20&gt;=Q14),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P14)/(Sprints!$B$2:$B$20&gt;=P14),Sprints!$C$2:$C$20)</f>
+      <c r="J14" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R14)/(Sprints!$B$2:$B$20&gt;=R14),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="8" t="e">
-        <f t="shared" ref="I14" ca="1" si="3">H14 - G14</f>
+      <c r="K14" s="8" t="e">
+        <f t="shared" ref="K14" ca="1" si="4">J14 - I14</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="5">
+      <c r="M14" s="5">
         <v>43516</v>
       </c>
-      <c r="L14" s="5">
+      <c r="N14" s="5">
         <v>43628</v>
       </c>
-      <c r="M14" s="5">
-        <v>43711</v>
-      </c>
-      <c r="N14" s="8">
-        <f>IF(ISBLANK(L14), IF(ISBLANK(M14),0, TODAY-M14), M14-L14)</f>
-        <v>83</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="Q14" s="8">
-        <f ca="1">IF(ISBLANK(P14), IF(ISBLANK(O14),0,TODAY()-O14), P14-O14)</f>
+      <c r="O14" s="5">
+        <v>43712</v>
+      </c>
+      <c r="P14" s="8">
+        <f>IF(ISBLANK(N14), IF(ISBLANK(O14),0, TODAY-O14), O14-N14)</f>
+        <v>84</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="8">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="J15" t="s">
+      <c r="C15"/>
+      <c r="D15" s="8">
+        <f>VLOOKUP(P15,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M15)/(Sprints!$B$2:$B$20&gt;=M15),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="F15" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N15)/(Sprints!$B$2:$B$20&gt;=N15),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="G15" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O15)/(Sprints!$B$2:$B$20&gt;=O15),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" ref="H15" ca="1" si="5" xml:space="preserve"> G15 - F15</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q15)/(Sprints!$B$2:$B$20&gt;=Q15),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J15" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R15)/(Sprints!$B$2:$B$20&gt;=R15),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" ref="K15" ca="1" si="6">J15 - I15</f>
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>55</v>
       </c>
+      <c r="M15" s="5">
+        <v>43620</v>
+      </c>
+      <c r="N15" s="5">
+        <v>43633</v>
+      </c>
+      <c r="O15" s="5">
+        <v>43649</v>
+      </c>
+      <c r="P15" s="8">
+        <f>IF(ISBLANK(N15), IF(ISBLANK(O15),0, TODAY-O15), O15-N15)</f>
+        <v>16</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>43706</v>
+      </c>
+      <c r="R15" s="5">
+        <v>43717</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="J16" t="s">
+      <c r="C16"/>
+      <c r="D16" s="8">
+        <f>VLOOKUP(P16,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="E16" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M16)/(Sprints!$B$2:$B$20&gt;=M16),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="F16" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N16)/(Sprints!$B$2:$B$20&gt;=N16),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="G16" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O16)/(Sprints!$B$2:$B$20&gt;=O16),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" ref="H16" ca="1" si="7" xml:space="preserve"> G16 - F16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q16)/(Sprints!$B$2:$B$20&gt;=Q16),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J16" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R16)/(Sprints!$B$2:$B$20&gt;=R16),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" ref="K16" ca="1" si="8">J16 - I16</f>
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>57</v>
       </c>
+      <c r="M16" s="5">
+        <v>43622</v>
+      </c>
+      <c r="N16" s="5">
+        <v>43628</v>
+      </c>
+      <c r="O16" s="5">
+        <v>43649</v>
+      </c>
+      <c r="P16" s="8">
+        <f>IF(ISBLANK(N16), IF(ISBLANK(O16),0, TODAY-O16), O16-N16)</f>
+        <v>21</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>43706</v>
+      </c>
+      <c r="R16" s="5">
+        <v>43717</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="J17" t="s">
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8">
+        <f>VLOOKUP(P17,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="E17" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M17)/(Sprints!$B$2:$B$20&gt;=M17),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="F17" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N17)/(Sprints!$B$2:$B$20&gt;=N17),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="G17" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O17)/(Sprints!$B$2:$B$20&gt;=O17),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" ref="H17" ca="1" si="9" xml:space="preserve"> G17 - F17</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q17)/(Sprints!$B$2:$B$20&gt;=Q17),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J17" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R17)/(Sprints!$B$2:$B$20&gt;=R17),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" ref="K17" ca="1" si="10">J17 - I17</f>
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>33</v>
       </c>
+      <c r="M17" s="5">
+        <v>43622</v>
+      </c>
+      <c r="N17" s="5">
+        <v>43677</v>
+      </c>
+      <c r="O17" s="5">
+        <v>43693</v>
+      </c>
+      <c r="P17" s="8">
+        <f>IF(ISBLANK(N17), IF(ISBLANK(O17),0, TODAY-O17), O17-N17)</f>
+        <v>16</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>43706</v>
+      </c>
+      <c r="R17" s="5">
+        <v>43718</v>
+      </c>
+      <c r="S17" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="J18" t="s">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <f>VLOOKUP(P18,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="E18" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M18)/(Sprints!$B$2:$B$20&gt;=M18),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="F18" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N18)/(Sprints!$B$2:$B$20&gt;=N18),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="G18" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O18)/(Sprints!$B$2:$B$20&gt;=O18),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" ref="H18" ca="1" si="11" xml:space="preserve"> G18 - F18</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q18)/(Sprints!$B$2:$B$20&gt;=Q18),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J18" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R18)/(Sprints!$B$2:$B$20&gt;=R18),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" ref="K18" ca="1" si="12">J18 - I18</f>
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
         <v>55</v>
       </c>
+      <c r="M18" s="5">
+        <v>43622</v>
+      </c>
+      <c r="N18" s="5">
+        <v>43633</v>
+      </c>
+      <c r="O18" s="5">
+        <v>43658</v>
+      </c>
+      <c r="P18" s="8">
+        <f>IF(ISBLANK(N18), IF(ISBLANK(O18),0, TODAY-O18), O18-N18)</f>
+        <v>25</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>43706</v>
+      </c>
+      <c r="R18" s="5">
+        <v>43718</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="J19" t="s">
+      <c r="C19"/>
+      <c r="D19" s="8" t="e">
+        <f>VLOOKUP(P19,SP!A$2:$C$9,3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M19)/(Sprints!$B$2:$B$20&gt;=M19),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N19)/(Sprints!$B$2:$B$20&gt;=N19),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O19)/(Sprints!$B$2:$B$20&gt;=O19),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="8" t="e">
+        <f t="shared" ref="H19" ca="1" si="13" xml:space="preserve"> G19 - F19</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q19)/(Sprints!$B$2:$B$20&gt;=Q19),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R19)/(Sprints!$B$2:$B$20&gt;=R19),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="8" t="e">
+        <f t="shared" ref="K19" ca="1" si="14">J19 - I19</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="s">
         <v>55</v>
+      </c>
+      <c r="M19" s="5">
+        <v>43622</v>
+      </c>
+      <c r="P19" s="8">
+        <f>IF(ISBLANK(N19), IF(ISBLANK(O19),0, TODAY-O19), O19-N19)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8">
+        <f>VLOOKUP(P20,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="E20" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M20)/(Sprints!$B$2:$B$20&gt;=M20),Sprints!$C$2:$C$20)</f>
+        <v>3</v>
+      </c>
+      <c r="F20" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N20)/(Sprints!$B$2:$B$20&gt;=N20),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="G20" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O20)/(Sprints!$B$2:$B$20&gt;=O20),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" ref="H20" ca="1" si="15" xml:space="preserve"> G20 - F20</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q20)/(Sprints!$B$2:$B$20&gt;=Q20),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="J20" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R20)/(Sprints!$B$2:$B$20&gt;=R20),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" ref="K20" ca="1" si="16">J20 - I20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="5">
+        <v>43508</v>
+      </c>
+      <c r="N20" s="5">
+        <v>43626</v>
+      </c>
+      <c r="O20" s="5">
+        <v>43648</v>
+      </c>
+      <c r="P20" s="8">
+        <f>IF(ISBLANK(N20), IF(ISBLANK(O20),0, TODAY-O20), O20-N20)</f>
+        <v>22</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>43661</v>
+      </c>
+      <c r="R20" s="7">
+        <v>43663</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8">
+        <f>VLOOKUP(P21,SP!A$2:$C$9,3)</f>
+        <v>34</v>
+      </c>
+      <c r="E21" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M21)/(Sprints!$B$2:$B$20&gt;=M21),Sprints!$C$2:$C$20)</f>
+        <v>4</v>
+      </c>
+      <c r="F21" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N21)/(Sprints!$B$2:$B$20&gt;=N21),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="G21" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O21)/(Sprints!$B$2:$B$20&gt;=O21),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" ref="H21" ca="1" si="17" xml:space="preserve"> G21 - F21</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q21)/(Sprints!$B$2:$B$20&gt;=Q21),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="J21" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R21)/(Sprints!$B$2:$B$20&gt;=R21),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" ref="K21" ca="1" si="18">J21 - I21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="5">
+        <v>43516</v>
+      </c>
+      <c r="N21" s="5">
+        <v>43627</v>
+      </c>
+      <c r="O21" s="5">
+        <v>43658</v>
+      </c>
+      <c r="P21" s="8">
+        <f>IF(ISBLANK(N21), IF(ISBLANK(O21),0, TODAY-O21), O21-N21)</f>
+        <v>31</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>43661</v>
+      </c>
+      <c r="R21" s="7">
+        <v>43665</v>
+      </c>
+      <c r="S21" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I14" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}"/>
+  <autoFilter ref="B1:K14" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F2" formula="1"/>
+    <ignoredError sqref="H2" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5059,11 +5559,11 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f ca="1">TODAY()</f>
-        <v>43717</v>
+        <v>43718</v>
       </c>
       <c r="B20" s="2">
         <f ca="1">TODAY()</f>
-        <v>43717</v>
+        <v>43718</v>
       </c>
       <c r="C20">
         <v>18</v>

--- a/ncis-sprint-burndowns.xlsx
+++ b/ncis-sprint-burndowns.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47746CA-29AD-45CC-82BF-7EFD12560205}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5088762-9CD0-4600-A5E1-19DA78A1F18B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="Sprints" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$1:$K$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>Backlog Sprint</t>
   </si>
@@ -55,18 +55,6 @@
     <t>QA Carry</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
     <t>(SP) Commited</t>
   </si>
   <si>
@@ -79,16 +67,7 @@
     <t>(SP) Burnt</t>
   </si>
   <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>QA Begin Sprint</t>
-  </si>
-  <si>
-    <t>Carried (US)</t>
   </si>
   <si>
     <t>(SP) Added</t>
@@ -242,6 +221,66 @@
   </si>
   <si>
     <t>NCIS-220</t>
+  </si>
+  <si>
+    <t>NCIS-214</t>
+  </si>
+  <si>
+    <t>NCIS-450</t>
+  </si>
+  <si>
+    <t>NCIS-451</t>
+  </si>
+  <si>
+    <t>NCIS-453</t>
+  </si>
+  <si>
+    <t>NCIS-495</t>
+  </si>
+  <si>
+    <t>NCIS-499</t>
+  </si>
+  <si>
+    <t>NCIS-501</t>
+  </si>
+  <si>
+    <t>NCIS-502</t>
+  </si>
+  <si>
+    <t>NCIS-516</t>
+  </si>
+  <si>
+    <t>NCIS-522</t>
+  </si>
+  <si>
+    <t>Sprint 15</t>
+  </si>
+  <si>
+    <t>NCIS-239</t>
+  </si>
+  <si>
+    <t>NCIS-448</t>
+  </si>
+  <si>
+    <t>NCIS-543</t>
+  </si>
+  <si>
+    <t>NCIS-637</t>
+  </si>
+  <si>
+    <t>NCIS-588</t>
+  </si>
+  <si>
+    <t>NCIS-618</t>
+  </si>
+  <si>
+    <t>NCIS-699</t>
+  </si>
+  <si>
+    <t>NCIS-593</t>
+  </si>
+  <si>
+    <t>Burnt Carries (US)</t>
   </si>
 </sst>
 </file>
@@ -265,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,12 +335,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -315,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -343,10 +376,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,16 +450,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Dev </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Burndown</a:t>
+              <a:t>DEV Burndown</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -515,43 +551,86 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>'Burndown Summary'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$C$2:$C$4</c:f>
+              <c:f>'Burndown Summary'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B5C-42FC-89E1-C58321A9408A}"/>
+              <c16:uniqueId val="{00000001-E770-4C8B-934E-95F9646C82C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -609,43 +688,86 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>'Burndown Summary'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$D$2:$D$4</c:f>
+              <c:f>'Burndown Summary'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2B5C-42FC-89E1-C58321A9408A}"/>
+              <c16:uniqueId val="{00000002-E770-4C8B-934E-95F9646C82C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -658,8 +780,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107205648"/>
-        <c:axId val="2119071216"/>
+        <c:axId val="629179296"/>
+        <c:axId val="678207296"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -723,55 +845,98 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
-                  <c:strRef>
+                  <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'Burndown Summary'!$A$2:$A$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>Sprint 1</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Sprint 2</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Sprint 3</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
-                    </c:strCache>
-                  </c:strRef>
+                      <c:pt idx="3">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$B$2:$B$4</c15:sqref>
+                          <c15:sqref>'Burndown Summary'!$B$2:$B$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>25</c:v>
+                        <c:v>21</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3</c:v>
+                        <c:v>144</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5</c:v>
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>351</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>41</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-2B5C-42FC-89E1-C58321A9408A}"/>
+                    <c16:uniqueId val="{00000000-E770-4C8B-934E-95F9646C82C1}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -791,7 +956,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carried (US)</c:v>
+                  <c:v>Burnt Carries (US)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -815,36 +980,79 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>'Burndown Summary'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$E$2:$E$4</c:f>
+              <c:f>'Burndown Summary'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,81 +1060,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2B5C-42FC-89E1-C58321A9408A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(SP) Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burndown Summary'!$G$2:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2B5C-42FC-89E1-C58321A9408A}"/>
+              <c16:uniqueId val="{00000003-E770-4C8B-934E-95F9646C82C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -935,11 +1069,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Summary'!$H$1</c:f>
+              <c:f>'Burndown Summary'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(SP) Remain to Burn</c:v>
+                  <c:v>(SP) Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -963,36 +1097,79 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>'Burndown Summary'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$H$2:$H$4</c:f>
+              <c:f>'Burndown Summary'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1177,126 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2B5C-42FC-89E1-C58321A9408A}"/>
+              <c16:uniqueId val="{00000005-E770-4C8B-934E-95F9646C82C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Summary'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(SP) Remain to Burn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burndown Summary'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Summary'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E770-4C8B-934E-95F9646C82C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1014,11 +1310,152 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107205648"/>
-        <c:axId val="2119071216"/>
+        <c:axId val="629179296"/>
+        <c:axId val="678207296"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Burndown Summary'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>(SP) Burnt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Burndown Summary'!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Burndown Summary'!$F$2:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>550</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>571</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-E770-4C8B-934E-95F9646C82C1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107205648"/>
+        <c:axId val="629179296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,15 +1497,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119071216"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="678207296"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119071216"/>
+        <c:axId val="678207296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,866 +1554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107205648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>QA Burndown</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(SP) Commited</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$J$2:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burndown Summary'!$L$2:$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EF13-4658-BFE8-F98291032F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(SP) Done</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$J$2:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burndown Summary'!$M$2:$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EF13-4658-BFE8-F98291032F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="104992912"/>
-        <c:axId val="2119080784"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Carried (US)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$J$2:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burndown Summary'!$N$2:$N$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EF13-4658-BFE8-F98291032F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(SP) Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$J$2:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burndown Summary'!$P$2:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EF13-4658-BFE8-F98291032F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(SP) Remain to Burn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Summary'!$J$2:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burndown Summary'!$Q$2:$Q$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-EF13-4658-BFE8-F98291032F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104992912"/>
-        <c:axId val="2119080784"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$K$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Backlog Sprint</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="34925" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$J$2:$J$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Sprint 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Sprint 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Sprint 3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Sprint 4</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$K$2:$K$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-EF13-4658-BFE8-F98291032F0B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104992912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2119080784"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2119080784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104992912"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="629179296"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2074,46 +1651,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2666,540 +2203,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACCEB7D3-7FCC-4744-8F9B-CFB024C472C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA37CA5-FC1B-476F-A796-1F9D6959E1CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,42 +2236,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98C9269-03A8-41FA-8B90-681886DE91CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3519,274 +2507,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF9B5FC-B68C-490C-BD95-2891DA1E6071}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
       <c r="D2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>D2</f>
-        <v>11</v>
+      <c r="F2" s="1">
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <f>B2</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1">
         <f>G2 -F2</f>
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>25</v>
-      </c>
-      <c r="L2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>144</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="O2">
-        <f>M2</f>
+      <c r="F3" s="1">
+        <f>F2 + D3</f>
         <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <f>K2</f>
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1">
-        <f xml:space="preserve"> P2 - O2</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f xml:space="preserve"> F2 + D3</f>
-        <v>25</v>
       </c>
       <c r="G3" s="1">
         <f>G2+B3</f>
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="H3" s="1">
         <f>G3 -F3</f>
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>17</v>
-      </c>
-      <c r="M3">
-        <v>14</v>
-      </c>
-      <c r="N3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>110</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="O3">
-        <f>O2 + M3</f>
-        <v>14</v>
-      </c>
-      <c r="P3" s="1">
-        <f>P2+K3</f>
-        <v>28</v>
-      </c>
-      <c r="Q3" s="1">
-        <f xml:space="preserve"> P3 - O3</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <f xml:space="preserve"> F3 + D4</f>
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f>F3 + D4</f>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f>G3+B4</f>
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="H4" s="1">
         <f>G4 -F4</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f>F4 + D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f>G4+B5</f>
+        <v>309</v>
+      </c>
+      <c r="H5" s="1">
+        <f>G5 -F5</f>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>10</v>
       </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f>F5 + D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f>G5+B6</f>
+        <v>385</v>
+      </c>
+      <c r="H6" s="1">
+        <f>G6 -F6</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>11</v>
       </c>
-      <c r="N4">
+      <c r="B7">
+        <v>351</v>
+      </c>
+      <c r="C7">
+        <v>301</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="O4">
-        <f>O3 + M4</f>
-        <v>25</v>
-      </c>
-      <c r="P4" s="1">
-        <f>P3+K4</f>
-        <v>33</v>
-      </c>
-      <c r="Q4" s="1">
-        <f xml:space="preserve"> P4 - O4</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5">
+      <c r="F7" s="1">
+        <f>F6 + D7</f>
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <f>G6+B7</f>
+        <v>736</v>
+      </c>
+      <c r="H7" s="1">
+        <f>G7 -F7</f>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
+      <c r="C8">
+        <v>228</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="O5">
-        <f>O4 + M5</f>
-        <v>33</v>
-      </c>
-      <c r="P5" s="1">
-        <f>P4+K5</f>
-        <v>33</v>
-      </c>
-      <c r="Q5" s="1">
-        <f xml:space="preserve"> P5 - O5</f>
+      <c r="E8">
         <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f>F7 + D8</f>
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <f>G7+B8</f>
+        <v>736</v>
+      </c>
+      <c r="H8" s="1">
+        <f>G8 -F8</f>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>139</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <f>F8 + D9</f>
+        <v>160</v>
+      </c>
+      <c r="G9" s="1">
+        <f>G8+B9</f>
+        <v>736</v>
+      </c>
+      <c r="H9" s="1">
+        <f>G9 -F9</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>390</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <f>F9 + D10</f>
+        <v>550</v>
+      </c>
+      <c r="G10" s="1">
+        <f>G9+B10</f>
+        <v>791</v>
+      </c>
+      <c r="H10" s="1">
+        <f>G10 -F10</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>131</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f>F10 + D11</f>
+        <v>571</v>
+      </c>
+      <c r="G11" s="1">
+        <f>G10+B11</f>
+        <v>832</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11 -F11</f>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3797,44 +2850,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C989A-0DB4-4957-8B7C-55617C9397A2}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="4" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="4"/>
+    <col min="15" max="15" width="15.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>0</v>
@@ -3849,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>3</v>
@@ -3858,40 +2911,40 @@
         <v>6</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="S1" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="8">
-        <f>VLOOKUP(P2,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P2,SP!A$2:$C$9,3)</f>
         <v>55</v>
       </c>
       <c r="E2" s="8">
@@ -3923,7 +2976,7 @@
         <v>#N/A</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M2" s="5">
         <v>43535</v>
@@ -3935,7 +2988,7 @@
         <v>43658</v>
       </c>
       <c r="P2" s="8">
-        <f>IF(ISBLANK(N2), IF(ISBLANK(O2),0, TODAY-O2), O2-N2)</f>
+        <f ca="1">IF(ISBLANK(O2), IF(ISBLANK(N2),0, TODAY()-N2), O2-N2)</f>
         <v>121</v>
       </c>
       <c r="Q2" s="5">
@@ -3943,20 +2996,20 @@
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="8">
-        <f t="shared" ref="S2:S21" ca="1" si="1">IF(ISBLANK(R2), IF(ISBLANK(Q2),0,TODAY()-Q2), R2-Q2)</f>
+        <f t="shared" ref="S2:S31" ca="1" si="1">IF(ISBLANK(R2), IF(ISBLANK(Q2),0,TODAY()-Q2), R2-Q2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="8">
-        <f>VLOOKUP(P3,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P3,SP!A$2:$C$9,3)</f>
         <v>55</v>
       </c>
       <c r="E3" s="8">
@@ -3988,7 +3041,7 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M3" s="5">
         <v>43535</v>
@@ -4000,7 +3053,7 @@
         <v>43658</v>
       </c>
       <c r="P3" s="8">
-        <f>IF(ISBLANK(N3), IF(ISBLANK(O3),0, TODAY-O3), O3-N3)</f>
+        <f ca="1">IF(ISBLANK(O3), IF(ISBLANK(N3),0, TODAY()-N3), O3-N3)</f>
         <v>119</v>
       </c>
       <c r="Q3" s="5">
@@ -4012,16 +3065,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="8">
-        <f>VLOOKUP(P4,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P4,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
       <c r="E4" s="8">
@@ -4053,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M4" s="7">
         <v>43594</v>
@@ -4065,7 +3118,7 @@
         <v>43654</v>
       </c>
       <c r="P4" s="8">
-        <f>IF(ISBLANK(N4), IF(ISBLANK(O4),0, TODAY-O4), O4-N4)</f>
+        <f ca="1">IF(ISBLANK(O4), IF(ISBLANK(N4),0, TODAY()-N4), O4-N4)</f>
         <v>40</v>
       </c>
       <c r="Q4" s="7">
@@ -4079,16 +3132,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="8">
-        <f>VLOOKUP(P5,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P5,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
       <c r="E5" s="8">
@@ -4120,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M5" s="7">
         <v>43600</v>
@@ -4132,7 +3185,7 @@
         <v>43622</v>
       </c>
       <c r="P5" s="8">
-        <f>IF(ISBLANK(N5), IF(ISBLANK(O5),0, TODAY-O5), O5-N5)</f>
+        <f ca="1">IF(ISBLANK(O5), IF(ISBLANK(N5),0, TODAY()-N5), O5-N5)</f>
         <v>22</v>
       </c>
       <c r="Q5" s="7">
@@ -4146,16 +3199,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="8">
-        <f>VLOOKUP(P6,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P6,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
       <c r="E6" s="8">
@@ -4187,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>43613</v>
@@ -4199,7 +3252,7 @@
         <v>43654</v>
       </c>
       <c r="P6" s="8">
-        <f>IF(ISBLANK(N6), IF(ISBLANK(O6),0, TODAY-O6), O6-N6)</f>
+        <f ca="1">IF(ISBLANK(O6), IF(ISBLANK(N6),0, TODAY()-N6), O6-N6)</f>
         <v>35</v>
       </c>
       <c r="Q6" s="7">
@@ -4213,16 +3266,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="8">
-        <f>VLOOKUP(P7,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P7,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
       <c r="E7" s="8">
@@ -4254,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>43613</v>
@@ -4266,7 +3319,7 @@
         <v>43648</v>
       </c>
       <c r="P7" s="8">
-        <f>IF(ISBLANK(N7), IF(ISBLANK(O7),0, TODAY-O7), O7-N7)</f>
+        <f ca="1">IF(ISBLANK(O7), IF(ISBLANK(N7),0, TODAY()-N7), O7-N7)</f>
         <v>28</v>
       </c>
       <c r="Q7" s="7">
@@ -4280,16 +3333,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14"/>
       <c r="D8" s="8">
-        <f>VLOOKUP(P8,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P8,SP!A$2:$C$9,3)</f>
         <v>55</v>
       </c>
       <c r="E8" s="8">
@@ -4321,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>43613</v>
@@ -4333,7 +3386,7 @@
         <v>43658</v>
       </c>
       <c r="P8" s="8">
-        <f>IF(ISBLANK(N8), IF(ISBLANK(O8),0, TODAY-O8), O8-N8)</f>
+        <f ca="1">IF(ISBLANK(O8), IF(ISBLANK(N8),0, TODAY()-N8), O8-N8)</f>
         <v>45</v>
       </c>
       <c r="Q8" s="7">
@@ -4347,16 +3400,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14"/>
       <c r="D9" s="8">
-        <f>VLOOKUP(P9,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P9,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
       <c r="E9" s="8">
@@ -4388,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M9" s="7">
         <v>43613</v>
@@ -4400,7 +3453,7 @@
         <v>43648</v>
       </c>
       <c r="P9" s="8">
-        <f>IF(ISBLANK(N9), IF(ISBLANK(O9),0, TODAY-O9), O9-N9)</f>
+        <f ca="1">IF(ISBLANK(O9), IF(ISBLANK(N9),0, TODAY()-N9), O9-N9)</f>
         <v>33</v>
       </c>
       <c r="Q9" s="7">
@@ -4414,16 +3467,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="8">
-        <f>VLOOKUP(P10,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P10,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
       <c r="E10" s="8">
@@ -4455,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M10" s="7">
         <v>43613</v>
@@ -4467,7 +3520,7 @@
         <v>43648</v>
       </c>
       <c r="P10" s="8">
-        <f>IF(ISBLANK(N10), IF(ISBLANK(O10),0, TODAY-O10), O10-N10)</f>
+        <f ca="1">IF(ISBLANK(O10), IF(ISBLANK(N10),0, TODAY()-N10), O10-N10)</f>
         <v>27</v>
       </c>
       <c r="Q10" s="7">
@@ -4481,16 +3534,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="8">
-        <f>VLOOKUP(P11,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P11,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
       <c r="E11" s="8">
@@ -4522,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <v>43613</v>
@@ -4534,7 +3587,7 @@
         <v>43658</v>
       </c>
       <c r="P11" s="8">
-        <f>IF(ISBLANK(N11), IF(ISBLANK(O11),0, TODAY-O11), O11-N11)</f>
+        <f ca="1">IF(ISBLANK(O11), IF(ISBLANK(N11),0, TODAY()-N11), O11-N11)</f>
         <v>38</v>
       </c>
       <c r="Q11" s="7">
@@ -4548,16 +3601,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="8">
-        <f>VLOOKUP(P12,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P12,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
       <c r="E12" s="8">
@@ -4589,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M12" s="7">
         <v>43613</v>
@@ -4601,7 +3654,7 @@
         <v>43658</v>
       </c>
       <c r="P12" s="8">
-        <f>IF(ISBLANK(N12), IF(ISBLANK(O12),0, TODAY-O12), O12-N12)</f>
+        <f ca="1">IF(ISBLANK(O12), IF(ISBLANK(N12),0, TODAY()-N12), O12-N12)</f>
         <v>35</v>
       </c>
       <c r="Q12" s="7">
@@ -4615,16 +3668,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="8">
-        <f>VLOOKUP(P13,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P13,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
       <c r="E13" s="8">
@@ -4656,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M13" s="7">
         <v>43620</v>
@@ -4668,7 +3721,7 @@
         <v>43658</v>
       </c>
       <c r="P13" s="8">
-        <f>IF(ISBLANK(N13), IF(ISBLANK(O13),0, TODAY-O13), O13-N13)</f>
+        <f ca="1">IF(ISBLANK(O13), IF(ISBLANK(N13),0, TODAY()-N13), O13-N13)</f>
         <v>37</v>
       </c>
       <c r="Q13" s="7">
@@ -4682,16 +3735,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="8">
-        <f>VLOOKUP(P14,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P14,SP!A$2:$C$9,3)</f>
         <v>55</v>
       </c>
       <c r="E14" s="8">
@@ -4723,7 +3776,7 @@
         <v>#N/A</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M14" s="5">
         <v>43516</v>
@@ -4735,7 +3788,7 @@
         <v>43712</v>
       </c>
       <c r="P14" s="8">
-        <f>IF(ISBLANK(N14), IF(ISBLANK(O14),0, TODAY-O14), O14-N14)</f>
+        <f ca="1">IF(ISBLANK(O14), IF(ISBLANK(N14),0, TODAY()-N14), O14-N14)</f>
         <v>84</v>
       </c>
       <c r="Q14" s="5"/>
@@ -4744,16 +3797,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15"/>
+        <v>47</v>
+      </c>
+      <c r="C15" s="13"/>
       <c r="D15" s="8">
-        <f>VLOOKUP(P15,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P15,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
       <c r="E15" s="8">
@@ -4785,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M15" s="5">
         <v>43620</v>
@@ -4797,7 +3850,7 @@
         <v>43649</v>
       </c>
       <c r="P15" s="8">
-        <f>IF(ISBLANK(N15), IF(ISBLANK(O15),0, TODAY-O15), O15-N15)</f>
+        <f ca="1">IF(ISBLANK(O15), IF(ISBLANK(N15),0, TODAY()-N15), O15-N15)</f>
         <v>16</v>
       </c>
       <c r="Q15" s="5">
@@ -4811,16 +3864,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16"/>
+        <v>49</v>
+      </c>
+      <c r="C16" s="13"/>
       <c r="D16" s="8">
-        <f>VLOOKUP(P16,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P16,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
       <c r="E16" s="8">
@@ -4852,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M16" s="5">
         <v>43622</v>
@@ -4864,7 +3917,7 @@
         <v>43649</v>
       </c>
       <c r="P16" s="8">
-        <f>IF(ISBLANK(N16), IF(ISBLANK(O16),0, TODAY-O16), O16-N16)</f>
+        <f ca="1">IF(ISBLANK(O16), IF(ISBLANK(N16),0, TODAY()-N16), O16-N16)</f>
         <v>21</v>
       </c>
       <c r="Q16" s="5">
@@ -4878,18 +3931,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17">
+        <v>51</v>
+      </c>
+      <c r="C17" s="13">
         <v>8</v>
       </c>
       <c r="D17" s="8">
-        <f>VLOOKUP(P17,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P17,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
       <c r="E17" s="8">
@@ -4921,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M17" s="5">
         <v>43622</v>
@@ -4933,7 +3986,7 @@
         <v>43693</v>
       </c>
       <c r="P17" s="8">
-        <f>IF(ISBLANK(N17), IF(ISBLANK(O17),0, TODAY-O17), O17-N17)</f>
+        <f ca="1">IF(ISBLANK(O17), IF(ISBLANK(N17),0, TODAY()-N17), O17-N17)</f>
         <v>16</v>
       </c>
       <c r="Q17" s="5">
@@ -4947,18 +4000,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="C18" s="13">
         <v>3</v>
       </c>
       <c r="D18" s="8">
-        <f>VLOOKUP(P18,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P18,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
       <c r="E18" s="8">
@@ -4990,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M18" s="5">
         <v>43622</v>
@@ -5002,7 +4055,7 @@
         <v>43658</v>
       </c>
       <c r="P18" s="8">
-        <f>IF(ISBLANK(N18), IF(ISBLANK(O18),0, TODAY-O18), O18-N18)</f>
+        <f ca="1">IF(ISBLANK(O18), IF(ISBLANK(N18),0, TODAY()-N18), O18-N18)</f>
         <v>25</v>
       </c>
       <c r="Q18" s="5">
@@ -5016,16 +4069,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19"/>
+        <v>53</v>
+      </c>
+      <c r="C19" s="13"/>
       <c r="D19" s="8" t="e">
-        <f>VLOOKUP(P19,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P19,SP!A$2:$C$9,3)</f>
         <v>#N/A</v>
       </c>
       <c r="E19" s="8">
@@ -5057,13 +4110,13 @@
         <v>#N/A</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M19" s="5">
         <v>43622</v>
       </c>
       <c r="P19" s="8">
-        <f>IF(ISBLANK(N19), IF(ISBLANK(O19),0, TODAY-O19), O19-N19)</f>
+        <f ca="1">IF(ISBLANK(O19), IF(ISBLANK(N19),0, TODAY()-N19), O19-N19)</f>
         <v>0</v>
       </c>
       <c r="S19" s="8">
@@ -5071,15 +4124,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8">
-        <f>VLOOKUP(P20,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P20,SP!A$2:$C$9,3)</f>
         <v>21</v>
       </c>
       <c r="E20" s="8">
@@ -5111,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M20" s="5">
         <v>43508</v>
@@ -5123,7 +4176,7 @@
         <v>43648</v>
       </c>
       <c r="P20" s="8">
-        <f>IF(ISBLANK(N20), IF(ISBLANK(O20),0, TODAY-O20), O20-N20)</f>
+        <f ca="1">IF(ISBLANK(O20), IF(ISBLANK(N20),0, TODAY()-N20), O20-N20)</f>
         <v>22</v>
       </c>
       <c r="Q20" s="7">
@@ -5137,15 +4190,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8">
-        <f>VLOOKUP(P21,SP!A$2:$C$9,3)</f>
+        <f ca="1">VLOOKUP(P21,SP!A$2:$C$9,3)</f>
         <v>34</v>
       </c>
       <c r="E21" s="8">
@@ -5177,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M21" s="5">
         <v>43516</v>
@@ -5189,7 +4242,7 @@
         <v>43658</v>
       </c>
       <c r="P21" s="8">
-        <f>IF(ISBLANK(N21), IF(ISBLANK(O21),0, TODAY-O21), O21-N21)</f>
+        <f ca="1">IF(ISBLANK(O21), IF(ISBLANK(N21),0, TODAY()-N21), O21-N21)</f>
         <v>31</v>
       </c>
       <c r="Q21" s="7">
@@ -5203,8 +4256,648 @@
         <v>4</v>
       </c>
     </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="8">
+        <f ca="1">VLOOKUP(P22,SP!A$2:$C$9,3)</f>
+        <v>55</v>
+      </c>
+      <c r="E22" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M22)/(Sprints!$B$2:$B$20&gt;=M22),Sprints!$C$2:$C$20)</f>
+        <v>4</v>
+      </c>
+      <c r="F22" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N22)/(Sprints!$B$2:$B$20&gt;=N22),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="G22" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O22)/(Sprints!$B$2:$B$20&gt;=O22),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" ref="H22" ca="1" si="19" xml:space="preserve"> G22 - F22</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q22)/(Sprints!$B$2:$B$20&gt;=Q22),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J22" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R22)/(Sprints!$B$2:$B$20&gt;=R22),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" ref="K22" ca="1" si="20">J22 - I22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="5">
+        <v>43516</v>
+      </c>
+      <c r="N22" s="5">
+        <v>43635</v>
+      </c>
+      <c r="O22" s="5">
+        <v>43693</v>
+      </c>
+      <c r="P22" s="8">
+        <f ca="1">IF(ISBLANK(O22), IF(ISBLANK(N22),0, TODAY()-N22), O22-N22)</f>
+        <v>58</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>43699</v>
+      </c>
+      <c r="R22" s="7">
+        <v>43704</v>
+      </c>
+      <c r="S22" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="8">
+        <f ca="1">VLOOKUP(P23,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="E23" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M23)/(Sprints!$B$2:$B$20&gt;=M23),Sprints!$C$2:$C$20)</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N23)/(Sprints!$B$2:$B$20&gt;=N23),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="G23" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O23)/(Sprints!$B$2:$B$20&gt;=O23),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" ref="H23" ca="1" si="21" xml:space="preserve"> G23 - F23</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q23)/(Sprints!$B$2:$B$20&gt;=Q23),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J23" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R23)/(Sprints!$B$2:$B$20&gt;=R23),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" ref="K23" ca="1" si="22">J23 - I23</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="5">
+        <v>43638</v>
+      </c>
+      <c r="N23" s="5">
+        <v>43669</v>
+      </c>
+      <c r="O23" s="5">
+        <v>43682</v>
+      </c>
+      <c r="P23" s="8">
+        <f ca="1">IF(ISBLANK(O23), IF(ISBLANK(N23),0, TODAY()-N23), O23-N23)</f>
+        <v>13</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>43706</v>
+      </c>
+      <c r="R23" s="5">
+        <v>43717</v>
+      </c>
+      <c r="S23" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8">
+        <f ca="1">VLOOKUP(P24,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="E24" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M24)/(Sprints!$B$2:$B$20&gt;=M24),Sprints!$C$2:$C$20)</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N24)/(Sprints!$B$2:$B$20&gt;=N24),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="G24" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O24)/(Sprints!$B$2:$B$20&gt;=O24),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" ref="H24" ca="1" si="23" xml:space="preserve"> G24 - F24</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q24)/(Sprints!$B$2:$B$20&gt;=Q24),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J24" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R24)/(Sprints!$B$2:$B$20&gt;=R24),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" ref="K24" ca="1" si="24">J24 - I24</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="5">
+        <v>43638</v>
+      </c>
+      <c r="N24" s="5">
+        <v>43677</v>
+      </c>
+      <c r="O24" s="5">
+        <v>43693</v>
+      </c>
+      <c r="P24" s="8">
+        <f ca="1">IF(ISBLANK(O24), IF(ISBLANK(N24),0, TODAY()-N24), O24-N24)</f>
+        <v>16</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>43706</v>
+      </c>
+      <c r="R24" s="5">
+        <v>43717</v>
+      </c>
+      <c r="S24" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="11">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8">
+        <f ca="1">VLOOKUP(P25,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="E25" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M25)/(Sprints!$B$2:$B$20&gt;=M25),Sprints!$C$2:$C$20)</f>
+        <v>10</v>
+      </c>
+      <c r="F25" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N25)/(Sprints!$B$2:$B$20&gt;=N25),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="G25" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O25)/(Sprints!$B$2:$B$20&gt;=O25),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" ref="H25" ca="1" si="25" xml:space="preserve"> G25 - F25</f>
+        <v>2</v>
+      </c>
+      <c r="I25" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q25)/(Sprints!$B$2:$B$20&gt;=Q25),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="J25" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R25)/(Sprints!$B$2:$B$20&gt;=R25),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" ref="K25" ca="1" si="26">J25 - I25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="5">
+        <v>43638</v>
+      </c>
+      <c r="N25" s="5">
+        <v>43649</v>
+      </c>
+      <c r="O25" s="5">
+        <v>43669</v>
+      </c>
+      <c r="P25" s="8">
+        <f ca="1">IF(ISBLANK(O25), IF(ISBLANK(N25),0, TODAY()-N25), O25-N25)</f>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>43669</v>
+      </c>
+      <c r="R25" s="5">
+        <v>43669</v>
+      </c>
+      <c r="S25" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="8">
+        <f ca="1">VLOOKUP(P26,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="E26" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M26)/(Sprints!$B$2:$B$20&gt;=M26),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="F26" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N26)/(Sprints!$B$2:$B$20&gt;=N26),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="G26" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O26)/(Sprints!$B$2:$B$20&gt;=O26),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" ref="H26" ca="1" si="27" xml:space="preserve"> G26 - F26</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q26)/(Sprints!$B$2:$B$20&gt;=Q26),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J26" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R26)/(Sprints!$B$2:$B$20&gt;=R26),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K26" s="8" t="e">
+        <f t="shared" ref="K26" ca="1" si="28">J26 - I26</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="5">
+        <v>43656</v>
+      </c>
+      <c r="N26" s="5">
+        <v>43669</v>
+      </c>
+      <c r="O26" s="5">
+        <v>43693</v>
+      </c>
+      <c r="P26" s="8">
+        <f ca="1">IF(ISBLANK(O26), IF(ISBLANK(N26),0, TODAY()-N26), O26-N26)</f>
+        <v>24</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>43706</v>
+      </c>
+      <c r="S26" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="8">
+        <f ca="1">VLOOKUP(P27,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="E27" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M27)/(Sprints!$B$2:$B$20&gt;=M27),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="F27" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N27)/(Sprints!$B$2:$B$20&gt;=N27),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="G27" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O27)/(Sprints!$B$2:$B$20&gt;=O27),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" ref="H27" ca="1" si="29" xml:space="preserve"> G27 - F27</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q27)/(Sprints!$B$2:$B$20&gt;=Q27),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R27)/(Sprints!$B$2:$B$20&gt;=R27),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K27" s="8" t="e">
+        <f t="shared" ref="K27" ca="1" si="30">J27 - I27</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="5">
+        <v>43658</v>
+      </c>
+      <c r="N27" s="5">
+        <v>43678</v>
+      </c>
+      <c r="O27" s="5">
+        <v>43693</v>
+      </c>
+      <c r="P27" s="8">
+        <f ca="1">IF(ISBLANK(O27), IF(ISBLANK(N27),0, TODAY()-N27), O27-N27)</f>
+        <v>15</v>
+      </c>
+      <c r="S27" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="8">
+        <f ca="1">VLOOKUP(P28,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="E28" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M28)/(Sprints!$B$2:$B$20&gt;=M28),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="F28" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N28)/(Sprints!$B$2:$B$20&gt;=N28),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="G28" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O28)/(Sprints!$B$2:$B$20&gt;=O28),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" ref="H28" ca="1" si="31" xml:space="preserve"> G28 - F28</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q28)/(Sprints!$B$2:$B$20&gt;=Q28),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R28)/(Sprints!$B$2:$B$20&gt;=R28),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K28" s="8" t="e">
+        <f t="shared" ref="K28" ca="1" si="32">J28 - I28</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="5">
+        <v>43658</v>
+      </c>
+      <c r="N28" s="5">
+        <v>43678</v>
+      </c>
+      <c r="O28" s="5">
+        <v>43693</v>
+      </c>
+      <c r="P28" s="8">
+        <f ca="1">IF(ISBLANK(O28), IF(ISBLANK(N28),0, TODAY()-N28), O28-N28)</f>
+        <v>15</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="S28" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="11">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <f ca="1">VLOOKUP(P29,SP!A$2:$C$9,3)</f>
+        <v>8</v>
+      </c>
+      <c r="E29" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M29)/(Sprints!$B$2:$B$20&gt;=M29),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="F29" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N29)/(Sprints!$B$2:$B$20&gt;=N29),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="G29" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O29)/(Sprints!$B$2:$B$20&gt;=O29),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="8" t="e">
+        <f t="shared" ref="H29" ca="1" si="33" xml:space="preserve"> G29 - F29</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q29)/(Sprints!$B$2:$B$20&gt;=Q29),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J29" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R29)/(Sprints!$B$2:$B$20&gt;=R29),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K29" s="8" t="e">
+        <f t="shared" ref="K29" ca="1" si="34">J29 - I29</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="5">
+        <v>43658</v>
+      </c>
+      <c r="N29" s="5">
+        <v>43710</v>
+      </c>
+      <c r="P29" s="8">
+        <f ca="1">IF(ISBLANK(O29), IF(ISBLANK(N29),0, TODAY()-N29), O29-N29)</f>
+        <v>8</v>
+      </c>
+      <c r="S29" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="8">
+        <f ca="1">VLOOKUP(P30,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="E30" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M30)/(Sprints!$B$2:$B$20&gt;=M30),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="F30" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N30)/(Sprints!$B$2:$B$20&gt;=N30),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="G30" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O30)/(Sprints!$B$2:$B$20&gt;=O30),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" ref="H30" ca="1" si="35" xml:space="preserve"> G30 - F30</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q30)/(Sprints!$B$2:$B$20&gt;=Q30),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J30" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R30)/(Sprints!$B$2:$B$20&gt;=R30),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" ref="K30" ca="1" si="36">J30 - I30</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="5">
+        <v>43671</v>
+      </c>
+      <c r="N30" s="5">
+        <v>43671</v>
+      </c>
+      <c r="O30" s="5">
+        <v>43692</v>
+      </c>
+      <c r="P30" s="8">
+        <f ca="1">IF(ISBLANK(O30), IF(ISBLANK(N30),0, TODAY()-N30), O30-N30)</f>
+        <v>21</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>43699</v>
+      </c>
+      <c r="R30" s="5">
+        <v>43711</v>
+      </c>
+      <c r="S30" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="11">
+        <v>5</v>
+      </c>
+      <c r="D31" s="8">
+        <f ca="1">VLOOKUP(P31,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="E31" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M31)/(Sprints!$B$2:$B$20&gt;=M31),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="F31" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N31)/(Sprints!$B$2:$B$20&gt;=N31),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G31" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O31)/(Sprints!$B$2:$B$20&gt;=O31),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H31" s="8" t="e">
+        <f t="shared" ref="H31" ca="1" si="37" xml:space="preserve"> G31 - F31</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I31" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q31)/(Sprints!$B$2:$B$20&gt;=Q31),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J31" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R31)/(Sprints!$B$2:$B$20&gt;=R31),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K31" s="8" t="e">
+        <f t="shared" ref="K31" ca="1" si="38">J31 - I31</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="5">
+        <v>43674</v>
+      </c>
+      <c r="N31" s="5">
+        <v>43697</v>
+      </c>
+      <c r="P31" s="8">
+        <f ca="1">IF(ISBLANK(O31), IF(ISBLANK(N31),0, TODAY()-N31), O31-N31)</f>
+        <v>21</v>
+      </c>
+      <c r="S31" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:K14" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}"/>
+  <autoFilter ref="B1:K31" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
@@ -5218,28 +4911,28 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5250,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5261,7 +4954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5272,7 +4965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5283,7 +4976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -5294,7 +4987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -5305,7 +4998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>31</v>
       </c>
@@ -5316,7 +5009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41</v>
       </c>
@@ -5338,27 +5031,27 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43472</v>
       </c>
@@ -5369,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43486</v>
       </c>
@@ -5380,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43500</v>
       </c>
@@ -5391,7 +5084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43514</v>
       </c>
@@ -5402,29 +5095,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43528</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43542</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43556</v>
       </c>
@@ -5435,7 +5128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43570</v>
       </c>
@@ -5446,29 +5139,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43584</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43598</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43613</v>
       </c>
@@ -5479,7 +5172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43626</v>
       </c>
@@ -5490,7 +5183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43640</v>
       </c>
@@ -5501,7 +5194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43654</v>
       </c>
@@ -5512,18 +5205,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43668</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43682</v>
       </c>
@@ -5534,7 +5227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43696</v>
       </c>
@@ -5545,7 +5238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43711</v>
       </c>
@@ -5556,7 +5249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f ca="1">TODAY()</f>
         <v>43718</v>

--- a/ncis-sprint-burndowns.xlsx
+++ b/ncis-sprint-burndowns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5088762-9CD0-4600-A5E1-19DA78A1F18B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC2BC55-8D45-435C-8FB0-88ABBB14026C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Summary" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sprints" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$1:$K$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>Backlog Sprint</t>
   </si>
@@ -281,6 +281,39 @@
   </si>
   <si>
     <t>Burnt Carries (US)</t>
+  </si>
+  <si>
+    <t>Sprint 16</t>
+  </si>
+  <si>
+    <t>NCIS-419</t>
+  </si>
+  <si>
+    <t>NCIS-455</t>
+  </si>
+  <si>
+    <t>NCIS-456</t>
+  </si>
+  <si>
+    <t>NCIS-527</t>
+  </si>
+  <si>
+    <t>NCIS-504</t>
+  </si>
+  <si>
+    <t>NCIS-538</t>
+  </si>
+  <si>
+    <t>NCIS-530</t>
+  </si>
+  <si>
+    <t>NCIS-539</t>
+  </si>
+  <si>
+    <t>NCIS-540</t>
+  </si>
+  <si>
+    <t>NCIS-541</t>
   </si>
 </sst>
 </file>
@@ -552,10 +585,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$11</c:f>
+              <c:f>'Burndown Summary'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -585,16 +618,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$C$2:$C$11</c:f>
+              <c:f>'Burndown Summary'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -617,13 +653,16 @@
                   <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,10 +728,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$11</c:f>
+              <c:f>'Burndown Summary'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -722,16 +761,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$D$2:$D$11</c:f>
+              <c:f>'Burndown Summary'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -761,6 +803,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,13 +894,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$A$2:$A$11</c15:sqref>
+                          <c15:sqref>'Burndown Summary'!$A$2:$A$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="11"/>
                       <c:pt idx="0">
                         <c:v>3</c:v>
                       </c:pt>
@@ -886,6 +931,9 @@
                       <c:pt idx="9">
                         <c:v>15</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -894,13 +942,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$B$2:$B$11</c15:sqref>
+                          <c15:sqref>'Burndown Summary'!$B$2:$B$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="11"/>
                       <c:pt idx="0">
                         <c:v>21</c:v>
                       </c:pt>
@@ -917,7 +965,7 @@
                         <c:v>76</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>351</c:v>
+                        <c:v>359</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0</c:v>
@@ -929,7 +977,10 @@
                         <c:v>55</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>41</c:v>
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>81</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -981,10 +1032,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$11</c:f>
+              <c:f>'Burndown Summary'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1014,16 +1065,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$E$2:$E$11</c:f>
+              <c:f>'Burndown Summary'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1053,6 +1107,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,10 +1155,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$11</c:f>
+              <c:f>'Burndown Summary'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1131,16 +1188,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$G$2:$G$11</c:f>
+              <c:f>'Burndown Summary'!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -1157,19 +1217,22 @@
                   <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>736</c:v>
+                  <c:v>744</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>736</c:v>
+                  <c:v>744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>736</c:v>
+                  <c:v>744</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>791</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>832</c:v>
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,10 +1280,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$11</c:f>
+              <c:f>'Burndown Summary'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1250,16 +1313,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$H$2:$H$11</c:f>
+              <c:f>'Burndown Summary'!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -1276,19 +1342,22 @@
                   <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>715</c:v>
+                  <c:v>723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>715</c:v>
+                  <c:v>723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>241</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>261</c:v>
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,13 +1427,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$A$2:$A$11</c15:sqref>
+                          <c15:sqref>'Burndown Summary'!$A$2:$A$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="11"/>
                       <c:pt idx="0">
                         <c:v>3</c:v>
                       </c:pt>
@@ -1395,6 +1464,9 @@
                       <c:pt idx="9">
                         <c:v>15</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1403,13 +1475,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$F$2:$F$11</c15:sqref>
+                          <c15:sqref>'Burndown Summary'!$F$2:$F$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="11"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -1439,6 +1511,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>571</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>757</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1498,6 +1573,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="678207296"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1555,6 +1631,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="629179296"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2507,10 +2584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF9B5FC-B68C-490C-BD95-2891DA1E6071}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,7 +2654,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="1">
-        <f>G2 -F2</f>
+        <f t="shared" ref="H2:H11" si="0">G2 -F2</f>
         <v>21</v>
       </c>
     </row>
@@ -2598,15 +2675,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>F2 + D3</f>
+        <f t="shared" ref="F3:F11" si="1">F2 + D3</f>
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <f>G2+B3</f>
+        <f t="shared" ref="G3:G11" si="2">G2+B3</f>
         <v>165</v>
       </c>
       <c r="H3" s="1">
-        <f>G3 -F3</f>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
@@ -2627,15 +2704,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f>F3 + D4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>G3+B4</f>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="H4" s="1">
-        <f>G4 -F4</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
     </row>
@@ -2656,15 +2733,15 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>F4 + D5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>G4+B5</f>
+        <f t="shared" si="2"/>
         <v>309</v>
       </c>
       <c r="H5" s="1">
-        <f>G5 -F5</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
     </row>
@@ -2685,15 +2762,15 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>F5 + D6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>G5+B6</f>
+        <f t="shared" si="2"/>
         <v>385</v>
       </c>
       <c r="H6" s="1">
-        <f>G6 -F6</f>
+        <f t="shared" si="0"/>
         <v>385</v>
       </c>
     </row>
@@ -2702,7 +2779,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C7">
         <v>301</v>
@@ -2714,16 +2791,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <f>F6 + D7</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="G7" s="1">
-        <f>G6+B7</f>
-        <v>736</v>
+        <f t="shared" si="2"/>
+        <v>744</v>
       </c>
       <c r="H7" s="1">
-        <f>G7 -F7</f>
-        <v>715</v>
+        <f t="shared" si="0"/>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2743,16 +2820,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f>F7 + D8</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="G8" s="1">
-        <f>G7+B8</f>
-        <v>736</v>
+        <f t="shared" si="2"/>
+        <v>744</v>
       </c>
       <c r="H8" s="1">
-        <f>G8 -F8</f>
-        <v>715</v>
+        <f t="shared" si="0"/>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2763,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>139</v>
@@ -2772,16 +2849,16 @@
         <v>6</v>
       </c>
       <c r="F9" s="1">
-        <f>F8 + D9</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="G9" s="1">
-        <f>G8+B9</f>
-        <v>736</v>
+        <f t="shared" si="2"/>
+        <v>744</v>
       </c>
       <c r="H9" s="1">
-        <f>G9 -F9</f>
-        <v>576</v>
+        <f t="shared" si="0"/>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2801,16 +2878,16 @@
         <v>10</v>
       </c>
       <c r="F10" s="1">
-        <f>F9 + D10</f>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="G10" s="1">
-        <f>G9+B10</f>
-        <v>791</v>
+        <f t="shared" si="2"/>
+        <v>799</v>
       </c>
       <c r="H10" s="1">
-        <f>G10 -F10</f>
-        <v>241</v>
+        <f t="shared" si="0"/>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,7 +2895,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>131</v>
@@ -2830,16 +2907,45 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f>F10 + D11</f>
+        <f t="shared" si="1"/>
         <v>571</v>
       </c>
       <c r="G11" s="1">
-        <f>G10+B11</f>
-        <v>832</v>
+        <f t="shared" si="2"/>
+        <v>841</v>
       </c>
       <c r="H11" s="1">
-        <f>G11 -F11</f>
-        <v>261</v>
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>81</v>
+      </c>
+      <c r="C12">
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <v>186</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ref="F12" si="3">F11 + D12</f>
+        <v>757</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ref="G12" si="4">G11+B12</f>
+        <v>922</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12" si="5">G12 -F12</f>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2850,10 +2956,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C989A-0DB4-4957-8B7C-55617C9397A2}">
-  <dimension ref="A1:S31"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,7 +3042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -2988,7 +3095,7 @@
         <v>43658</v>
       </c>
       <c r="P2" s="8">
-        <f ca="1">IF(ISBLANK(O2), IF(ISBLANK(N2),0, TODAY()-N2), O2-N2)</f>
+        <f t="shared" ref="P2:P38" ca="1" si="1">IF(ISBLANK(O2), IF(ISBLANK(N2),0, TODAY()-N2), O2-N2)</f>
         <v>121</v>
       </c>
       <c r="Q2" s="5">
@@ -2996,11 +3103,11 @@
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="8">
-        <f t="shared" ref="S2:S31" ca="1" si="1">IF(ISBLANK(R2), IF(ISBLANK(Q2),0,TODAY()-Q2), R2-Q2)</f>
+        <f t="shared" ref="S2:S38" ca="1" si="2">IF(ISBLANK(R2), IF(ISBLANK(Q2),0,TODAY()-Q2), R2-Q2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
@@ -3025,7 +3132,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H13" ca="1" si="2" xml:space="preserve"> G3 - F3</f>
+        <f t="shared" ref="H3:H13" ca="1" si="3" xml:space="preserve"> G3 - F3</f>
         <v>9</v>
       </c>
       <c r="I3" s="8">
@@ -3053,7 +3160,7 @@
         <v>43658</v>
       </c>
       <c r="P3" s="8">
-        <f ca="1">IF(ISBLANK(O3), IF(ISBLANK(N3),0, TODAY()-N3), O3-N3)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>119</v>
       </c>
       <c r="Q3" s="5">
@@ -3061,11 +3168,11 @@
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -3090,7 +3197,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I4" s="8">
@@ -3118,7 +3225,7 @@
         <v>43654</v>
       </c>
       <c r="P4" s="8">
-        <f ca="1">IF(ISBLANK(O4), IF(ISBLANK(N4),0, TODAY()-N4), O4-N4)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
       <c r="Q4" s="7">
@@ -3128,11 +3235,11 @@
         <v>43664</v>
       </c>
       <c r="S4" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -3157,7 +3264,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I5" s="8">
@@ -3185,7 +3292,7 @@
         <v>43622</v>
       </c>
       <c r="P5" s="8">
-        <f ca="1">IF(ISBLANK(O5), IF(ISBLANK(N5),0, TODAY()-N5), O5-N5)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
       <c r="Q5" s="7">
@@ -3195,11 +3302,11 @@
         <v>43648</v>
       </c>
       <c r="S5" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -3224,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I6" s="8">
@@ -3252,7 +3359,7 @@
         <v>43654</v>
       </c>
       <c r="P6" s="8">
-        <f ca="1">IF(ISBLANK(O6), IF(ISBLANK(N6),0, TODAY()-N6), O6-N6)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="Q6" s="7">
@@ -3262,11 +3369,11 @@
         <v>43664</v>
       </c>
       <c r="S6" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -3291,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="I7" s="8">
@@ -3319,7 +3426,7 @@
         <v>43648</v>
       </c>
       <c r="P7" s="8">
-        <f ca="1">IF(ISBLANK(O7), IF(ISBLANK(N7),0, TODAY()-N7), O7-N7)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="Q7" s="7">
@@ -3329,11 +3436,11 @@
         <v>43664</v>
       </c>
       <c r="S7" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -3358,7 +3465,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I8" s="8">
@@ -3386,7 +3493,7 @@
         <v>43658</v>
       </c>
       <c r="P8" s="8">
-        <f ca="1">IF(ISBLANK(O8), IF(ISBLANK(N8),0, TODAY()-N8), O8-N8)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="Q8" s="7">
@@ -3396,11 +3503,11 @@
         <v>43662</v>
       </c>
       <c r="S8" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -3425,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="I9" s="8">
@@ -3453,7 +3560,7 @@
         <v>43648</v>
       </c>
       <c r="P9" s="8">
-        <f ca="1">IF(ISBLANK(O9), IF(ISBLANK(N9),0, TODAY()-N9), O9-N9)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
       <c r="Q9" s="7">
@@ -3463,11 +3570,11 @@
         <v>43662</v>
       </c>
       <c r="S9" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -3492,7 +3599,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="I10" s="8">
@@ -3520,7 +3627,7 @@
         <v>43648</v>
       </c>
       <c r="P10" s="8">
-        <f ca="1">IF(ISBLANK(O10), IF(ISBLANK(N10),0, TODAY()-N10), O10-N10)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
       <c r="Q10" s="7">
@@ -3530,11 +3637,11 @@
         <v>43662</v>
       </c>
       <c r="S10" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -3559,7 +3666,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I11" s="8">
@@ -3587,7 +3694,7 @@
         <v>43658</v>
       </c>
       <c r="P11" s="8">
-        <f ca="1">IF(ISBLANK(O11), IF(ISBLANK(N11),0, TODAY()-N11), O11-N11)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
       <c r="Q11" s="7">
@@ -3597,11 +3704,11 @@
         <v>43664</v>
       </c>
       <c r="S11" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
@@ -3626,7 +3733,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I12" s="8">
@@ -3654,7 +3761,7 @@
         <v>43658</v>
       </c>
       <c r="P12" s="8">
-        <f ca="1">IF(ISBLANK(O12), IF(ISBLANK(N12),0, TODAY()-N12), O12-N12)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="Q12" s="7">
@@ -3664,11 +3771,11 @@
         <v>43662</v>
       </c>
       <c r="S12" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
@@ -3693,7 +3800,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I13" s="8">
@@ -3721,7 +3828,7 @@
         <v>43658</v>
       </c>
       <c r="P13" s="8">
-        <f ca="1">IF(ISBLANK(O13), IF(ISBLANK(N13),0, TODAY()-N13), O13-N13)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>37</v>
       </c>
       <c r="Q13" s="7">
@@ -3731,11 +3838,11 @@
         <v>43662</v>
       </c>
       <c r="S13" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -3760,7 +3867,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" ref="H14" ca="1" si="3" xml:space="preserve"> G14 - F14</f>
+        <f t="shared" ref="H14" ca="1" si="4" xml:space="preserve"> G14 - F14</f>
         <v>6</v>
       </c>
       <c r="I14" s="8" t="e">
@@ -3772,7 +3879,7 @@
         <v>#N/A</v>
       </c>
       <c r="K14" s="8" t="e">
-        <f t="shared" ref="K14" ca="1" si="4">J14 - I14</f>
+        <f t="shared" ref="K14" ca="1" si="5">J14 - I14</f>
         <v>#N/A</v>
       </c>
       <c r="L14" t="s">
@@ -3788,16 +3895,16 @@
         <v>43712</v>
       </c>
       <c r="P14" s="8">
-        <f ca="1">IF(ISBLANK(O14), IF(ISBLANK(N14),0, TODAY()-N14), O14-N14)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>84</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="S14" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -3822,7 +3929,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" ref="H15" ca="1" si="5" xml:space="preserve"> G15 - F15</f>
+        <f t="shared" ref="H15" ca="1" si="6" xml:space="preserve"> G15 - F15</f>
         <v>1</v>
       </c>
       <c r="I15" s="8">
@@ -3834,7 +3941,7 @@
         <v>18</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" ref="K15" ca="1" si="6">J15 - I15</f>
+        <f t="shared" ref="K15" ca="1" si="7">J15 - I15</f>
         <v>1</v>
       </c>
       <c r="L15" t="s">
@@ -3850,7 +3957,7 @@
         <v>43649</v>
       </c>
       <c r="P15" s="8">
-        <f ca="1">IF(ISBLANK(O15), IF(ISBLANK(N15),0, TODAY()-N15), O15-N15)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="Q15" s="5">
@@ -3860,11 +3967,11 @@
         <v>43717</v>
       </c>
       <c r="S15" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
@@ -3889,7 +3996,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ref="H16" ca="1" si="7" xml:space="preserve"> G16 - F16</f>
+        <f t="shared" ref="H16" ca="1" si="8" xml:space="preserve"> G16 - F16</f>
         <v>1</v>
       </c>
       <c r="I16" s="8">
@@ -3901,7 +4008,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" ref="K16" ca="1" si="8">J16 - I16</f>
+        <f t="shared" ref="K16" ca="1" si="9">J16 - I16</f>
         <v>1</v>
       </c>
       <c r="L16" t="s">
@@ -3917,7 +4024,7 @@
         <v>43649</v>
       </c>
       <c r="P16" s="8">
-        <f ca="1">IF(ISBLANK(O16), IF(ISBLANK(N16),0, TODAY()-N16), O16-N16)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
       <c r="Q16" s="5">
@@ -3927,7 +4034,7 @@
         <v>43717</v>
       </c>
       <c r="S16" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -3958,7 +4065,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" ref="H17" ca="1" si="9" xml:space="preserve"> G17 - F17</f>
+        <f t="shared" ref="H17" ca="1" si="10" xml:space="preserve"> G17 - F17</f>
         <v>1</v>
       </c>
       <c r="I17" s="8">
@@ -3970,7 +4077,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" ref="K17" ca="1" si="10">J17 - I17</f>
+        <f t="shared" ref="K17" ca="1" si="11">J17 - I17</f>
         <v>1</v>
       </c>
       <c r="L17" t="s">
@@ -3986,7 +4093,7 @@
         <v>43693</v>
       </c>
       <c r="P17" s="8">
-        <f ca="1">IF(ISBLANK(O17), IF(ISBLANK(N17),0, TODAY()-N17), O17-N17)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="Q17" s="5">
@@ -3996,11 +4103,11 @@
         <v>43718</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4027,7 +4134,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" ref="H18" ca="1" si="11" xml:space="preserve"> G18 - F18</f>
+        <f t="shared" ref="H18" ca="1" si="12" xml:space="preserve"> G18 - F18</f>
         <v>2</v>
       </c>
       <c r="I18" s="8">
@@ -4039,7 +4146,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" ref="K18" ca="1" si="12">J18 - I18</f>
+        <f t="shared" ref="K18" ca="1" si="13">J18 - I18</f>
         <v>1</v>
       </c>
       <c r="L18" t="s">
@@ -4055,7 +4162,7 @@
         <v>43658</v>
       </c>
       <c r="P18" s="8">
-        <f ca="1">IF(ISBLANK(O18), IF(ISBLANK(N18),0, TODAY()-N18), O18-N18)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
       <c r="Q18" s="5">
@@ -4065,11 +4172,11 @@
         <v>43718</v>
       </c>
       <c r="S18" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -4094,7 +4201,7 @@
         <v>#N/A</v>
       </c>
       <c r="H19" s="8" t="e">
-        <f t="shared" ref="H19" ca="1" si="13" xml:space="preserve"> G19 - F19</f>
+        <f t="shared" ref="H19" ca="1" si="14" xml:space="preserve"> G19 - F19</f>
         <v>#N/A</v>
       </c>
       <c r="I19" s="8" t="e">
@@ -4106,7 +4213,7 @@
         <v>#N/A</v>
       </c>
       <c r="K19" s="8" t="e">
-        <f t="shared" ref="K19" ca="1" si="14">J19 - I19</f>
+        <f t="shared" ref="K19" ca="1" si="15">J19 - I19</f>
         <v>#N/A</v>
       </c>
       <c r="L19" t="s">
@@ -4116,15 +4223,15 @@
         <v>43622</v>
       </c>
       <c r="P19" s="8">
-        <f ca="1">IF(ISBLANK(O19), IF(ISBLANK(N19),0, TODAY()-N19), O19-N19)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S19" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
@@ -4148,7 +4255,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" ref="H20" ca="1" si="15" xml:space="preserve"> G20 - F20</f>
+        <f t="shared" ref="H20" ca="1" si="16" xml:space="preserve"> G20 - F20</f>
         <v>1</v>
       </c>
       <c r="I20" s="8">
@@ -4160,7 +4267,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ref="K20" ca="1" si="16">J20 - I20</f>
+        <f t="shared" ref="K20" ca="1" si="17">J20 - I20</f>
         <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -4176,7 +4283,7 @@
         <v>43648</v>
       </c>
       <c r="P20" s="8">
-        <f ca="1">IF(ISBLANK(O20), IF(ISBLANK(N20),0, TODAY()-N20), O20-N20)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
       <c r="Q20" s="7">
@@ -4186,11 +4293,11 @@
         <v>43663</v>
       </c>
       <c r="S20" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
@@ -4214,7 +4321,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" ref="H21" ca="1" si="17" xml:space="preserve"> G21 - F21</f>
+        <f t="shared" ref="H21" ca="1" si="18" xml:space="preserve"> G21 - F21</f>
         <v>2</v>
       </c>
       <c r="I21" s="8">
@@ -4226,7 +4333,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ref="K21" ca="1" si="18">J21 - I21</f>
+        <f t="shared" ref="K21" ca="1" si="19">J21 - I21</f>
         <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -4242,7 +4349,7 @@
         <v>43658</v>
       </c>
       <c r="P21" s="8">
-        <f ca="1">IF(ISBLANK(O21), IF(ISBLANK(N21),0, TODAY()-N21), O21-N21)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
       <c r="Q21" s="7">
@@ -4252,7 +4359,7 @@
         <v>43665</v>
       </c>
       <c r="S21" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -4280,7 +4387,7 @@
         <v>16</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ref="H22" ca="1" si="19" xml:space="preserve"> G22 - F22</f>
+        <f t="shared" ref="H22" ca="1" si="20" xml:space="preserve"> G22 - F22</f>
         <v>4</v>
       </c>
       <c r="I22" s="8">
@@ -4292,7 +4399,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ref="K22" ca="1" si="20">J22 - I22</f>
+        <f t="shared" ref="K22" ca="1" si="21">J22 - I22</f>
         <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -4308,7 +4415,7 @@
         <v>43693</v>
       </c>
       <c r="P22" s="8">
-        <f ca="1">IF(ISBLANK(O22), IF(ISBLANK(N22),0, TODAY()-N22), O22-N22)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="Q22" s="7">
@@ -4318,7 +4425,7 @@
         <v>43704</v>
       </c>
       <c r="S22" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -4346,7 +4453,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" ref="H23" ca="1" si="21" xml:space="preserve"> G23 - F23</f>
+        <f t="shared" ref="H23" ca="1" si="22" xml:space="preserve"> G23 - F23</f>
         <v>1</v>
       </c>
       <c r="I23" s="8">
@@ -4358,7 +4465,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" ref="K23" ca="1" si="22">J23 - I23</f>
+        <f t="shared" ref="K23" ca="1" si="23">J23 - I23</f>
         <v>1</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -4374,7 +4481,7 @@
         <v>43682</v>
       </c>
       <c r="P23" s="8">
-        <f ca="1">IF(ISBLANK(O23), IF(ISBLANK(N23),0, TODAY()-N23), O23-N23)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
       <c r="Q23" s="5">
@@ -4384,7 +4491,7 @@
         <v>43717</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -4415,7 +4522,7 @@
         <v>16</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" ref="H24" ca="1" si="23" xml:space="preserve"> G24 - F24</f>
+        <f t="shared" ref="H24" ca="1" si="24" xml:space="preserve"> G24 - F24</f>
         <v>1</v>
       </c>
       <c r="I24" s="8">
@@ -4427,7 +4534,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" ref="K24" ca="1" si="24">J24 - I24</f>
+        <f t="shared" ref="K24" ca="1" si="25">J24 - I24</f>
         <v>1</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -4443,7 +4550,7 @@
         <v>43693</v>
       </c>
       <c r="P24" s="8">
-        <f ca="1">IF(ISBLANK(O24), IF(ISBLANK(N24),0, TODAY()-N24), O24-N24)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="Q24" s="5">
@@ -4453,11 +4560,11 @@
         <v>43717</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
@@ -4484,7 +4591,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" ref="H25" ca="1" si="25" xml:space="preserve"> G25 - F25</f>
+        <f t="shared" ref="H25" ca="1" si="26" xml:space="preserve"> G25 - F25</f>
         <v>2</v>
       </c>
       <c r="I25" s="8">
@@ -4496,7 +4603,7 @@
         <v>15</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" ref="K25" ca="1" si="26">J25 - I25</f>
+        <f t="shared" ref="K25" ca="1" si="27">J25 - I25</f>
         <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -4512,7 +4619,7 @@
         <v>43669</v>
       </c>
       <c r="P25" s="8">
-        <f ca="1">IF(ISBLANK(O25), IF(ISBLANK(N25),0, TODAY()-N25), O25-N25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="Q25" s="5">
@@ -4522,7 +4629,7 @@
         <v>43669</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4550,7 +4657,7 @@
         <v>16</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26" ca="1" si="27" xml:space="preserve"> G26 - F26</f>
+        <f t="shared" ref="H26" ca="1" si="28" xml:space="preserve"> G26 - F26</f>
         <v>1</v>
       </c>
       <c r="I26" s="8">
@@ -4562,7 +4669,7 @@
         <v>#N/A</v>
       </c>
       <c r="K26" s="8" t="e">
-        <f t="shared" ref="K26" ca="1" si="28">J26 - I26</f>
+        <f t="shared" ref="K26" ca="1" si="29">J26 - I26</f>
         <v>#N/A</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -4578,14 +4685,14 @@
         <v>43693</v>
       </c>
       <c r="P26" s="8">
-        <f ca="1">IF(ISBLANK(O26), IF(ISBLANK(N26),0, TODAY()-N26), O26-N26)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="Q26" s="5">
         <v>43706</v>
       </c>
       <c r="S26" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -4613,7 +4720,7 @@
         <v>16</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" ref="H27" ca="1" si="29" xml:space="preserve"> G27 - F27</f>
+        <f t="shared" ref="H27" ca="1" si="30" xml:space="preserve"> G27 - F27</f>
         <v>1</v>
       </c>
       <c r="I27" s="8" t="e">
@@ -4625,7 +4732,7 @@
         <v>#N/A</v>
       </c>
       <c r="K27" s="8" t="e">
-        <f t="shared" ref="K27" ca="1" si="30">J27 - I27</f>
+        <f t="shared" ref="K27" ca="1" si="31">J27 - I27</f>
         <v>#N/A</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -4641,11 +4748,11 @@
         <v>43693</v>
       </c>
       <c r="P27" s="8">
-        <f ca="1">IF(ISBLANK(O27), IF(ISBLANK(N27),0, TODAY()-N27), O27-N27)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
       <c r="S27" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4673,7 +4780,7 @@
         <v>16</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" ref="H28" ca="1" si="31" xml:space="preserve"> G28 - F28</f>
+        <f t="shared" ref="H28" ca="1" si="32" xml:space="preserve"> G28 - F28</f>
         <v>1</v>
       </c>
       <c r="I28" s="8" t="e">
@@ -4685,7 +4792,7 @@
         <v>#N/A</v>
       </c>
       <c r="K28" s="8" t="e">
-        <f t="shared" ref="K28" ca="1" si="32">J28 - I28</f>
+        <f t="shared" ref="K28" ca="1" si="33">J28 - I28</f>
         <v>#N/A</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -4701,16 +4808,16 @@
         <v>43693</v>
       </c>
       <c r="P28" s="8">
-        <f ca="1">IF(ISBLANK(O28), IF(ISBLANK(N28),0, TODAY()-N28), O28-N28)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="S28" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -4737,7 +4844,7 @@
         <v>#N/A</v>
       </c>
       <c r="H29" s="8" t="e">
-        <f t="shared" ref="H29" ca="1" si="33" xml:space="preserve"> G29 - F29</f>
+        <f t="shared" ref="H29" ca="1" si="34" xml:space="preserve"> G29 - F29</f>
         <v>#N/A</v>
       </c>
       <c r="I29" s="8" t="e">
@@ -4749,7 +4856,7 @@
         <v>#N/A</v>
       </c>
       <c r="K29" s="8" t="e">
-        <f t="shared" ref="K29" ca="1" si="34">J29 - I29</f>
+        <f t="shared" ref="K29" ca="1" si="35">J29 - I29</f>
         <v>#N/A</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -4762,11 +4869,11 @@
         <v>43710</v>
       </c>
       <c r="P29" s="8">
-        <f ca="1">IF(ISBLANK(O29), IF(ISBLANK(N29),0, TODAY()-N29), O29-N29)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="S29" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4794,7 +4901,7 @@
         <v>16</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" ref="H30" ca="1" si="35" xml:space="preserve"> G30 - F30</f>
+        <f t="shared" ref="H30" ca="1" si="36" xml:space="preserve"> G30 - F30</f>
         <v>1</v>
       </c>
       <c r="I30" s="8">
@@ -4806,7 +4913,7 @@
         <v>18</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" ref="K30" ca="1" si="36">J30 - I30</f>
+        <f t="shared" ref="K30" ca="1" si="37">J30 - I30</f>
         <v>1</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -4822,7 +4929,7 @@
         <v>43692</v>
       </c>
       <c r="P30" s="8">
-        <f ca="1">IF(ISBLANK(O30), IF(ISBLANK(N30),0, TODAY()-N30), O30-N30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
       <c r="Q30" s="5">
@@ -4832,11 +4939,11 @@
         <v>43711</v>
       </c>
       <c r="S30" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
@@ -4863,7 +4970,7 @@
         <v>#N/A</v>
       </c>
       <c r="H31" s="8" t="e">
-        <f t="shared" ref="H31" ca="1" si="37" xml:space="preserve"> G31 - F31</f>
+        <f t="shared" ref="H31" ca="1" si="38" xml:space="preserve"> G31 - F31</f>
         <v>#N/A</v>
       </c>
       <c r="I31" s="8" t="e">
@@ -4875,7 +4982,7 @@
         <v>#N/A</v>
       </c>
       <c r="K31" s="8" t="e">
-        <f t="shared" ref="K31" ca="1" si="38">J31 - I31</f>
+        <f t="shared" ref="K31" ca="1" si="39">J31 - I31</f>
         <v>#N/A</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -4888,16 +4995,535 @@
         <v>43697</v>
       </c>
       <c r="P31" s="8">
-        <f ca="1">IF(ISBLANK(O31), IF(ISBLANK(N31),0, TODAY()-N31), O31-N31)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
       <c r="S31" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="11">
+        <v>5</v>
+      </c>
+      <c r="D32" s="8">
+        <f ca="1">VLOOKUP(P32,SP!A$2:$C$9,3)</f>
+        <v>8</v>
+      </c>
+      <c r="E32" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M32)/(Sprints!$B$2:$B$20&gt;=M32),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="F32" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N32)/(Sprints!$B$2:$B$20&gt;=N32),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="G32" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O32)/(Sprints!$B$2:$B$20&gt;=O32),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" ref="H32" ca="1" si="40" xml:space="preserve"> G32 - F32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q32)/(Sprints!$B$2:$B$20&gt;=Q32),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J32" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R32)/(Sprints!$B$2:$B$20&gt;=R32),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" ref="K32" ca="1" si="41">J32 - I32</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="5">
+        <v>43623</v>
+      </c>
+      <c r="N32" s="5">
+        <v>43686</v>
+      </c>
+      <c r="O32" s="5">
+        <v>43693</v>
+      </c>
+      <c r="P32" s="8">
         <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>43699</v>
+      </c>
+      <c r="R32" s="5">
+        <v>43711</v>
+      </c>
+      <c r="S32" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="11">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8">
+        <f ca="1">VLOOKUP(P33,SP!A$2:$C$9,3)</f>
+        <v>55</v>
+      </c>
+      <c r="E33" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M33)/(Sprints!$B$2:$B$20&gt;=M33),Sprints!$C$2:$C$20)</f>
+        <v>10</v>
+      </c>
+      <c r="F33" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N33)/(Sprints!$B$2:$B$20&gt;=N33),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="G33" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O33)/(Sprints!$B$2:$B$20&gt;=O33),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" ref="H33" ca="1" si="42" xml:space="preserve"> G33 - F33</f>
+        <v>5</v>
+      </c>
+      <c r="I33" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q33)/(Sprints!$B$2:$B$20&gt;=Q33),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R33)/(Sprints!$B$2:$B$20&gt;=R33),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K33" s="8" t="e">
+        <f t="shared" ref="K33" ca="1" si="43">J33 - I33</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" s="5">
+        <v>43638</v>
+      </c>
+      <c r="N33" s="5">
+        <v>43642</v>
+      </c>
+      <c r="O33" s="5">
+        <v>43711</v>
+      </c>
+      <c r="P33" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="S33" s="8">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="11">
+        <v>5</v>
+      </c>
+      <c r="D34" s="8">
+        <f ca="1">VLOOKUP(P34,SP!A$2:$C$9,3)</f>
+        <v>55</v>
+      </c>
+      <c r="E34" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M34)/(Sprints!$B$2:$B$20&gt;=M34),Sprints!$C$2:$C$20)</f>
+        <v>10</v>
+      </c>
+      <c r="F34" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N34)/(Sprints!$B$2:$B$20&gt;=N34),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="G34" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O34)/(Sprints!$B$2:$B$20&gt;=O34),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" ref="H34" ca="1" si="44" xml:space="preserve"> G34 - F34</f>
+        <v>5</v>
+      </c>
+      <c r="I34" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q34)/(Sprints!$B$2:$B$20&gt;=Q34),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R34)/(Sprints!$B$2:$B$20&gt;=R34),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K34" s="8" t="e">
+        <f t="shared" ref="K34" ca="1" si="45">J34 - I34</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" s="5">
+        <v>43638</v>
+      </c>
+      <c r="N34" s="5">
+        <v>43648</v>
+      </c>
+      <c r="O34" s="5">
+        <v>43711</v>
+      </c>
+      <c r="P34" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="S34" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="8">
+        <f ca="1">VLOOKUP(P35,SP!A$2:$C$9,3)</f>
+        <v>8</v>
+      </c>
+      <c r="E35" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M35)/(Sprints!$B$2:$B$20&gt;=M35),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="F35" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N35)/(Sprints!$B$2:$B$20&gt;=N35),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G35" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O35)/(Sprints!$B$2:$B$20&gt;=O35),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" ref="H35" ca="1" si="46" xml:space="preserve"> G35 - F35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q35)/(Sprints!$B$2:$B$20&gt;=Q35),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="J35" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R35)/(Sprints!$B$2:$B$20&gt;=R35),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K35" s="8" t="e">
+        <f t="shared" ref="K35" ca="1" si="47">J35 - I35</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" s="5">
+        <v>43682</v>
+      </c>
+      <c r="N35" s="5">
+        <v>43696</v>
+      </c>
+      <c r="O35" s="5">
+        <v>43705</v>
+      </c>
+      <c r="P35" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>43718</v>
+      </c>
+      <c r="S35" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="8">
+        <f ca="1">VLOOKUP(P36,SP!A$2:$C$9,3)</f>
+        <v>34</v>
+      </c>
+      <c r="E36" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M36)/(Sprints!$B$2:$B$20&gt;=M36),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="F36" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N36)/(Sprints!$B$2:$B$20&gt;=N36),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="G36" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O36)/(Sprints!$B$2:$B$20&gt;=O36),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H36" s="8" t="e">
+        <f t="shared" ref="H36" ca="1" si="48" xml:space="preserve"> G36 - F36</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I36" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q36)/(Sprints!$B$2:$B$20&gt;=Q36),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R36)/(Sprints!$B$2:$B$20&gt;=R36),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" s="8" t="e">
+        <f t="shared" ref="K36" ca="1" si="49">J36 - I36</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="5">
+        <v>43682</v>
+      </c>
+      <c r="N36" s="5">
+        <v>43682</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="S36" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="8">
+        <f ca="1">VLOOKUP(P37,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="E37" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M37)/(Sprints!$B$2:$B$20&gt;=M37),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="F37" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N37)/(Sprints!$B$2:$B$20&gt;=N37),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="G37" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O37)/(Sprints!$B$2:$B$20&gt;=O37),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" ref="H37" ca="1" si="50" xml:space="preserve"> G37 - F37</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q37)/(Sprints!$B$2:$B$20&gt;=Q37),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J37" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R37)/(Sprints!$B$2:$B$20&gt;=R37),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" ref="K37" ca="1" si="51">J37 - I37</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M37" s="5">
+        <v>43682</v>
+      </c>
+      <c r="N37" s="5">
+        <v>43682</v>
+      </c>
+      <c r="O37" s="5">
+        <v>43697</v>
+      </c>
+      <c r="P37" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>43706</v>
+      </c>
+      <c r="R37" s="5">
+        <v>43706</v>
+      </c>
+      <c r="S37" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="8">
+        <f ca="1">VLOOKUP(P38,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="E38" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M38)/(Sprints!$B$2:$B$20&gt;=M38),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="F38" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N38)/(Sprints!$B$2:$B$20&gt;=N38),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="G38" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O38)/(Sprints!$B$2:$B$20&gt;=O38),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" ref="H38" ca="1" si="52" xml:space="preserve"> G38 - F38</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q38)/(Sprints!$B$2:$B$20&gt;=Q38),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J38" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R38)/(Sprints!$B$2:$B$20&gt;=R38),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" ref="K38" ca="1" si="53">J38 - I38</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="5">
+        <v>43682</v>
+      </c>
+      <c r="N38" s="5">
+        <v>43682</v>
+      </c>
+      <c r="O38" s="5">
+        <v>43697</v>
+      </c>
+      <c r="P38" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>43706</v>
+      </c>
+      <c r="R38" s="5">
+        <v>43706</v>
+      </c>
+      <c r="S38" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="8">
+        <f ca="1">VLOOKUP(P39,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="E39" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M39)/(Sprints!$B$2:$B$20&gt;=M39),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="F39" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N39)/(Sprints!$B$2:$B$20&gt;=N39),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="G39" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O39)/(Sprints!$B$2:$B$20&gt;=O39),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" ref="H39" ca="1" si="54" xml:space="preserve"> G39 - F39</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q39)/(Sprints!$B$2:$B$20&gt;=Q39),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="J39" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R39)/(Sprints!$B$2:$B$20&gt;=R39),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" ref="K39" ca="1" si="55">J39 - I39</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" s="5">
+        <v>43682</v>
+      </c>
+      <c r="N39" s="5">
+        <v>43682</v>
+      </c>
+      <c r="O39" s="5">
+        <v>43697</v>
+      </c>
+      <c r="P39" s="8">
+        <f t="shared" ref="P39" ca="1" si="56">IF(ISBLANK(O39), IF(ISBLANK(N39),0, TODAY()-N39), O39-N39)</f>
+        <v>15</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>43706</v>
+      </c>
+      <c r="R39" s="5">
+        <v>43706</v>
+      </c>
+      <c r="S39" s="8">
+        <f t="shared" ref="S39" ca="1" si="57">IF(ISBLANK(R39), IF(ISBLANK(Q39),0,TODAY()-Q39), R39-Q39)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:K31" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}"/>
+  <autoFilter ref="B1:K39" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="16"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>

--- a/ncis-sprint-burndowns.xlsx
+++ b/ncis-sprint-burndowns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC2BC55-8D45-435C-8FB0-88ABBB14026C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C84DC05-7F72-4908-B677-7E97B8701E2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Summary" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sprints" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$1:$K$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$C$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="132">
   <si>
     <t>Backlog Sprint</t>
   </si>
@@ -314,6 +314,127 @@
   </si>
   <si>
     <t>NCIS-541</t>
+  </si>
+  <si>
+    <t>NCIS-491</t>
+  </si>
+  <si>
+    <t>NCIS-678</t>
+  </si>
+  <si>
+    <t>Sprint 17</t>
+  </si>
+  <si>
+    <t>NCIS-542</t>
+  </si>
+  <si>
+    <t>NCIS-561</t>
+  </si>
+  <si>
+    <t>NCIS-560</t>
+  </si>
+  <si>
+    <t>NCIS-562</t>
+  </si>
+  <si>
+    <t>NCIS-691</t>
+  </si>
+  <si>
+    <t>NCIS-563</t>
+  </si>
+  <si>
+    <t>NCIS-564</t>
+  </si>
+  <si>
+    <t>NCIS-565</t>
+  </si>
+  <si>
+    <t>NCIS-648</t>
+  </si>
+  <si>
+    <t>Sprint 
+(Jira)</t>
+  </si>
+  <si>
+    <t>NCIS-568</t>
+  </si>
+  <si>
+    <t>NCIS-552</t>
+  </si>
+  <si>
+    <t>NCIS-572</t>
+  </si>
+  <si>
+    <t>NCIS-571</t>
+  </si>
+  <si>
+    <t>NO-DEV</t>
+  </si>
+  <si>
+    <t>NCIS-574</t>
+  </si>
+  <si>
+    <t>NCIS-234</t>
+  </si>
+  <si>
+    <t>NCIS-577</t>
+  </si>
+  <si>
+    <t>NCIS-578</t>
+  </si>
+  <si>
+    <t>NCIS-235</t>
+  </si>
+  <si>
+    <t>NCIS-581</t>
+  </si>
+  <si>
+    <t>NCIS-659</t>
+  </si>
+  <si>
+    <t>NCIS-760</t>
+  </si>
+  <si>
+    <t>NCIS-470</t>
+  </si>
+  <si>
+    <t>NCIS-551</t>
+  </si>
+  <si>
+    <t>NCIS-744</t>
+  </si>
+  <si>
+    <t>NCIS-745</t>
+  </si>
+  <si>
+    <t>NCIS-576</t>
+  </si>
+  <si>
+    <t>NCIS-749</t>
+  </si>
+  <si>
+    <t>NCIS-553</t>
+  </si>
+  <si>
+    <t>NCIS-754</t>
+  </si>
+  <si>
+    <t>NCIS-757</t>
+  </si>
+  <si>
+    <t>NCIS-761</t>
+  </si>
+  <si>
+    <t>Sprint 18</t>
+  </si>
+  <si>
+    <t>IN-QA</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>BA-SO</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF9B5FC-B68C-490C-BD95-2891DA1E6071}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2956,107 +3077,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C989A-0DB4-4957-8B7C-55617C9397A2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="4" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="4" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="8">
-        <f ca="1">VLOOKUP(P2,SP!A$2:$C$9,3)</f>
+      <c r="D2" s="14"/>
+      <c r="E2" s="8">
+        <f ca="1">VLOOKUP(Q2,SP!A$2:$C$9,3)</f>
         <v>55</v>
-      </c>
-      <c r="E2" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M2)/(Sprints!$B$2:$B$20&gt;=M2),Sprints!$C$2:$C$20)</f>
-        <v>5</v>
       </c>
       <c r="F2" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N2)/(Sprints!$B$2:$B$20&gt;=N2),Sprints!$C$2:$C$20)</f>
@@ -3064,64 +3185,66 @@
       </c>
       <c r="G2" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O2)/(Sprints!$B$2:$B$20&gt;=O2),Sprints!$C$2:$C$20)</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P2)/(Sprints!$B$2:$B$20&gt;=P2),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H2" s="8">
-        <f ca="1" xml:space="preserve"> G2 - F2</f>
+      <c r="I2" s="8">
+        <f ca="1" xml:space="preserve"> H2 - G2</f>
         <v>9</v>
       </c>
-      <c r="I2" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q2)/(Sprints!$B$2:$B$20&gt;=Q2),Sprints!$C$2:$C$20)</f>
+      <c r="J2" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R2)/(Sprints!$B$2:$B$20&gt;=R2),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="J2" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R2)/(Sprints!$B$2:$B$20&gt;=R2),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K2" s="8" t="e">
-        <f t="shared" ref="K2:K13" ca="1" si="0">J2 - I2</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S2)/(Sprints!$B$2:$B$20&gt;=S2),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ref="L2:L13" si="0">K2 - J2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>43535</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
         <v>43537</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>43658</v>
       </c>
-      <c r="P2" s="8">
-        <f t="shared" ref="P2:P38" ca="1" si="1">IF(ISBLANK(O2), IF(ISBLANK(N2),0, TODAY()-N2), O2-N2)</f>
+      <c r="Q2" s="8">
+        <f t="shared" ref="Q2:Q38" ca="1" si="1">IF(ISBLANK(P2), IF(ISBLANK(O2),0, TODAY()-O2), P2-O2)</f>
         <v>121</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>43717</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="8">
-        <f t="shared" ref="S2:S38" ca="1" si="2">IF(ISBLANK(R2), IF(ISBLANK(Q2),0,TODAY()-Q2), R2-Q2)</f>
+      <c r="S2" s="5">
+        <v>43718</v>
+      </c>
+      <c r="T2" s="8">
+        <f t="shared" ref="T2:T38" ca="1" si="2">IF(ISBLANK(S2), IF(ISBLANK(R2),0,TODAY()-R2), S2-R2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="8">
-        <f ca="1">VLOOKUP(P3,SP!A$2:$C$9,3)</f>
+      <c r="D3" s="14"/>
+      <c r="E3" s="8">
+        <f ca="1">VLOOKUP(Q3,SP!A$2:$C$9,3)</f>
         <v>55</v>
-      </c>
-      <c r="E3" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M3)/(Sprints!$B$2:$B$20&gt;=M3),Sprints!$C$2:$C$20)</f>
-        <v>5</v>
       </c>
       <c r="F3" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N3)/(Sprints!$B$2:$B$20&gt;=N3),Sprints!$C$2:$C$20)</f>
@@ -3129,131 +3252,135 @@
       </c>
       <c r="G3" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O3)/(Sprints!$B$2:$B$20&gt;=O3),Sprints!$C$2:$C$20)</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P3)/(Sprints!$B$2:$B$20&gt;=P3),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H3" s="8">
-        <f t="shared" ref="H3:H13" ca="1" si="3" xml:space="preserve"> G3 - F3</f>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I13" ca="1" si="3" xml:space="preserve"> H3 - G3</f>
         <v>9</v>
       </c>
-      <c r="I3" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q3)/(Sprints!$B$2:$B$20&gt;=Q3),Sprints!$C$2:$C$20)</f>
+      <c r="J3" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R3)/(Sprints!$B$2:$B$20&gt;=R3),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="J3" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R3)/(Sprints!$B$2:$B$20&gt;=R3),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K3" s="8" t="e">
+      <c r="K3" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S3)/(Sprints!$B$2:$B$20&gt;=S3),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="L3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>43535</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>43539</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>43658</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>119</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>43706</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8">
+      <c r="S3" s="5">
+        <v>43718</v>
+      </c>
+      <c r="T3" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="8">
-        <f ca="1">VLOOKUP(P4,SP!A$2:$C$9,3)</f>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8">
+        <f ca="1">VLOOKUP(Q4,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="E4" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M4)/(Sprints!$B$2:$B$20&gt;=M4),Sprints!$C$2:$C$20)</f>
-        <v>9</v>
       </c>
       <c r="F4" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N4)/(Sprints!$B$2:$B$20&gt;=N4),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O4)/(Sprints!$B$2:$B$20&gt;=O4),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="H4" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P4)/(Sprints!$B$2:$B$20&gt;=P4),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
-      </c>
-      <c r="I4" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q4)/(Sprints!$B$2:$B$20&gt;=Q4),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J4" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R4)/(Sprints!$B$2:$B$20&gt;=R4),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K4" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S4)/(Sprints!$B$2:$B$20&gt;=S4),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L4" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="7">
         <v>43594</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>43614</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <v>43654</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="R4" s="7">
         <v>43661</v>
       </c>
-      <c r="R4" s="7">
+      <c r="S4" s="7">
         <v>43664</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="8">
-        <f ca="1">VLOOKUP(P5,SP!A$2:$C$9,3)</f>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8">
+        <f ca="1">VLOOKUP(Q5,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E5" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M5)/(Sprints!$B$2:$B$20&gt;=M5),Sprints!$C$2:$C$20)</f>
-        <v>10</v>
       </c>
       <c r="F5" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N5)/(Sprints!$B$2:$B$20&gt;=N5),Sprints!$C$2:$C$20)</f>
@@ -3261,66 +3388,67 @@
       </c>
       <c r="G5" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O5)/(Sprints!$B$2:$B$20&gt;=O5),Sprints!$C$2:$C$20)</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P5)/(Sprints!$B$2:$B$20&gt;=P5),Sprints!$C$2:$C$20)</f>
         <v>11</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="I5" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q5)/(Sprints!$B$2:$B$20&gt;=Q5),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
-      </c>
       <c r="J5" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R5)/(Sprints!$B$2:$B$20&gt;=R5),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="K5" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S5)/(Sprints!$B$2:$B$20&gt;=S5),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="M5" s="7">
-        <v>43600</v>
       </c>
       <c r="N5" s="7">
         <v>43600</v>
       </c>
       <c r="O5" s="7">
+        <v>43600</v>
+      </c>
+      <c r="P5" s="7">
         <v>43622</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="R5" s="7">
         <v>43626</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>43648</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="8">
-        <f ca="1">VLOOKUP(P6,SP!A$2:$C$9,3)</f>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8">
+        <f ca="1">VLOOKUP(Q6,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="E6" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M6)/(Sprints!$B$2:$B$20&gt;=M6),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F6" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N6)/(Sprints!$B$2:$B$20&gt;=N6),Sprints!$C$2:$C$20)</f>
@@ -3328,66 +3456,67 @@
       </c>
       <c r="G6" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O6)/(Sprints!$B$2:$B$20&gt;=O6),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="H6" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P6)/(Sprints!$B$2:$B$20&gt;=P6),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
-      </c>
-      <c r="I6" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q6)/(Sprints!$B$2:$B$20&gt;=Q6),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J6" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R6)/(Sprints!$B$2:$B$20&gt;=R6),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K6" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S6)/(Sprints!$B$2:$B$20&gt;=S6),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L6" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>43613</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>43619</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>43654</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="R6" s="7">
         <v>43661</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="7">
         <v>43664</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T6" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="8">
-        <f ca="1">VLOOKUP(P7,SP!A$2:$C$9,3)</f>
+      <c r="D7" s="14"/>
+      <c r="E7" s="8">
+        <f ca="1">VLOOKUP(Q7,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E7" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M7)/(Sprints!$B$2:$B$20&gt;=M7),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F7" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N7)/(Sprints!$B$2:$B$20&gt;=N7),Sprints!$C$2:$C$20)</f>
@@ -3395,66 +3524,67 @@
       </c>
       <c r="G7" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O7)/(Sprints!$B$2:$B$20&gt;=O7),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="H7" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P7)/(Sprints!$B$2:$B$20&gt;=P7),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
-      </c>
-      <c r="I7" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q7)/(Sprints!$B$2:$B$20&gt;=Q7),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J7" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R7)/(Sprints!$B$2:$B$20&gt;=R7),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K7" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S7)/(Sprints!$B$2:$B$20&gt;=S7),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L7" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>43613</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>43620</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>43648</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="7">
         <v>43661</v>
       </c>
-      <c r="R7" s="7">
+      <c r="S7" s="7">
         <v>43664</v>
       </c>
-      <c r="S7" s="8">
+      <c r="T7" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="8">
-        <f ca="1">VLOOKUP(P8,SP!A$2:$C$9,3)</f>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8">
+        <f ca="1">VLOOKUP(Q8,SP!A$2:$C$9,3)</f>
         <v>55</v>
-      </c>
-      <c r="E8" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M8)/(Sprints!$B$2:$B$20&gt;=M8),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F8" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N8)/(Sprints!$B$2:$B$20&gt;=N8),Sprints!$C$2:$C$20)</f>
@@ -3462,66 +3592,67 @@
       </c>
       <c r="G8" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O8)/(Sprints!$B$2:$B$20&gt;=O8),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="H8" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P8)/(Sprints!$B$2:$B$20&gt;=P8),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
-      </c>
-      <c r="I8" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q8)/(Sprints!$B$2:$B$20&gt;=Q8),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J8" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R8)/(Sprints!$B$2:$B$20&gt;=R8),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K8" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S8)/(Sprints!$B$2:$B$20&gt;=S8),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L8" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="M8" s="7">
-        <v>43613</v>
       </c>
       <c r="N8" s="7">
         <v>43613</v>
       </c>
       <c r="O8" s="7">
+        <v>43613</v>
+      </c>
+      <c r="P8" s="7">
         <v>43658</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>43661</v>
       </c>
-      <c r="R8" s="7">
+      <c r="S8" s="7">
         <v>43662</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="8">
-        <f ca="1">VLOOKUP(P9,SP!A$2:$C$9,3)</f>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8">
+        <f ca="1">VLOOKUP(Q9,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="E9" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M9)/(Sprints!$B$2:$B$20&gt;=M9),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N9)/(Sprints!$B$2:$B$20&gt;=N9),Sprints!$C$2:$C$20)</f>
@@ -3529,66 +3660,67 @@
       </c>
       <c r="G9" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O9)/(Sprints!$B$2:$B$20&gt;=O9),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="H9" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P9)/(Sprints!$B$2:$B$20&gt;=P9),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
-      </c>
-      <c r="I9" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q9)/(Sprints!$B$2:$B$20&gt;=Q9),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J9" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R9)/(Sprints!$B$2:$B$20&gt;=R9),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K9" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S9)/(Sprints!$B$2:$B$20&gt;=S9),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L9" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>43613</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O9" s="7">
         <v>43615</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>43648</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="R9" s="7">
         <v>43661</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <v>43662</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="8">
-        <f ca="1">VLOOKUP(P10,SP!A$2:$C$9,3)</f>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8">
+        <f ca="1">VLOOKUP(Q10,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E10" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M10)/(Sprints!$B$2:$B$20&gt;=M10),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N10)/(Sprints!$B$2:$B$20&gt;=N10),Sprints!$C$2:$C$20)</f>
@@ -3596,66 +3728,67 @@
       </c>
       <c r="G10" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O10)/(Sprints!$B$2:$B$20&gt;=O10),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="H10" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P10)/(Sprints!$B$2:$B$20&gt;=P10),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
-      </c>
-      <c r="I10" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q10)/(Sprints!$B$2:$B$20&gt;=Q10),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J10" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R10)/(Sprints!$B$2:$B$20&gt;=R10),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K10" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S10)/(Sprints!$B$2:$B$20&gt;=S10),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L10" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="7">
+      <c r="N10" s="7">
         <v>43613</v>
       </c>
-      <c r="N10" s="7">
+      <c r="O10" s="7">
         <v>43621</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <v>43648</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="R10" s="7">
         <v>43661</v>
       </c>
-      <c r="R10" s="7">
+      <c r="S10" s="7">
         <v>43662</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="8">
-        <f ca="1">VLOOKUP(P11,SP!A$2:$C$9,3)</f>
+      <c r="D11" s="14"/>
+      <c r="E11" s="8">
+        <f ca="1">VLOOKUP(Q11,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="E11" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M11)/(Sprints!$B$2:$B$20&gt;=M11),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N11)/(Sprints!$B$2:$B$20&gt;=N11),Sprints!$C$2:$C$20)</f>
@@ -3663,66 +3796,66 @@
       </c>
       <c r="G11" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O11)/(Sprints!$B$2:$B$20&gt;=O11),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="H11" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P11)/(Sprints!$B$2:$B$20&gt;=P11),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
-      </c>
-      <c r="I11" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q11)/(Sprints!$B$2:$B$20&gt;=Q11),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J11" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R11)/(Sprints!$B$2:$B$20&gt;=R11),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K11" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S11)/(Sprints!$B$2:$B$20&gt;=S11),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L11" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="7">
+      <c r="N11" s="7">
         <v>43613</v>
       </c>
-      <c r="N11" s="7">
+      <c r="O11" s="7">
         <v>43620</v>
       </c>
-      <c r="O11" s="7">
+      <c r="P11" s="7">
         <v>43658</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="R11" s="7">
         <v>43661</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="7">
         <v>43664</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="8">
-        <f ca="1">VLOOKUP(P12,SP!A$2:$C$9,3)</f>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8">
+        <f ca="1">VLOOKUP(Q12,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="E12" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M12)/(Sprints!$B$2:$B$20&gt;=M12),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F12" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N12)/(Sprints!$B$2:$B$20&gt;=N12),Sprints!$C$2:$C$20)</f>
@@ -3730,66 +3863,66 @@
       </c>
       <c r="G12" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O12)/(Sprints!$B$2:$B$20&gt;=O12),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="H12" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P12)/(Sprints!$B$2:$B$20&gt;=P12),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
-      </c>
-      <c r="I12" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q12)/(Sprints!$B$2:$B$20&gt;=Q12),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J12" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R12)/(Sprints!$B$2:$B$20&gt;=R12),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K12" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S12)/(Sprints!$B$2:$B$20&gt;=S12),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L12" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="7">
+      <c r="N12" s="7">
         <v>43613</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <v>43623</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="7">
         <v>43658</v>
       </c>
-      <c r="P12" s="8">
+      <c r="Q12" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="R12" s="7">
         <v>43661</v>
       </c>
-      <c r="R12" s="7">
+      <c r="S12" s="7">
         <v>43662</v>
       </c>
-      <c r="S12" s="8">
+      <c r="T12" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="8">
-        <f ca="1">VLOOKUP(P13,SP!A$2:$C$9,3)</f>
+      <c r="D13" s="14"/>
+      <c r="E13" s="8">
+        <f ca="1">VLOOKUP(Q13,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="E13" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M13)/(Sprints!$B$2:$B$20&gt;=M13),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F13" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N13)/(Sprints!$B$2:$B$20&gt;=N13),Sprints!$C$2:$C$20)</f>
@@ -3797,415 +3930,423 @@
       </c>
       <c r="G13" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O13)/(Sprints!$B$2:$B$20&gt;=O13),Sprints!$C$2:$C$20)</f>
+        <v>11</v>
+      </c>
+      <c r="H13" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P13)/(Sprints!$B$2:$B$20&gt;=P13),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
-      </c>
-      <c r="I13" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q13)/(Sprints!$B$2:$B$20&gt;=Q13),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J13" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R13)/(Sprints!$B$2:$B$20&gt;=R13),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K13" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S13)/(Sprints!$B$2:$B$20&gt;=S13),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L13" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="7">
+      <c r="N13" s="7">
         <v>43620</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <v>43621</v>
       </c>
-      <c r="O13" s="7">
+      <c r="P13" s="7">
         <v>43658</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>37</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="R13" s="7">
         <v>43661</v>
       </c>
-      <c r="R13" s="7">
+      <c r="S13" s="7">
         <v>43662</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="8">
-        <f ca="1">VLOOKUP(P14,SP!A$2:$C$9,3)</f>
+      <c r="D14" s="16"/>
+      <c r="E14" s="8">
+        <f ca="1">VLOOKUP(Q14,SP!A$2:$C$9,3)</f>
         <v>55</v>
-      </c>
-      <c r="E14" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M14)/(Sprints!$B$2:$B$20&gt;=M14),Sprints!$C$2:$C$20)</f>
-        <v>4</v>
       </c>
       <c r="F14" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N14)/(Sprints!$B$2:$B$20&gt;=N14),Sprints!$C$2:$C$20)</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O14)/(Sprints!$B$2:$B$20&gt;=O14),Sprints!$C$2:$C$20)</f>
         <v>12</v>
       </c>
-      <c r="G14" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O14)/(Sprints!$B$2:$B$20&gt;=O14),Sprints!$C$2:$C$20)</f>
+      <c r="H14" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P14)/(Sprints!$B$2:$B$20&gt;=P14),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="H14" s="8">
-        <f t="shared" ref="H14" ca="1" si="4" xml:space="preserve"> G14 - F14</f>
+      <c r="I14" s="8">
+        <f t="shared" ref="I14" ca="1" si="4" xml:space="preserve"> H14 - G14</f>
         <v>6</v>
       </c>
-      <c r="I14" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q14)/(Sprints!$B$2:$B$20&gt;=Q14),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R14)/(Sprints!$B$2:$B$20&gt;=R14),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
+      <c r="J14" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R14)/(Sprints!$B$2:$B$20&gt;=R14),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
       </c>
       <c r="K14" s="8" t="e">
-        <f t="shared" ref="K14" ca="1" si="5">J14 - I14</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S14)/(Sprints!$B$2:$B$20&gt;=S14),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="8" t="e">
+        <f t="shared" ref="L14" ca="1" si="5">K14 - J14</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M14" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>43516</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>43628</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>43712</v>
       </c>
-      <c r="P14" s="8">
+      <c r="Q14" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>84</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="S14" s="8">
+      <c r="R14" s="5">
+        <v>43719</v>
+      </c>
+      <c r="T14" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="8">
-        <f ca="1">VLOOKUP(P15,SP!A$2:$C$9,3)</f>
+      <c r="D15" s="13"/>
+      <c r="E15" s="8">
+        <f ca="1">VLOOKUP(Q15,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E15" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M15)/(Sprints!$B$2:$B$20&gt;=M15),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F15" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N15)/(Sprints!$B$2:$B$20&gt;=N15),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O15)/(Sprints!$B$2:$B$20&gt;=O15),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="H15" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P15)/(Sprints!$B$2:$B$20&gt;=P15),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="H15" s="8">
-        <f t="shared" ref="H15" ca="1" si="6" xml:space="preserve"> G15 - F15</f>
+      <c r="I15" s="8">
+        <f t="shared" ref="I15" ca="1" si="6" xml:space="preserve"> H15 - G15</f>
         <v>1</v>
       </c>
-      <c r="I15" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q15)/(Sprints!$B$2:$B$20&gt;=Q15),Sprints!$C$2:$C$20)</f>
+      <c r="J15" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R15)/(Sprints!$B$2:$B$20&gt;=R15),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="J15" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R15)/(Sprints!$B$2:$B$20&gt;=R15),Sprints!$C$2:$C$20)</f>
+      <c r="K15" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S15)/(Sprints!$B$2:$B$20&gt;=S15),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="K15" s="8">
-        <f t="shared" ref="K15" ca="1" si="7">J15 - I15</f>
+      <c r="L15" s="8">
+        <f t="shared" ref="L15" ca="1" si="7">K15 - J15</f>
         <v>1</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>48</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>43620</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>43633</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>43649</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>43706</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>43717</v>
       </c>
-      <c r="S15" s="8">
+      <c r="T15" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="8">
-        <f ca="1">VLOOKUP(P16,SP!A$2:$C$9,3)</f>
+      <c r="D16" s="13"/>
+      <c r="E16" s="8">
+        <f ca="1">VLOOKUP(Q16,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E16" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M16)/(Sprints!$B$2:$B$20&gt;=M16),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F16" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N16)/(Sprints!$B$2:$B$20&gt;=N16),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O16)/(Sprints!$B$2:$B$20&gt;=O16),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="H16" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P16)/(Sprints!$B$2:$B$20&gt;=P16),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="H16" s="8">
-        <f t="shared" ref="H16" ca="1" si="8" xml:space="preserve"> G16 - F16</f>
+      <c r="I16" s="8">
+        <f t="shared" ref="I16" ca="1" si="8" xml:space="preserve"> H16 - G16</f>
         <v>1</v>
       </c>
-      <c r="I16" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q16)/(Sprints!$B$2:$B$20&gt;=Q16),Sprints!$C$2:$C$20)</f>
+      <c r="J16" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R16)/(Sprints!$B$2:$B$20&gt;=R16),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="J16" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R16)/(Sprints!$B$2:$B$20&gt;=R16),Sprints!$C$2:$C$20)</f>
+      <c r="K16" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S16)/(Sprints!$B$2:$B$20&gt;=S16),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="K16" s="8">
-        <f t="shared" ref="K16" ca="1" si="9">J16 - I16</f>
+      <c r="L16" s="8">
+        <f t="shared" ref="L16" ca="1" si="9">K16 - J16</f>
         <v>1</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>43622</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>43628</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>43649</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>43706</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <v>43717</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="13">
+      <c r="D17" s="13">
         <v>8</v>
       </c>
-      <c r="D17" s="8">
-        <f ca="1">VLOOKUP(P17,SP!A$2:$C$9,3)</f>
+      <c r="E17" s="8">
+        <f ca="1">VLOOKUP(Q17,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E17" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M17)/(Sprints!$B$2:$B$20&gt;=M17),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F17" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N17)/(Sprints!$B$2:$B$20&gt;=N17),Sprints!$C$2:$C$20)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G17" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O17)/(Sprints!$B$2:$B$20&gt;=O17),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="H17" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P17)/(Sprints!$B$2:$B$20&gt;=P17),Sprints!$C$2:$C$20)</f>
         <v>16</v>
       </c>
-      <c r="H17" s="8">
-        <f t="shared" ref="H17" ca="1" si="10" xml:space="preserve"> G17 - F17</f>
+      <c r="I17" s="8">
+        <f t="shared" ref="I17" ca="1" si="10" xml:space="preserve"> H17 - G17</f>
         <v>1</v>
       </c>
-      <c r="I17" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q17)/(Sprints!$B$2:$B$20&gt;=Q17),Sprints!$C$2:$C$20)</f>
+      <c r="J17" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R17)/(Sprints!$B$2:$B$20&gt;=R17),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="J17" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R17)/(Sprints!$B$2:$B$20&gt;=R17),Sprints!$C$2:$C$20)</f>
+      <c r="K17" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S17)/(Sprints!$B$2:$B$20&gt;=S17),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="K17" s="8">
-        <f t="shared" ref="K17" ca="1" si="11">J17 - I17</f>
+      <c r="L17" s="8">
+        <f t="shared" ref="L17" ca="1" si="11">K17 - J17</f>
         <v>1</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>43622</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>43677</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>43693</v>
       </c>
-      <c r="P17" s="8">
+      <c r="Q17" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>43706</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>43718</v>
       </c>
-      <c r="S17" s="8">
+      <c r="T17" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="13">
+      <c r="D18" s="13">
         <v>3</v>
       </c>
-      <c r="D18" s="8">
-        <f ca="1">VLOOKUP(P18,SP!A$2:$C$9,3)</f>
+      <c r="E18" s="8">
+        <f ca="1">VLOOKUP(Q18,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E18" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M18)/(Sprints!$B$2:$B$20&gt;=M18),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F18" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N18)/(Sprints!$B$2:$B$20&gt;=N18),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O18)/(Sprints!$B$2:$B$20&gt;=O18),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="H18" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P18)/(Sprints!$B$2:$B$20&gt;=P18),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18" ca="1" si="12" xml:space="preserve"> G18 - F18</f>
+      <c r="I18" s="8">
+        <f t="shared" ref="I18" ca="1" si="12" xml:space="preserve"> H18 - G18</f>
         <v>2</v>
       </c>
-      <c r="I18" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q18)/(Sprints!$B$2:$B$20&gt;=Q18),Sprints!$C$2:$C$20)</f>
+      <c r="J18" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R18)/(Sprints!$B$2:$B$20&gt;=R18),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="J18" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R18)/(Sprints!$B$2:$B$20&gt;=R18),Sprints!$C$2:$C$20)</f>
+      <c r="K18" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S18)/(Sprints!$B$2:$B$20&gt;=S18),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="K18" s="8">
-        <f t="shared" ref="K18" ca="1" si="13">J18 - I18</f>
+      <c r="L18" s="8">
+        <f t="shared" ref="L18" ca="1" si="13">K18 - J18</f>
         <v>1</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>43622</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <v>43633</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>43658</v>
       </c>
-      <c r="P18" s="8">
+      <c r="Q18" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="R18" s="5">
         <v>43706</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <v>43718</v>
       </c>
-      <c r="S18" s="8">
+      <c r="T18" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="8" t="e">
-        <f ca="1">VLOOKUP(P19,SP!A$2:$C$9,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M19)/(Sprints!$B$2:$B$20&gt;=M19),Sprints!$C$2:$C$20)</f>
+      <c r="D19" s="13"/>
+      <c r="E19" s="8" t="e">
+        <f ca="1">VLOOKUP(Q19,SP!A$2:$C$9,3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N19)/(Sprints!$B$2:$B$20&gt;=N19),Sprints!$C$2:$C$20)</f>
         <v>11</v>
-      </c>
-      <c r="F19" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N19)/(Sprints!$B$2:$B$20&gt;=N19),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
       </c>
       <c r="G19" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O19)/(Sprints!$B$2:$B$20&gt;=O19),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
       <c r="H19" s="8" t="e">
-        <f t="shared" ref="H19" ca="1" si="14" xml:space="preserve"> G19 - F19</f>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P19)/(Sprints!$B$2:$B$20&gt;=P19),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
       <c r="I19" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q19)/(Sprints!$B$2:$B$20&gt;=Q19),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ref="I19" ca="1" si="14" xml:space="preserve"> H19 - G19</f>
         <v>#N/A</v>
       </c>
       <c r="J19" s="8" t="e">
@@ -4213,642 +4354,645 @@
         <v>#N/A</v>
       </c>
       <c r="K19" s="8" t="e">
-        <f t="shared" ref="K19" ca="1" si="15">J19 - I19</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S19)/(Sprints!$B$2:$B$20&gt;=S19),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="8" t="e">
+        <f t="shared" ref="L19" ca="1" si="15">K19 - J19</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M19" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>43622</v>
       </c>
-      <c r="P19" s="8">
+      <c r="Q19" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="S19" s="8">
+      <c r="T19" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="8">
-        <f ca="1">VLOOKUP(P20,SP!A$2:$C$9,3)</f>
+      <c r="E20" s="8">
+        <f ca="1">VLOOKUP(Q20,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E20" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M20)/(Sprints!$B$2:$B$20&gt;=M20),Sprints!$C$2:$C$20)</f>
-        <v>3</v>
       </c>
       <c r="F20" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N20)/(Sprints!$B$2:$B$20&gt;=N20),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G20" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O20)/(Sprints!$B$2:$B$20&gt;=O20),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="H20" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P20)/(Sprints!$B$2:$B$20&gt;=P20),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="8">
-        <f t="shared" ref="H20" ca="1" si="16" xml:space="preserve"> G20 - F20</f>
+      <c r="I20" s="8">
+        <f t="shared" ref="I20" ca="1" si="16" xml:space="preserve"> H20 - G20</f>
         <v>1</v>
-      </c>
-      <c r="I20" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q20)/(Sprints!$B$2:$B$20&gt;=Q20),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J20" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R20)/(Sprints!$B$2:$B$20&gt;=R20),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ref="K20" ca="1" si="17">J20 - I20</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S20)/(Sprints!$B$2:$B$20&gt;=S20),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" ref="L20" ca="1" si="17">K20 - J20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>43508</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="5">
         <v>43626</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>43648</v>
       </c>
-      <c r="P20" s="8">
+      <c r="Q20" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="R20" s="7">
         <v>43661</v>
       </c>
-      <c r="R20" s="7">
+      <c r="S20" s="7">
         <v>43663</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="8">
-        <f ca="1">VLOOKUP(P21,SP!A$2:$C$9,3)</f>
+      <c r="E21" s="8">
+        <f ca="1">VLOOKUP(Q21,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="E21" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M21)/(Sprints!$B$2:$B$20&gt;=M21),Sprints!$C$2:$C$20)</f>
-        <v>4</v>
       </c>
       <c r="F21" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N21)/(Sprints!$B$2:$B$20&gt;=N21),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G21" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O21)/(Sprints!$B$2:$B$20&gt;=O21),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="H21" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P21)/(Sprints!$B$2:$B$20&gt;=P21),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="8">
-        <f t="shared" ref="H21" ca="1" si="18" xml:space="preserve"> G21 - F21</f>
+      <c r="I21" s="8">
+        <f t="shared" ref="I21" ca="1" si="18" xml:space="preserve"> H21 - G21</f>
         <v>2</v>
-      </c>
-      <c r="I21" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q21)/(Sprints!$B$2:$B$20&gt;=Q21),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="J21" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R21)/(Sprints!$B$2:$B$20&gt;=R21),Sprints!$C$2:$C$20)</f>
         <v>14</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ref="K21" ca="1" si="19">J21 - I21</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S21)/(Sprints!$B$2:$B$20&gt;=S21),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" ref="L21" ca="1" si="19">K21 - J21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>43516</v>
       </c>
-      <c r="N21" s="5">
+      <c r="O21" s="5">
         <v>43627</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <v>43658</v>
       </c>
-      <c r="P21" s="8">
+      <c r="Q21" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="R21" s="7">
         <v>43661</v>
       </c>
-      <c r="R21" s="7">
+      <c r="S21" s="7">
         <v>43665</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="8">
-        <f ca="1">VLOOKUP(P22,SP!A$2:$C$9,3)</f>
+      <c r="E22" s="8">
+        <f ca="1">VLOOKUP(Q22,SP!A$2:$C$9,3)</f>
         <v>55</v>
-      </c>
-      <c r="E22" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M22)/(Sprints!$B$2:$B$20&gt;=M22),Sprints!$C$2:$C$20)</f>
-        <v>4</v>
       </c>
       <c r="F22" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N22)/(Sprints!$B$2:$B$20&gt;=N22),Sprints!$C$2:$C$20)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G22" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O22)/(Sprints!$B$2:$B$20&gt;=O22),Sprints!$C$2:$C$20)</f>
+        <v>12</v>
+      </c>
+      <c r="H22" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P22)/(Sprints!$B$2:$B$20&gt;=P22),Sprints!$C$2:$C$20)</f>
         <v>16</v>
       </c>
-      <c r="H22" s="8">
-        <f t="shared" ref="H22" ca="1" si="20" xml:space="preserve"> G22 - F22</f>
+      <c r="I22" s="8">
+        <f t="shared" ref="I22" ca="1" si="20" xml:space="preserve"> H22 - G22</f>
         <v>4</v>
-      </c>
-      <c r="I22" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q22)/(Sprints!$B$2:$B$20&gt;=Q22),Sprints!$C$2:$C$20)</f>
-        <v>17</v>
       </c>
       <c r="J22" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R22)/(Sprints!$B$2:$B$20&gt;=R22),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ref="K22" ca="1" si="21">J22 - I22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S22)/(Sprints!$B$2:$B$20&gt;=S22),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" ref="L22" ca="1" si="21">K22 - J22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>43516</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <v>43635</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <v>43693</v>
       </c>
-      <c r="P22" s="8">
+      <c r="Q22" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="R22" s="7">
         <v>43699</v>
       </c>
-      <c r="R22" s="7">
+      <c r="S22" s="7">
         <v>43704</v>
       </c>
-      <c r="S22" s="8">
+      <c r="T22" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="8">
-        <f ca="1">VLOOKUP(P23,SP!A$2:$C$9,3)</f>
+      <c r="E23" s="8">
+        <f ca="1">VLOOKUP(Q23,SP!A$2:$C$9,3)</f>
         <v>13</v>
-      </c>
-      <c r="E23" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M23)/(Sprints!$B$2:$B$20&gt;=M23),Sprints!$C$2:$C$20)</f>
-        <v>10</v>
       </c>
       <c r="F23" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N23)/(Sprints!$B$2:$B$20&gt;=N23),Sprints!$C$2:$C$20)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G23" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O23)/(Sprints!$B$2:$B$20&gt;=O23),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="H23" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P23)/(Sprints!$B$2:$B$20&gt;=P23),Sprints!$C$2:$C$20)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="8">
-        <f t="shared" ref="H23" ca="1" si="22" xml:space="preserve"> G23 - F23</f>
+      <c r="I23" s="8">
+        <f t="shared" ref="I23" ca="1" si="22" xml:space="preserve"> H23 - G23</f>
         <v>1</v>
       </c>
-      <c r="I23" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q23)/(Sprints!$B$2:$B$20&gt;=Q23),Sprints!$C$2:$C$20)</f>
+      <c r="J23" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R23)/(Sprints!$B$2:$B$20&gt;=R23),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="J23" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R23)/(Sprints!$B$2:$B$20&gt;=R23),Sprints!$C$2:$C$20)</f>
+      <c r="K23" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S23)/(Sprints!$B$2:$B$20&gt;=S23),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="K23" s="8">
-        <f t="shared" ref="K23" ca="1" si="23">J23 - I23</f>
+      <c r="L23" s="8">
+        <f t="shared" ref="L23" ca="1" si="23">K23 - J23</f>
         <v>1</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>43638</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
         <v>43669</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <v>43682</v>
       </c>
-      <c r="P23" s="8">
+      <c r="Q23" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="R23" s="5">
         <v>43706</v>
       </c>
-      <c r="R23" s="5">
+      <c r="S23" s="5">
         <v>43717</v>
       </c>
-      <c r="S23" s="8">
+      <c r="T23" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>3</v>
       </c>
-      <c r="D24" s="8">
-        <f ca="1">VLOOKUP(P24,SP!A$2:$C$9,3)</f>
+      <c r="E24" s="8">
+        <f ca="1">VLOOKUP(Q24,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E24" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M24)/(Sprints!$B$2:$B$20&gt;=M24),Sprints!$C$2:$C$20)</f>
-        <v>10</v>
       </c>
       <c r="F24" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N24)/(Sprints!$B$2:$B$20&gt;=N24),Sprints!$C$2:$C$20)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G24" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O24)/(Sprints!$B$2:$B$20&gt;=O24),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="H24" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P24)/(Sprints!$B$2:$B$20&gt;=P24),Sprints!$C$2:$C$20)</f>
         <v>16</v>
       </c>
-      <c r="H24" s="8">
-        <f t="shared" ref="H24" ca="1" si="24" xml:space="preserve"> G24 - F24</f>
+      <c r="I24" s="8">
+        <f t="shared" ref="I24" ca="1" si="24" xml:space="preserve"> H24 - G24</f>
         <v>1</v>
       </c>
-      <c r="I24" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q24)/(Sprints!$B$2:$B$20&gt;=Q24),Sprints!$C$2:$C$20)</f>
+      <c r="J24" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R24)/(Sprints!$B$2:$B$20&gt;=R24),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="J24" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R24)/(Sprints!$B$2:$B$20&gt;=R24),Sprints!$C$2:$C$20)</f>
+      <c r="K24" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S24)/(Sprints!$B$2:$B$20&gt;=S24),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="K24" s="8">
-        <f t="shared" ref="K24" ca="1" si="25">J24 - I24</f>
+      <c r="L24" s="8">
+        <f t="shared" ref="L24" ca="1" si="25">K24 - J24</f>
         <v>1</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <v>43638</v>
       </c>
-      <c r="N24" s="5">
+      <c r="O24" s="5">
         <v>43677</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <v>43693</v>
       </c>
-      <c r="P24" s="8">
+      <c r="Q24" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="R24" s="5">
         <v>43706</v>
       </c>
-      <c r="R24" s="5">
+      <c r="S24" s="5">
         <v>43717</v>
       </c>
-      <c r="S24" s="8">
+      <c r="T24" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="11">
+      <c r="D25" s="11">
         <v>8</v>
       </c>
-      <c r="D25" s="8">
-        <f ca="1">VLOOKUP(P25,SP!A$2:$C$9,3)</f>
+      <c r="E25" s="8">
+        <f ca="1">VLOOKUP(Q25,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E25" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M25)/(Sprints!$B$2:$B$20&gt;=M25),Sprints!$C$2:$C$20)</f>
-        <v>10</v>
       </c>
       <c r="F25" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N25)/(Sprints!$B$2:$B$20&gt;=N25),Sprints!$C$2:$C$20)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O25)/(Sprints!$B$2:$B$20&gt;=O25),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="H25" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P25)/(Sprints!$B$2:$B$20&gt;=P25),Sprints!$C$2:$C$20)</f>
         <v>15</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" ref="H25" ca="1" si="26" xml:space="preserve"> G25 - F25</f>
+      <c r="I25" s="8">
+        <f t="shared" ref="I25" ca="1" si="26" xml:space="preserve"> H25 - G25</f>
         <v>2</v>
-      </c>
-      <c r="I25" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q25)/(Sprints!$B$2:$B$20&gt;=Q25),Sprints!$C$2:$C$20)</f>
-        <v>15</v>
       </c>
       <c r="J25" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R25)/(Sprints!$B$2:$B$20&gt;=R25),Sprints!$C$2:$C$20)</f>
         <v>15</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" ref="K25" ca="1" si="27">J25 - I25</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S25)/(Sprints!$B$2:$B$20&gt;=S25),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" ref="L25" ca="1" si="27">K25 - J25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M25" s="5">
+      <c r="N25" s="5">
         <v>43638</v>
       </c>
-      <c r="N25" s="5">
+      <c r="O25" s="5">
         <v>43649</v>
       </c>
-      <c r="O25" s="5">
+      <c r="P25" s="5">
         <v>43669</v>
       </c>
-      <c r="P25" s="8">
+      <c r="Q25" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q25" s="5">
-        <v>43669</v>
-      </c>
       <c r="R25" s="5">
         <v>43669</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="5">
+        <v>43669</v>
+      </c>
+      <c r="T25" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="8">
-        <f ca="1">VLOOKUP(P26,SP!A$2:$C$9,3)</f>
+      <c r="E26" s="8">
+        <f ca="1">VLOOKUP(Q26,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E26" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M26)/(Sprints!$B$2:$B$20&gt;=M26),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="F26" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N26)/(Sprints!$B$2:$B$20&gt;=N26),Sprints!$C$2:$C$20)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O26)/(Sprints!$B$2:$B$20&gt;=O26),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="H26" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P26)/(Sprints!$B$2:$B$20&gt;=P26),Sprints!$C$2:$C$20)</f>
         <v>16</v>
       </c>
-      <c r="H26" s="8">
-        <f t="shared" ref="H26" ca="1" si="28" xml:space="preserve"> G26 - F26</f>
+      <c r="I26" s="8">
+        <f t="shared" ref="I26" ca="1" si="28" xml:space="preserve"> H26 - G26</f>
         <v>1</v>
       </c>
-      <c r="I26" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q26)/(Sprints!$B$2:$B$20&gt;=Q26),Sprints!$C$2:$C$20)</f>
+      <c r="J26" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R26)/(Sprints!$B$2:$B$20&gt;=R26),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="J26" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R26)/(Sprints!$B$2:$B$20&gt;=R26),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
-      </c>
       <c r="K26" s="8" t="e">
-        <f t="shared" ref="K26" ca="1" si="29">J26 - I26</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L26" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S26)/(Sprints!$B$2:$B$20&gt;=S26),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="8" t="e">
+        <f t="shared" ref="L26" ca="1" si="29">K26 - J26</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <v>43656</v>
       </c>
-      <c r="N26" s="5">
+      <c r="O26" s="5">
         <v>43669</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="5">
         <v>43693</v>
       </c>
-      <c r="P26" s="8">
+      <c r="Q26" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="R26" s="5">
         <v>43706</v>
       </c>
-      <c r="S26" s="8">
+      <c r="T26" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="8">
-        <f ca="1">VLOOKUP(P27,SP!A$2:$C$9,3)</f>
+      <c r="E27" s="8">
+        <f ca="1">VLOOKUP(Q27,SP!A$2:$C$9,3)</f>
         <v>13</v>
-      </c>
-      <c r="E27" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M27)/(Sprints!$B$2:$B$20&gt;=M27),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="F27" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N27)/(Sprints!$B$2:$B$20&gt;=N27),Sprints!$C$2:$C$20)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O27)/(Sprints!$B$2:$B$20&gt;=O27),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="H27" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P27)/(Sprints!$B$2:$B$20&gt;=P27),Sprints!$C$2:$C$20)</f>
         <v>16</v>
       </c>
-      <c r="H27" s="8">
-        <f t="shared" ref="H27" ca="1" si="30" xml:space="preserve"> G27 - F27</f>
+      <c r="I27" s="8">
+        <f t="shared" ref="I27" ca="1" si="30" xml:space="preserve"> H27 - G27</f>
         <v>1</v>
-      </c>
-      <c r="I27" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q27)/(Sprints!$B$2:$B$20&gt;=Q27),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
       </c>
       <c r="J27" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R27)/(Sprints!$B$2:$B$20&gt;=R27),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
       <c r="K27" s="8" t="e">
-        <f t="shared" ref="K27" ca="1" si="31">J27 - I27</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S27)/(Sprints!$B$2:$B$20&gt;=S27),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="8" t="e">
+        <f t="shared" ref="L27" ca="1" si="31">K27 - J27</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <v>43658</v>
       </c>
-      <c r="N27" s="5">
+      <c r="O27" s="5">
         <v>43678</v>
       </c>
-      <c r="O27" s="5">
+      <c r="P27" s="5">
         <v>43693</v>
       </c>
-      <c r="P27" s="8">
+      <c r="Q27" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-      <c r="S27" s="8">
+      <c r="T27" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="8">
-        <f ca="1">VLOOKUP(P28,SP!A$2:$C$9,3)</f>
+      <c r="E28" s="8">
+        <f ca="1">VLOOKUP(Q28,SP!A$2:$C$9,3)</f>
         <v>13</v>
-      </c>
-      <c r="E28" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M28)/(Sprints!$B$2:$B$20&gt;=M28),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="F28" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N28)/(Sprints!$B$2:$B$20&gt;=N28),Sprints!$C$2:$C$20)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O28)/(Sprints!$B$2:$B$20&gt;=O28),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="H28" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P28)/(Sprints!$B$2:$B$20&gt;=P28),Sprints!$C$2:$C$20)</f>
         <v>16</v>
       </c>
-      <c r="H28" s="8">
-        <f t="shared" ref="H28" ca="1" si="32" xml:space="preserve"> G28 - F28</f>
+      <c r="I28" s="8">
+        <f t="shared" ref="I28" ca="1" si="32" xml:space="preserve"> H28 - G28</f>
         <v>1</v>
-      </c>
-      <c r="I28" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q28)/(Sprints!$B$2:$B$20&gt;=Q28),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
       </c>
       <c r="J28" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R28)/(Sprints!$B$2:$B$20&gt;=R28),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
       <c r="K28" s="8" t="e">
-        <f t="shared" ref="K28" ca="1" si="33">J28 - I28</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L28" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S28)/(Sprints!$B$2:$B$20&gt;=S28),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="8" t="e">
+        <f t="shared" ref="L28" ca="1" si="33">K28 - J28</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
         <v>43658</v>
       </c>
-      <c r="N28" s="5">
+      <c r="O28" s="5">
         <v>43678</v>
       </c>
-      <c r="O28" s="5">
+      <c r="P28" s="5">
         <v>43693</v>
       </c>
-      <c r="P28" s="8">
+      <c r="Q28" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q28" s="5"/>
-      <c r="S28" s="8">
+      <c r="R28" s="5"/>
+      <c r="T28" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="11">
+      <c r="D29" s="11">
         <v>3</v>
       </c>
-      <c r="D29" s="8">
-        <f ca="1">VLOOKUP(P29,SP!A$2:$C$9,3)</f>
+      <c r="E29" s="8">
+        <f ca="1">VLOOKUP(Q29,SP!A$2:$C$9,3)</f>
         <v>8</v>
-      </c>
-      <c r="E29" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M29)/(Sprints!$B$2:$B$20&gt;=M29),Sprints!$C$2:$C$20)</f>
-        <v>14</v>
       </c>
       <c r="F29" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N29)/(Sprints!$B$2:$B$20&gt;=N29),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="G29" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O29)/(Sprints!$B$2:$B$20&gt;=O29),Sprints!$C$2:$C$20)</f>
         <v>15</v>
       </c>
-      <c r="G29" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O29)/(Sprints!$B$2:$B$20&gt;=O29),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
-      </c>
       <c r="H29" s="8" t="e">
-        <f t="shared" ref="H29" ca="1" si="34" xml:space="preserve"> G29 - F29</f>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P29)/(Sprints!$B$2:$B$20&gt;=P29),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
       <c r="I29" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q29)/(Sprints!$B$2:$B$20&gt;=Q29),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ref="I29" ca="1" si="34" xml:space="preserve"> H29 - G29</f>
         <v>#N/A</v>
       </c>
       <c r="J29" s="8" t="e">
@@ -4856,41 +5000,41 @@
         <v>#N/A</v>
       </c>
       <c r="K29" s="8" t="e">
-        <f t="shared" ref="K29" ca="1" si="35">J29 - I29</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S29)/(Sprints!$B$2:$B$20&gt;=S29),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="8" t="e">
+        <f t="shared" ref="L29" ca="1" si="35">K29 - J29</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N29" s="5">
         <v>43658</v>
       </c>
-      <c r="N29" s="5">
+      <c r="O29" s="5">
         <v>43710</v>
       </c>
-      <c r="P29" s="8">
+      <c r="Q29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="S29" s="8">
+        <v>9</v>
+      </c>
+      <c r="T29" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="8">
-        <f ca="1">VLOOKUP(P30,SP!A$2:$C$9,3)</f>
+      <c r="E30" s="8">
+        <f ca="1">VLOOKUP(Q30,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E30" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M30)/(Sprints!$B$2:$B$20&gt;=M30),Sprints!$C$2:$C$20)</f>
-        <v>15</v>
       </c>
       <c r="F30" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N30)/(Sprints!$B$2:$B$20&gt;=N30),Sprints!$C$2:$C$20)</f>
@@ -4898,83 +5042,83 @@
       </c>
       <c r="G30" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O30)/(Sprints!$B$2:$B$20&gt;=O30),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="H30" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P30)/(Sprints!$B$2:$B$20&gt;=P30),Sprints!$C$2:$C$20)</f>
         <v>16</v>
       </c>
-      <c r="H30" s="8">
-        <f t="shared" ref="H30" ca="1" si="36" xml:space="preserve"> G30 - F30</f>
+      <c r="I30" s="8">
+        <f t="shared" ref="I30" ca="1" si="36" xml:space="preserve"> H30 - G30</f>
         <v>1</v>
       </c>
-      <c r="I30" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q30)/(Sprints!$B$2:$B$20&gt;=Q30),Sprints!$C$2:$C$20)</f>
+      <c r="J30" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R30)/(Sprints!$B$2:$B$20&gt;=R30),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="J30" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R30)/(Sprints!$B$2:$B$20&gt;=R30),Sprints!$C$2:$C$20)</f>
+      <c r="K30" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S30)/(Sprints!$B$2:$B$20&gt;=S30),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="K30" s="8">
-        <f t="shared" ref="K30" ca="1" si="37">J30 - I30</f>
+      <c r="L30" s="8">
+        <f t="shared" ref="L30" ca="1" si="37">K30 - J30</f>
         <v>1</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="M30" s="5">
-        <v>43671</v>
       </c>
       <c r="N30" s="5">
         <v>43671</v>
       </c>
       <c r="O30" s="5">
+        <v>43671</v>
+      </c>
+      <c r="P30" s="5">
         <v>43692</v>
       </c>
-      <c r="P30" s="8">
+      <c r="Q30" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="R30" s="5">
         <v>43699</v>
       </c>
-      <c r="R30" s="5">
+      <c r="S30" s="5">
         <v>43711</v>
       </c>
-      <c r="S30" s="8">
+      <c r="T30" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="11">
+      <c r="D31" s="11">
         <v>5</v>
       </c>
-      <c r="D31" s="8">
-        <f ca="1">VLOOKUP(P31,SP!A$2:$C$9,3)</f>
+      <c r="E31" s="8">
+        <f ca="1">VLOOKUP(Q31,SP!A$2:$C$9,3)</f>
         <v>21</v>
-      </c>
-      <c r="E31" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M31)/(Sprints!$B$2:$B$20&gt;=M31),Sprints!$C$2:$C$20)</f>
-        <v>15</v>
       </c>
       <c r="F31" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N31)/(Sprints!$B$2:$B$20&gt;=N31),Sprints!$C$2:$C$20)</f>
+        <v>15</v>
+      </c>
+      <c r="G31" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O31)/(Sprints!$B$2:$B$20&gt;=O31),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="G31" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O31)/(Sprints!$B$2:$B$20&gt;=O31),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
-      </c>
       <c r="H31" s="8" t="e">
-        <f t="shared" ref="H31" ca="1" si="38" xml:space="preserve"> G31 - F31</f>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P31)/(Sprints!$B$2:$B$20&gt;=P31),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
       <c r="I31" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q31)/(Sprints!$B$2:$B$20&gt;=Q31),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ref="I31" ca="1" si="38" xml:space="preserve"> H31 - G31</f>
         <v>#N/A</v>
       </c>
       <c r="J31" s="8" t="e">
@@ -4982,314 +5126,314 @@
         <v>#N/A</v>
       </c>
       <c r="K31" s="8" t="e">
-        <f t="shared" ref="K31" ca="1" si="39">J31 - I31</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L31" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S31)/(Sprints!$B$2:$B$20&gt;=S31),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L31" s="8" t="e">
+        <f t="shared" ref="L31" ca="1" si="39">K31 - J31</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N31" s="5">
         <v>43674</v>
       </c>
-      <c r="N31" s="5">
+      <c r="O31" s="5">
         <v>43697</v>
       </c>
-      <c r="P31" s="8">
+      <c r="Q31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="S31" s="8">
+        <v>22</v>
+      </c>
+      <c r="T31" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="11">
+      <c r="D32" s="11">
         <v>5</v>
       </c>
-      <c r="D32" s="8">
-        <f ca="1">VLOOKUP(P32,SP!A$2:$C$9,3)</f>
+      <c r="E32" s="8">
+        <f ca="1">VLOOKUP(Q32,SP!A$2:$C$9,3)</f>
         <v>8</v>
-      </c>
-      <c r="E32" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M32)/(Sprints!$B$2:$B$20&gt;=M32),Sprints!$C$2:$C$20)</f>
-        <v>11</v>
       </c>
       <c r="F32" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N32)/(Sprints!$B$2:$B$20&gt;=N32),Sprints!$C$2:$C$20)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G32" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O32)/(Sprints!$B$2:$B$20&gt;=O32),Sprints!$C$2:$C$20)</f>
         <v>16</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" ref="H32" ca="1" si="40" xml:space="preserve"> G32 - F32</f>
-        <v>0</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P32)/(Sprints!$B$2:$B$20&gt;=P32),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
       </c>
       <c r="I32" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q32)/(Sprints!$B$2:$B$20&gt;=Q32),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ref="I32" ca="1" si="40" xml:space="preserve"> H32 - G32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R32)/(Sprints!$B$2:$B$20&gt;=R32),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="J32" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R32)/(Sprints!$B$2:$B$20&gt;=R32),Sprints!$C$2:$C$20)</f>
+      <c r="K32" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S32)/(Sprints!$B$2:$B$20&gt;=S32),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="K32" s="8">
-        <f t="shared" ref="K32" ca="1" si="41">J32 - I32</f>
+      <c r="L32" s="8">
+        <f t="shared" ref="L32" ca="1" si="41">K32 - J32</f>
         <v>1</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="5">
+      <c r="N32" s="5">
         <v>43623</v>
       </c>
-      <c r="N32" s="5">
+      <c r="O32" s="5">
         <v>43686</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P32" s="5">
         <v>43693</v>
       </c>
-      <c r="P32" s="8">
+      <c r="Q32" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="R32" s="5">
         <v>43699</v>
       </c>
-      <c r="R32" s="5">
+      <c r="S32" s="5">
         <v>43711</v>
       </c>
-      <c r="S32" s="8">
+      <c r="T32" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="11">
+      <c r="D33" s="11">
         <v>3</v>
       </c>
-      <c r="D33" s="8">
-        <f ca="1">VLOOKUP(P33,SP!A$2:$C$9,3)</f>
+      <c r="E33" s="8">
+        <f ca="1">VLOOKUP(Q33,SP!A$2:$C$9,3)</f>
         <v>55</v>
-      </c>
-      <c r="E33" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M33)/(Sprints!$B$2:$B$20&gt;=M33),Sprints!$C$2:$C$20)</f>
-        <v>10</v>
       </c>
       <c r="F33" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N33)/(Sprints!$B$2:$B$20&gt;=N33),Sprints!$C$2:$C$20)</f>
+        <v>10</v>
+      </c>
+      <c r="G33" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O33)/(Sprints!$B$2:$B$20&gt;=O33),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="G33" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O33)/(Sprints!$B$2:$B$20&gt;=O33),Sprints!$C$2:$C$20)</f>
+      <c r="H33" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P33)/(Sprints!$B$2:$B$20&gt;=P33),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="H33" s="8">
-        <f t="shared" ref="H33" ca="1" si="42" xml:space="preserve"> G33 - F33</f>
+      <c r="I33" s="8">
+        <f t="shared" ref="I33" ca="1" si="42" xml:space="preserve"> H33 - G33</f>
         <v>5</v>
-      </c>
-      <c r="I33" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q33)/(Sprints!$B$2:$B$20&gt;=Q33),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
       </c>
       <c r="J33" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R33)/(Sprints!$B$2:$B$20&gt;=R33),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
       <c r="K33" s="8" t="e">
-        <f t="shared" ref="K33" ca="1" si="43">J33 - I33</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L33" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S33)/(Sprints!$B$2:$B$20&gt;=S33),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L33" s="8" t="e">
+        <f t="shared" ref="L33" ca="1" si="43">K33 - J33</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M33" s="5">
+      <c r="N33" s="5">
         <v>43638</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O33" s="5">
         <v>43642</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P33" s="5">
         <v>43711</v>
       </c>
-      <c r="P33" s="8">
+      <c r="Q33" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>69</v>
       </c>
-      <c r="S33" s="8">
+      <c r="T33" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="11">
+      <c r="D34" s="11">
         <v>5</v>
       </c>
-      <c r="D34" s="8">
-        <f ca="1">VLOOKUP(P34,SP!A$2:$C$9,3)</f>
+      <c r="E34" s="8">
+        <f ca="1">VLOOKUP(Q34,SP!A$2:$C$9,3)</f>
         <v>55</v>
-      </c>
-      <c r="E34" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M34)/(Sprints!$B$2:$B$20&gt;=M34),Sprints!$C$2:$C$20)</f>
-        <v>10</v>
       </c>
       <c r="F34" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N34)/(Sprints!$B$2:$B$20&gt;=N34),Sprints!$C$2:$C$20)</f>
+        <v>10</v>
+      </c>
+      <c r="G34" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O34)/(Sprints!$B$2:$B$20&gt;=O34),Sprints!$C$2:$C$20)</f>
         <v>13</v>
       </c>
-      <c r="G34" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O34)/(Sprints!$B$2:$B$20&gt;=O34),Sprints!$C$2:$C$20)</f>
+      <c r="H34" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P34)/(Sprints!$B$2:$B$20&gt;=P34),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="H34" s="8">
-        <f t="shared" ref="H34" ca="1" si="44" xml:space="preserve"> G34 - F34</f>
+      <c r="I34" s="8">
+        <f t="shared" ref="I34" ca="1" si="44" xml:space="preserve"> H34 - G34</f>
         <v>5</v>
-      </c>
-      <c r="I34" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q34)/(Sprints!$B$2:$B$20&gt;=Q34),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
       </c>
       <c r="J34" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R34)/(Sprints!$B$2:$B$20&gt;=R34),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
       <c r="K34" s="8" t="e">
-        <f t="shared" ref="K34" ca="1" si="45">J34 - I34</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L34" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S34)/(Sprints!$B$2:$B$20&gt;=S34),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L34" s="8" t="e">
+        <f t="shared" ref="L34" ca="1" si="45">K34 - J34</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M34" s="5">
+      <c r="N34" s="5">
         <v>43638</v>
       </c>
-      <c r="N34" s="5">
+      <c r="O34" s="5">
         <v>43648</v>
       </c>
-      <c r="O34" s="5">
+      <c r="P34" s="5">
         <v>43711</v>
       </c>
-      <c r="P34" s="8">
+      <c r="Q34" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
-      <c r="S34" s="8">
+      <c r="T34" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="8">
-        <f ca="1">VLOOKUP(P35,SP!A$2:$C$9,3)</f>
+      <c r="E35" s="8">
+        <f ca="1">VLOOKUP(Q35,SP!A$2:$C$9,3)</f>
         <v>8</v>
-      </c>
-      <c r="E35" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M35)/(Sprints!$B$2:$B$20&gt;=M35),Sprints!$C$2:$C$20)</f>
-        <v>16</v>
       </c>
       <c r="F35" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N35)/(Sprints!$B$2:$B$20&gt;=N35),Sprints!$C$2:$C$20)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O35)/(Sprints!$B$2:$B$20&gt;=O35),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" ref="H35" ca="1" si="46" xml:space="preserve"> G35 - F35</f>
-        <v>0</v>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P35)/(Sprints!$B$2:$B$20&gt;=P35),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
       </c>
       <c r="I35" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q35)/(Sprints!$B$2:$B$20&gt;=Q35),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ref="I35" ca="1" si="46" xml:space="preserve"> H35 - G35</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R35)/(Sprints!$B$2:$B$20&gt;=R35),Sprints!$C$2:$C$20)</f>
         <v>18</v>
       </c>
-      <c r="J35" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R35)/(Sprints!$B$2:$B$20&gt;=R35),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
-      </c>
       <c r="K35" s="8" t="e">
-        <f t="shared" ref="K35" ca="1" si="47">J35 - I35</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L35" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S35)/(Sprints!$B$2:$B$20&gt;=S35),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L35" s="8" t="e">
+        <f t="shared" ref="L35" ca="1" si="47">K35 - J35</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M35" s="5">
+      <c r="N35" s="5">
         <v>43682</v>
       </c>
-      <c r="N35" s="5">
+      <c r="O35" s="5">
         <v>43696</v>
       </c>
-      <c r="O35" s="5">
+      <c r="P35" s="5">
         <v>43705</v>
       </c>
-      <c r="P35" s="8">
+      <c r="Q35" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="R35" s="5">
         <v>43718</v>
       </c>
-      <c r="S35" s="8">
+      <c r="T35" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="8">
-        <f ca="1">VLOOKUP(P36,SP!A$2:$C$9,3)</f>
+      <c r="E36" s="8">
+        <f ca="1">VLOOKUP(Q36,SP!A$2:$C$9,3)</f>
         <v>34</v>
-      </c>
-      <c r="E36" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M36)/(Sprints!$B$2:$B$20&gt;=M36),Sprints!$C$2:$C$20)</f>
-        <v>16</v>
       </c>
       <c r="F36" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N36)/(Sprints!$B$2:$B$20&gt;=N36),Sprints!$C$2:$C$20)</f>
         <v>16</v>
       </c>
-      <c r="G36" s="8" t="e">
+      <c r="G36" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O36)/(Sprints!$B$2:$B$20&gt;=O36),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="H36" s="8" t="e">
-        <f t="shared" ref="H36" ca="1" si="48" xml:space="preserve"> G36 - F36</f>
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P36)/(Sprints!$B$2:$B$20&gt;=P36),Sprints!$C$2:$C$20)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q36)/(Sprints!$B$2:$B$20&gt;=Q36),Sprints!$C$2:$C$20)</f>
+        <f t="shared" ref="I36" ca="1" si="48" xml:space="preserve"> H36 - G36</f>
         <v>#N/A</v>
       </c>
       <c r="J36" s="8" t="e">
@@ -5297,41 +5441,41 @@
         <v>#N/A</v>
       </c>
       <c r="K36" s="8" t="e">
-        <f t="shared" ref="K36" ca="1" si="49">J36 - I36</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L36" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S36)/(Sprints!$B$2:$B$20&gt;=S36),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="8" t="e">
+        <f t="shared" ref="L36" ca="1" si="49">K36 - J36</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="M36" s="5">
-        <v>43682</v>
       </c>
       <c r="N36" s="5">
         <v>43682</v>
       </c>
-      <c r="P36" s="8">
+      <c r="O36" s="5">
+        <v>43682</v>
+      </c>
+      <c r="Q36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="S36" s="8">
+        <v>37</v>
+      </c>
+      <c r="T36" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="8">
-        <f ca="1">VLOOKUP(P37,SP!A$2:$C$9,3)</f>
+      <c r="E37" s="8">
+        <f ca="1">VLOOKUP(Q37,SP!A$2:$C$9,3)</f>
         <v>13</v>
-      </c>
-      <c r="E37" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M37)/(Sprints!$B$2:$B$20&gt;=M37),Sprints!$C$2:$C$20)</f>
-        <v>16</v>
       </c>
       <c r="F37" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N37)/(Sprints!$B$2:$B$20&gt;=N37),Sprints!$C$2:$C$20)</f>
@@ -5339,65 +5483,65 @@
       </c>
       <c r="G37" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O37)/(Sprints!$B$2:$B$20&gt;=O37),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H37" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P37)/(Sprints!$B$2:$B$20&gt;=P37),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="H37" s="8">
-        <f t="shared" ref="H37" ca="1" si="50" xml:space="preserve"> G37 - F37</f>
+      <c r="I37" s="8">
+        <f t="shared" ref="I37" ca="1" si="50" xml:space="preserve"> H37 - G37</f>
         <v>1</v>
-      </c>
-      <c r="I37" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q37)/(Sprints!$B$2:$B$20&gt;=Q37),Sprints!$C$2:$C$20)</f>
-        <v>17</v>
       </c>
       <c r="J37" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R37)/(Sprints!$B$2:$B$20&gt;=R37),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" ref="K37" ca="1" si="51">J37 - I37</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S37)/(Sprints!$B$2:$B$20&gt;=S37),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" ref="L37" ca="1" si="51">K37 - J37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="M37" s="5">
-        <v>43682</v>
       </c>
       <c r="N37" s="5">
         <v>43682</v>
       </c>
       <c r="O37" s="5">
+        <v>43682</v>
+      </c>
+      <c r="P37" s="5">
         <v>43697</v>
       </c>
-      <c r="P37" s="8">
+      <c r="Q37" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q37" s="5">
-        <v>43706</v>
-      </c>
       <c r="R37" s="5">
         <v>43706</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S37" s="5">
+        <v>43706</v>
+      </c>
+      <c r="T37" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="8">
-        <f ca="1">VLOOKUP(P38,SP!A$2:$C$9,3)</f>
+      <c r="E38" s="8">
+        <f ca="1">VLOOKUP(Q38,SP!A$2:$C$9,3)</f>
         <v>13</v>
-      </c>
-      <c r="E38" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M38)/(Sprints!$B$2:$B$20&gt;=M38),Sprints!$C$2:$C$20)</f>
-        <v>16</v>
       </c>
       <c r="F38" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N38)/(Sprints!$B$2:$B$20&gt;=N38),Sprints!$C$2:$C$20)</f>
@@ -5405,65 +5549,65 @@
       </c>
       <c r="G38" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O38)/(Sprints!$B$2:$B$20&gt;=O38),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H38" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P38)/(Sprints!$B$2:$B$20&gt;=P38),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="H38" s="8">
-        <f t="shared" ref="H38" ca="1" si="52" xml:space="preserve"> G38 - F38</f>
+      <c r="I38" s="8">
+        <f t="shared" ref="I38" ca="1" si="52" xml:space="preserve"> H38 - G38</f>
         <v>1</v>
-      </c>
-      <c r="I38" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q38)/(Sprints!$B$2:$B$20&gt;=Q38),Sprints!$C$2:$C$20)</f>
-        <v>17</v>
       </c>
       <c r="J38" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R38)/(Sprints!$B$2:$B$20&gt;=R38),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" ref="K38" ca="1" si="53">J38 - I38</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S38)/(Sprints!$B$2:$B$20&gt;=S38),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" ref="L38" ca="1" si="53">K38 - J38</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="M38" s="5">
-        <v>43682</v>
       </c>
       <c r="N38" s="5">
         <v>43682</v>
       </c>
       <c r="O38" s="5">
+        <v>43682</v>
+      </c>
+      <c r="P38" s="5">
         <v>43697</v>
       </c>
-      <c r="P38" s="8">
+      <c r="Q38" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q38" s="5">
-        <v>43706</v>
-      </c>
       <c r="R38" s="5">
         <v>43706</v>
       </c>
-      <c r="S38" s="8">
+      <c r="S38" s="5">
+        <v>43706</v>
+      </c>
+      <c r="T38" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="8">
-        <f ca="1">VLOOKUP(P39,SP!A$2:$C$9,3)</f>
+      <c r="E39" s="8">
+        <f ca="1">VLOOKUP(Q39,SP!A$2:$C$9,3)</f>
         <v>13</v>
-      </c>
-      <c r="E39" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=M39)/(Sprints!$B$2:$B$20&gt;=M39),Sprints!$C$2:$C$20)</f>
-        <v>16</v>
       </c>
       <c r="F39" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N39)/(Sprints!$B$2:$B$20&gt;=N39),Sprints!$C$2:$C$20)</f>
@@ -5471,63 +5615,1332 @@
       </c>
       <c r="G39" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O39)/(Sprints!$B$2:$B$20&gt;=O39),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H39" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P39)/(Sprints!$B$2:$B$20&gt;=P39),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="H39" s="8">
-        <f t="shared" ref="H39" ca="1" si="54" xml:space="preserve"> G39 - F39</f>
+      <c r="I39" s="8">
+        <f t="shared" ref="I39" ca="1" si="54" xml:space="preserve"> H39 - G39</f>
         <v>1</v>
-      </c>
-      <c r="I39" s="8">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=Q39)/(Sprints!$B$2:$B$20&gt;=Q39),Sprints!$C$2:$C$20)</f>
-        <v>17</v>
       </c>
       <c r="J39" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R39)/(Sprints!$B$2:$B$20&gt;=R39),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" ref="K39" ca="1" si="55">J39 - I39</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="4" t="s">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S39)/(Sprints!$B$2:$B$20&gt;=S39),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" ref="L39" ca="1" si="55">K39 - J39</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="M39" s="5">
-        <v>43682</v>
       </c>
       <c r="N39" s="5">
         <v>43682</v>
       </c>
       <c r="O39" s="5">
+        <v>43682</v>
+      </c>
+      <c r="P39" s="5">
         <v>43697</v>
       </c>
-      <c r="P39" s="8">
-        <f t="shared" ref="P39" ca="1" si="56">IF(ISBLANK(O39), IF(ISBLANK(N39),0, TODAY()-N39), O39-N39)</f>
+      <c r="Q39" s="8">
+        <f t="shared" ref="Q39:Q60" ca="1" si="56">IF(ISBLANK(P39), IF(ISBLANK(O39),0, TODAY()-O39), P39-O39)</f>
         <v>15</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>43706</v>
       </c>
       <c r="R39" s="5">
         <v>43706</v>
       </c>
-      <c r="S39" s="8">
-        <f t="shared" ref="S39" ca="1" si="57">IF(ISBLANK(R39), IF(ISBLANK(Q39),0,TODAY()-Q39), R39-Q39)</f>
+      <c r="S39" s="5">
+        <v>43706</v>
+      </c>
+      <c r="T39" s="8">
+        <f t="shared" ref="T39:T60" ca="1" si="57">IF(ISBLANK(S39), IF(ISBLANK(R39),0,TODAY()-R39), S39-R39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="11">
+        <v>5</v>
+      </c>
+      <c r="E40" s="8">
+        <f ca="1">VLOOKUP(Q40,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="F40" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N40)/(Sprints!$B$2:$B$20&gt;=N40),Sprints!$C$2:$C$20)</f>
+        <v>14</v>
+      </c>
+      <c r="G40" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O40)/(Sprints!$B$2:$B$20&gt;=O40),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H40" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P40)/(Sprints!$B$2:$B$20&gt;=P40),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" ref="I40" ca="1" si="58" xml:space="preserve"> H40 - G40</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R40)/(Sprints!$B$2:$B$20&gt;=R40),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K40" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S40)/(Sprints!$B$2:$B$20&gt;=S40),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L40" s="8" t="e">
+        <f t="shared" ref="L40" ca="1" si="59">K40 - J40</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N40" s="5">
+        <v>43655</v>
+      </c>
+      <c r="O40" s="5">
+        <v>43696</v>
+      </c>
+      <c r="P40" s="5">
+        <v>43711</v>
+      </c>
+      <c r="Q40" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="R40" s="5">
+        <v>43719</v>
+      </c>
+      <c r="T40" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="8">
+        <f ca="1">VLOOKUP(Q41,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="F41" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N41)/(Sprints!$B$2:$B$20&gt;=N41),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="G41" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O41)/(Sprints!$B$2:$B$20&gt;=O41),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H41" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P41)/(Sprints!$B$2:$B$20&gt;=P41),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I41" s="8" t="e">
+        <f t="shared" ref="I41" ca="1" si="60" xml:space="preserve"> H41 - G41</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J41" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R41)/(Sprints!$B$2:$B$20&gt;=R41),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K41" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S41)/(Sprints!$B$2:$B$20&gt;=S41),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L41" s="8" t="e">
+        <f t="shared" ref="L41" ca="1" si="61">K41 - J41</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N41" s="5">
+        <v>43683</v>
+      </c>
+      <c r="O41" s="5">
+        <v>43706</v>
+      </c>
+      <c r="Q41" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>13</v>
+      </c>
+      <c r="T41" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="11">
+        <v>2</v>
+      </c>
+      <c r="E42" s="8">
+        <f ca="1">VLOOKUP(Q42,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="F42" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N42)/(Sprints!$B$2:$B$20&gt;=N42),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G42" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O42)/(Sprints!$B$2:$B$20&gt;=O42),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H42" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P42)/(Sprints!$B$2:$B$20&gt;=P42),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" ref="I42" ca="1" si="62" xml:space="preserve"> H42 - G42</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R42)/(Sprints!$B$2:$B$20&gt;=R42),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K42" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S42)/(Sprints!$B$2:$B$20&gt;=S42),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L42" s="8" t="e">
+        <f t="shared" ref="L42" ca="1" si="63">K42 - J42</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N42" s="5">
+        <v>43696</v>
+      </c>
+      <c r="O42" s="5">
+        <v>43696</v>
+      </c>
+      <c r="P42" s="5">
+        <v>43711</v>
+      </c>
+      <c r="Q42" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="R42" s="5">
+        <v>43718</v>
+      </c>
+      <c r="T42" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <f ca="1">VLOOKUP(Q43,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="F43" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N43)/(Sprints!$B$2:$B$20&gt;=N43),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G43" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O43)/(Sprints!$B$2:$B$20&gt;=O43),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H43" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P43)/(Sprints!$B$2:$B$20&gt;=P43),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" ref="I43" ca="1" si="64" xml:space="preserve"> H43 - G43</f>
+        <v>1</v>
+      </c>
+      <c r="J43" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R43)/(Sprints!$B$2:$B$20&gt;=R43),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K43" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S43)/(Sprints!$B$2:$B$20&gt;=S43),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L43" s="8" t="e">
+        <f t="shared" ref="L43" ca="1" si="65">K43 - J43</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N43" s="5">
+        <v>43696</v>
+      </c>
+      <c r="O43" s="5">
+        <v>43699</v>
+      </c>
+      <c r="P43" s="5">
+        <v>43711</v>
+      </c>
+      <c r="Q43" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>12</v>
+      </c>
+      <c r="R43" s="5">
+        <v>43718</v>
+      </c>
+      <c r="T43" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="8">
+        <f ca="1">VLOOKUP(Q44,SP!A$2:$C$9,3)</f>
+        <v>8</v>
+      </c>
+      <c r="F44" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N44)/(Sprints!$B$2:$B$20&gt;=N44),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G44" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O44)/(Sprints!$B$2:$B$20&gt;=O44),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H44" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P44)/(Sprints!$B$2:$B$20&gt;=P44),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" ref="I44" ca="1" si="66" xml:space="preserve"> H44 - G44</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R44)/(Sprints!$B$2:$B$20&gt;=R44),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K44" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S44)/(Sprints!$B$2:$B$20&gt;=S44),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L44" s="8" t="e">
+        <f t="shared" ref="L44" ca="1" si="67">K44 - J44</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N44" s="5">
+        <v>43696</v>
+      </c>
+      <c r="O44" s="5">
+        <v>43697</v>
+      </c>
+      <c r="P44" s="5">
+        <v>43704</v>
+      </c>
+      <c r="Q44" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>7</v>
+      </c>
+      <c r="R44" s="5">
+        <v>43719</v>
+      </c>
+      <c r="T44" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="8">
+        <f ca="1">VLOOKUP(Q45,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="F45" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N45)/(Sprints!$B$2:$B$20&gt;=N45),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G45" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O45)/(Sprints!$B$2:$B$20&gt;=O45),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H45" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P45)/(Sprints!$B$2:$B$20&gt;=P45),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I45" s="8" t="e">
+        <f t="shared" ref="I45" ca="1" si="68" xml:space="preserve"> H45 - G45</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J45" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R45)/(Sprints!$B$2:$B$20&gt;=R45),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K45" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S45)/(Sprints!$B$2:$B$20&gt;=S45),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L45" s="8" t="e">
+        <f t="shared" ref="L45" ca="1" si="69">K45 - J45</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N45" s="5">
+        <v>43696</v>
+      </c>
+      <c r="O45" s="5">
+        <v>43699</v>
+      </c>
+      <c r="Q45" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>20</v>
+      </c>
+      <c r="T45" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="11">
+        <v>8</v>
+      </c>
+      <c r="E46" s="8">
+        <f ca="1">VLOOKUP(Q46,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="F46" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N46)/(Sprints!$B$2:$B$20&gt;=N46),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G46" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O46)/(Sprints!$B$2:$B$20&gt;=O46),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H46" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P46)/(Sprints!$B$2:$B$20&gt;=P46),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I46" s="8" t="e">
+        <f t="shared" ref="I46" ca="1" si="70" xml:space="preserve"> H46 - G46</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J46" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R46)/(Sprints!$B$2:$B$20&gt;=R46),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K46" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S46)/(Sprints!$B$2:$B$20&gt;=S46),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L46" s="8" t="e">
+        <f t="shared" ref="L46" ca="1" si="71">K46 - J46</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N46" s="5">
+        <v>43696</v>
+      </c>
+      <c r="O46" s="5">
+        <v>43697</v>
+      </c>
+      <c r="Q46" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>22</v>
+      </c>
+      <c r="T46" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="11">
+        <v>5</v>
+      </c>
+      <c r="E47" s="8">
+        <f ca="1">VLOOKUP(Q47,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="F47" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N47)/(Sprints!$B$2:$B$20&gt;=N47),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G47" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O47)/(Sprints!$B$2:$B$20&gt;=O47),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H47" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P47)/(Sprints!$B$2:$B$20&gt;=P47),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I47" s="8" t="e">
+        <f t="shared" ref="I47" ca="1" si="72" xml:space="preserve"> H47 - G47</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J47" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R47)/(Sprints!$B$2:$B$20&gt;=R47),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K47" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S47)/(Sprints!$B$2:$B$20&gt;=S47),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L47" s="8" t="e">
+        <f t="shared" ref="L47" ca="1" si="73">K47 - J47</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N47" s="5">
+        <v>43697</v>
+      </c>
+      <c r="O47" s="5">
+        <v>43697</v>
+      </c>
+      <c r="Q47" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>22</v>
+      </c>
+      <c r="T47" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="8" t="e">
+        <f ca="1">VLOOKUP(Q48,SP!A$2:$C$9,3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F48" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N48)/(Sprints!$B$2:$B$20&gt;=N48),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G48" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O48)/(Sprints!$B$2:$B$20&gt;=O48),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H48" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P48)/(Sprints!$B$2:$B$20&gt;=P48),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I48" s="8" t="e">
+        <f t="shared" ref="I48" ca="1" si="74" xml:space="preserve"> H48 - G48</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J48" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R48)/(Sprints!$B$2:$B$20&gt;=R48),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K48" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S48)/(Sprints!$B$2:$B$20&gt;=S48),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L48" s="8" t="e">
+        <f t="shared" ref="L48" ca="1" si="75">K48 - J48</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N48" s="5">
+        <v>43697</v>
+      </c>
+      <c r="Q48" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="11">
+        <v>3</v>
+      </c>
+      <c r="E49" s="8">
+        <f ca="1">VLOOKUP(Q49,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="F49" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N49)/(Sprints!$B$2:$B$20&gt;=N49),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G49" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O49)/(Sprints!$B$2:$B$20&gt;=O49),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H49" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P49)/(Sprints!$B$2:$B$20&gt;=P49),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I49" s="8" t="e">
+        <f t="shared" ref="I49" ca="1" si="76" xml:space="preserve"> H49 - G49</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J49" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R49)/(Sprints!$B$2:$B$20&gt;=R49),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K49" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S49)/(Sprints!$B$2:$B$20&gt;=S49),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L49" s="8" t="e">
+        <f t="shared" ref="L49" ca="1" si="77">K49 - J49</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N49" s="5">
+        <v>43698</v>
+      </c>
+      <c r="O49" s="5">
+        <v>43698</v>
+      </c>
+      <c r="Q49" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>21</v>
+      </c>
+      <c r="T49" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="8">
+        <f ca="1">VLOOKUP(Q50,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="F50" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N50)/(Sprints!$B$2:$B$20&gt;=N50),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G50" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O50)/(Sprints!$B$2:$B$20&gt;=O50),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H50" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P50)/(Sprints!$B$2:$B$20&gt;=P50),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I50" s="8" t="e">
+        <f t="shared" ref="I50" ca="1" si="78" xml:space="preserve"> H50 - G50</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J50" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R50)/(Sprints!$B$2:$B$20&gt;=R50),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K50" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S50)/(Sprints!$B$2:$B$20&gt;=S50),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L50" s="8" t="e">
+        <f t="shared" ref="L50" ca="1" si="79">K50 - J50</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N50" s="5">
+        <v>43699</v>
+      </c>
+      <c r="O50" s="5">
+        <v>43700</v>
+      </c>
+      <c r="Q50" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>19</v>
+      </c>
+      <c r="T50" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="11">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8">
+        <f ca="1">VLOOKUP(Q51,SP!A$2:$C$9,3)</f>
+        <v>21</v>
+      </c>
+      <c r="F51" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N51)/(Sprints!$B$2:$B$20&gt;=N51),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G51" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O51)/(Sprints!$B$2:$B$20&gt;=O51),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H51" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P51)/(Sprints!$B$2:$B$20&gt;=P51),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I51" s="8" t="e">
+        <f t="shared" ref="I51" ca="1" si="80" xml:space="preserve"> H51 - G51</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J51" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R51)/(Sprints!$B$2:$B$20&gt;=R51),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K51" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S51)/(Sprints!$B$2:$B$20&gt;=S51),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L51" s="8" t="e">
+        <f t="shared" ref="L51" ca="1" si="81">K51 - J51</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N51" s="5">
+        <v>43700</v>
+      </c>
+      <c r="O51" s="5">
+        <v>43700</v>
+      </c>
+      <c r="Q51" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>19</v>
+      </c>
+      <c r="T51" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="11">
+        <v>5</v>
+      </c>
+      <c r="E52" s="8">
+        <f ca="1">VLOOKUP(Q52,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="F52" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N52)/(Sprints!$B$2:$B$20&gt;=N52),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G52" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O52)/(Sprints!$B$2:$B$20&gt;=O52),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H52" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P52)/(Sprints!$B$2:$B$20&gt;=P52),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I52" s="8" t="e">
+        <f t="shared" ref="I52" ca="1" si="82" xml:space="preserve"> H52 - G52</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J52" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R52)/(Sprints!$B$2:$B$20&gt;=R52),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K52" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S52)/(Sprints!$B$2:$B$20&gt;=S52),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L52" s="8" t="e">
+        <f t="shared" ref="L52" ca="1" si="83">K52 - J52</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N52" s="5">
+        <v>43703</v>
+      </c>
+      <c r="O52" s="5">
+        <v>43704</v>
+      </c>
+      <c r="Q52" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="T52" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="11">
+        <v>2</v>
+      </c>
+      <c r="E53" s="8">
+        <f ca="1">VLOOKUP(Q53,SP!A$2:$C$9,3)</f>
+        <v>5</v>
+      </c>
+      <c r="F53" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N53)/(Sprints!$B$2:$B$20&gt;=N53),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="G53" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O53)/(Sprints!$B$2:$B$20&gt;=O53),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="H53" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P53)/(Sprints!$B$2:$B$20&gt;=P53),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I53" s="8" t="e">
+        <f t="shared" ref="I53" ca="1" si="84" xml:space="preserve"> H53 - G53</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J53" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R53)/(Sprints!$B$2:$B$20&gt;=R53),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K53" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S53)/(Sprints!$B$2:$B$20&gt;=S53),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L53" s="8" t="e">
+        <f t="shared" ref="L53" ca="1" si="85">K53 - J53</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N53" s="5">
+        <v>43711</v>
+      </c>
+      <c r="O53" s="5">
+        <v>43714</v>
+      </c>
+      <c r="Q53" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="T53" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" s="8">
+        <f ca="1">VLOOKUP(Q54,SP!A$2:$C$9,3)</f>
+        <v>8</v>
+      </c>
+      <c r="F54" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N54)/(Sprints!$B$2:$B$20&gt;=N54),Sprints!$C$2:$C$20)</f>
+        <v>13</v>
+      </c>
+      <c r="G54" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O54)/(Sprints!$B$2:$B$20&gt;=O54),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="H54" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P54)/(Sprints!$B$2:$B$20&gt;=P54),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I54" s="8" t="e">
+        <f t="shared" ref="I54" ca="1" si="86" xml:space="preserve"> H54 - G54</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J54" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R54)/(Sprints!$B$2:$B$20&gt;=R54),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K54" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S54)/(Sprints!$B$2:$B$20&gt;=S54),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L54" s="8" t="e">
+        <f t="shared" ref="L54" ca="1" si="87">K54 - J54</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M54" t="s">
+        <v>86</v>
+      </c>
+      <c r="N54" s="5">
+        <v>43644</v>
+      </c>
+      <c r="O54" s="5">
+        <v>43713</v>
+      </c>
+      <c r="Q54" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="T54" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" s="8">
+        <f ca="1">VLOOKUP(Q55,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="F55" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N55)/(Sprints!$B$2:$B$20&gt;=N55),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="G55" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O55)/(Sprints!$B$2:$B$20&gt;=O55),Sprints!$C$2:$C$20)</f>
+        <v>16</v>
+      </c>
+      <c r="H55" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P55)/(Sprints!$B$2:$B$20&gt;=P55),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="I55" s="8">
+        <f t="shared" ref="I55" ca="1" si="88" xml:space="preserve"> H55 - G55</f>
+        <v>1</v>
+      </c>
+      <c r="J55" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R55)/(Sprints!$B$2:$B$20&gt;=R55),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="K55" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S55)/(Sprints!$B$2:$B$20&gt;=S55),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="L55" s="8">
+        <f t="shared" ref="L55" si="89">K55 - J55</f>
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>120</v>
+      </c>
+      <c r="N55" s="5">
+        <v>43690</v>
+      </c>
+      <c r="O55" s="5">
+        <v>43692</v>
+      </c>
+      <c r="P55" s="5">
+        <v>43705</v>
+      </c>
+      <c r="Q55" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>13</v>
+      </c>
+      <c r="R55" s="5">
+        <v>43718</v>
+      </c>
+      <c r="S55" s="5">
+        <v>43719</v>
+      </c>
+      <c r="T55" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56" s="8" t="e">
+        <f ca="1">VLOOKUP(Q56,SP!A$2:$C$9,3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F56" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N56)/(Sprints!$B$2:$B$20&gt;=N56),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G56" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O56)/(Sprints!$B$2:$B$20&gt;=O56),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H56" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P56)/(Sprints!$B$2:$B$20&gt;=P56),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I56" s="8" t="e">
+        <f t="shared" ref="I56" ca="1" si="90" xml:space="preserve"> H56 - G56</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J56" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R56)/(Sprints!$B$2:$B$20&gt;=R56),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K56" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S56)/(Sprints!$B$2:$B$20&gt;=S56),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L56" s="8" t="e">
+        <f t="shared" ref="L56" ca="1" si="91">K56 - J56</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M56" t="s">
+        <v>122</v>
+      </c>
+      <c r="N56" s="5">
+        <v>43705</v>
+      </c>
+      <c r="Q56" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" s="8">
+        <f ca="1">VLOOKUP(Q57,SP!A$2:$C$9,3)</f>
+        <v>13</v>
+      </c>
+      <c r="F57" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N57)/(Sprints!$B$2:$B$20&gt;=N57),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G57" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O57)/(Sprints!$B$2:$B$20&gt;=O57),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="H57" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P57)/(Sprints!$B$2:$B$20&gt;=P57),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I57" s="8" t="e">
+        <f t="shared" ref="I57" ca="1" si="92" xml:space="preserve"> H57 - G57</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J57" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R57)/(Sprints!$B$2:$B$20&gt;=R57),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K57" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S57)/(Sprints!$B$2:$B$20&gt;=S57),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L57" s="8" t="e">
+        <f t="shared" ref="L57" ca="1" si="93">K57 - J57</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M57" t="s">
+        <v>124</v>
+      </c>
+      <c r="N57" s="5">
+        <v>43705</v>
+      </c>
+      <c r="O57" s="5">
+        <v>43705</v>
+      </c>
+      <c r="Q57" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>14</v>
+      </c>
+      <c r="T57" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" s="8">
+        <f ca="1">VLOOKUP(Q58,SP!A$2:$C$9,3)</f>
+        <v>5</v>
+      </c>
+      <c r="F58" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N58)/(Sprints!$B$2:$B$20&gt;=N58),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G58" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O58)/(Sprints!$B$2:$B$20&gt;=O58),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="H58" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P58)/(Sprints!$B$2:$B$20&gt;=P58),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I58" s="8" t="e">
+        <f t="shared" ref="I58" ca="1" si="94" xml:space="preserve"> H58 - G58</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J58" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R58)/(Sprints!$B$2:$B$20&gt;=R58),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K58" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S58)/(Sprints!$B$2:$B$20&gt;=S58),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L58" s="8" t="e">
+        <f t="shared" ref="L58" ca="1" si="95">K58 - J58</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M58" t="s">
+        <v>78</v>
+      </c>
+      <c r="N58" s="5">
+        <v>43707</v>
+      </c>
+      <c r="O58" s="5">
+        <v>43714</v>
+      </c>
+      <c r="Q58" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="T58" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" s="8">
+        <f ca="1">VLOOKUP(Q59,SP!A$2:$C$9,3)</f>
+        <v>3</v>
+      </c>
+      <c r="F59" s="8">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N59)/(Sprints!$B$2:$B$20&gt;=N59),Sprints!$C$2:$C$20)</f>
+        <v>17</v>
+      </c>
+      <c r="G59" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O59)/(Sprints!$B$2:$B$20&gt;=O59),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="H59" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P59)/(Sprints!$B$2:$B$20&gt;=P59),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I59" s="8" t="e">
+        <f t="shared" ref="I59" ca="1" si="96" xml:space="preserve"> H59 - G59</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J59" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R59)/(Sprints!$B$2:$B$20&gt;=R59),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K59" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S59)/(Sprints!$B$2:$B$20&gt;=S59),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L59" s="8" t="e">
+        <f t="shared" ref="L59" ca="1" si="97">K59 - J59</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M59" t="s">
+        <v>108</v>
+      </c>
+      <c r="N59" s="5">
+        <v>43707</v>
+      </c>
+      <c r="O59" s="5">
+        <v>43717</v>
+      </c>
+      <c r="Q59" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="T59" s="8">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" s="8" t="e">
+        <f ca="1">VLOOKUP(Q60,SP!A$2:$C$9,3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F60" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N60)/(Sprints!$B$2:$B$20&gt;=N60),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
+      </c>
+      <c r="G60" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O60)/(Sprints!$B$2:$B$20&gt;=O60),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H60" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P60)/(Sprints!$B$2:$B$20&gt;=P60),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I60" s="8" t="e">
+        <f t="shared" ref="I60" ca="1" si="98" xml:space="preserve"> H60 - G60</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J60" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R60)/(Sprints!$B$2:$B$20&gt;=R60),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K60" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S60)/(Sprints!$B$2:$B$20&gt;=S60),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L60" s="8" t="e">
+        <f t="shared" ref="L60" ca="1" si="99">K60 - J60</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M60" t="s">
+        <v>120</v>
+      </c>
+      <c r="N60" s="5">
+        <v>43711</v>
+      </c>
+      <c r="Q60" s="8">
+        <f t="shared" ca="1" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="8">
+        <f t="shared" ca="1" si="57"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K39" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="16"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:L39" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H2" formula="1"/>
+    <ignoredError sqref="I2" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5878,11 +7291,11 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f ca="1">TODAY()</f>
-        <v>43718</v>
+        <v>43719</v>
       </c>
       <c r="B20" s="2">
         <f ca="1">TODAY()</f>
-        <v>43718</v>
+        <v>43719</v>
       </c>
       <c r="C20">
         <v>18</v>

--- a/ncis-sprint-burndowns.xlsx
+++ b/ncis-sprint-burndowns.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C84DC05-7F72-4908-B677-7E97B8701E2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE0558-ED67-4300-880C-5C552B9E533D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="Sprints" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$C$1:$L$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$1:$L$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="136">
   <si>
     <t>Backlog Sprint</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>BA-SO</t>
+  </si>
+  <si>
+    <t>IN-DEV</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>READY</t>
   </si>
 </sst>
 </file>
@@ -3077,10 +3089,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C989A-0DB4-4957-8B7C-55617C9397A2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,7 +3124,9 @@
       <c r="A1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="C1" s="9" t="s">
         <v>45</v>
       </c>
@@ -3170,6 +3185,9 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>
@@ -3238,6 +3256,9 @@
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3305,7 +3326,9 @@
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
@@ -3373,7 +3396,9 @@
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
@@ -3441,7 +3466,9 @@
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -3509,7 +3536,9 @@
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
@@ -3577,7 +3606,9 @@
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
@@ -3645,7 +3676,9 @@
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
@@ -3713,7 +3746,9 @@
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
@@ -3781,7 +3816,9 @@
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
@@ -3849,6 +3886,9 @@
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
@@ -3916,6 +3956,9 @@
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -4050,6 +4093,9 @@
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C15" t="s">
         <v>47</v>
       </c>
@@ -4117,6 +4163,9 @@
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
@@ -4184,6 +4233,9 @@
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
@@ -4253,6 +4305,9 @@
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
@@ -4380,6 +4435,9 @@
       <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
@@ -4446,6 +4504,9 @@
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="B21" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>60</v>
       </c>
@@ -4512,6 +4573,9 @@
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B22" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>61</v>
       </c>
@@ -4578,6 +4642,9 @@
       <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B23" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
@@ -4644,6 +4711,9 @@
       <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B24" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>63</v>
       </c>
@@ -4713,6 +4783,9 @@
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
@@ -4782,6 +4855,9 @@
       <c r="A26" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B26" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>65</v>
       </c>
@@ -4845,6 +4921,9 @@
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B27" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C27" s="4" t="s">
         <v>66</v>
       </c>
@@ -4905,6 +4984,9 @@
       <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B28" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>67</v>
       </c>
@@ -5029,6 +5111,9 @@
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B30" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
@@ -5095,6 +5180,9 @@
       <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B31" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
@@ -5155,6 +5243,9 @@
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B32" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C32" s="4" t="s">
         <v>82</v>
       </c>
@@ -5224,6 +5315,9 @@
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B33" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>83</v>
       </c>
@@ -5250,9 +5344,9 @@
         <f t="shared" ref="I33" ca="1" si="42" xml:space="preserve"> H33 - G33</f>
         <v>5</v>
       </c>
-      <c r="J33" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R33)/(Sprints!$B$2:$B$20&gt;=R33),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
+      <c r="J33" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R33)/(Sprints!$B$2:$B$20&gt;=R33),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
       </c>
       <c r="K33" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S33)/(Sprints!$B$2:$B$20&gt;=S33),Sprints!$C$2:$C$20)</f>
@@ -5278,6 +5372,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>69</v>
       </c>
+      <c r="R33" s="5">
+        <v>43719</v>
+      </c>
       <c r="T33" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -5287,6 +5384,9 @@
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B34" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>84</v>
       </c>
@@ -5313,9 +5413,9 @@
         <f t="shared" ref="I34" ca="1" si="44" xml:space="preserve"> H34 - G34</f>
         <v>5</v>
       </c>
-      <c r="J34" s="8" t="e">
-        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R34)/(Sprints!$B$2:$B$20&gt;=R34),Sprints!$C$2:$C$20)</f>
-        <v>#N/A</v>
+      <c r="J34" s="8">
+        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R34)/(Sprints!$B$2:$B$20&gt;=R34),Sprints!$C$2:$C$20)</f>
+        <v>18</v>
       </c>
       <c r="K34" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S34)/(Sprints!$B$2:$B$20&gt;=S34),Sprints!$C$2:$C$20)</f>
@@ -5341,6 +5441,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
+      <c r="R34" s="5">
+        <v>43719</v>
+      </c>
       <c r="T34" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -5350,12 +5453,15 @@
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B35" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E35" s="8">
         <f ca="1">VLOOKUP(Q35,SP!A$2:$C$9,3)</f>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F35" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N35)/(Sprints!$B$2:$B$20&gt;=N35),Sprints!$C$2:$C$20)</f>
@@ -5365,17 +5471,17 @@
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=O35)/(Sprints!$B$2:$B$20&gt;=O35),Sprints!$C$2:$C$20)</f>
         <v>17</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=P35)/(Sprints!$B$2:$B$20&gt;=P35),Sprints!$C$2:$C$20)</f>
-        <v>17</v>
-      </c>
-      <c r="I35" s="8">
+        <v>#N/A</v>
+      </c>
+      <c r="I35" s="8" t="e">
         <f t="shared" ref="I35" ca="1" si="46" xml:space="preserve"> H35 - G35</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R35)/(Sprints!$B$2:$B$20&gt;=R35),Sprints!$C$2:$C$20)</f>
-        <v>18</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J35" s="8" t="e">
+        <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=R35)/(Sprints!$B$2:$B$20&gt;=R35),Sprints!$C$2:$C$20)</f>
+        <v>#N/A</v>
       </c>
       <c r="K35" s="8" t="e">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=S35)/(Sprints!$B$2:$B$20&gt;=S35),Sprints!$C$2:$C$20)</f>
@@ -5394,25 +5500,24 @@
       <c r="O35" s="5">
         <v>43696</v>
       </c>
-      <c r="P35" s="5">
-        <v>43705</v>
-      </c>
+      <c r="P35" s="5"/>
       <c r="Q35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R35" s="5">
-        <v>43718</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="R35" s="5"/>
       <c r="T35" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B36" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C36" s="4" t="s">
         <v>87</v>
       </c>
@@ -5470,6 +5575,9 @@
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>89</v>
       </c>
@@ -5536,6 +5644,9 @@
       <c r="A38" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B38" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C38" s="4" t="s">
         <v>90</v>
       </c>
@@ -5602,6 +5713,9 @@
       <c r="A39" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B39" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C39" s="4" t="s">
         <v>91</v>
       </c>
@@ -5668,6 +5782,9 @@
       <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B40" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="C40" s="4" t="s">
         <v>92</v>
       </c>
@@ -5730,9 +5847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>94</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>95</v>
@@ -5788,6 +5908,9 @@
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B42" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="C42" s="4" t="s">
         <v>96</v>
       </c>
@@ -5854,6 +5977,9 @@
       <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B43" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>98</v>
       </c>
@@ -5920,6 +6046,9 @@
       <c r="A44" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B44" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="C44" s="4" t="s">
         <v>100</v>
       </c>
@@ -5979,9 +6108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>94</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>101</v>
@@ -6037,6 +6169,9 @@
       <c r="A46" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B46" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="C46" s="4" t="s">
         <v>102</v>
       </c>
@@ -6097,6 +6232,9 @@
       <c r="A47" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B47" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="C47" s="4" t="s">
         <v>105</v>
       </c>
@@ -6153,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
@@ -6214,6 +6352,9 @@
       <c r="A49" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B49" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C49" s="4" t="s">
         <v>110</v>
       </c>
@@ -6270,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>94</v>
       </c>
@@ -6331,6 +6472,9 @@
       <c r="A51" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B51" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C51" s="4" t="s">
         <v>113</v>
       </c>
@@ -6391,6 +6535,9 @@
       <c r="A52" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B52" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C52" s="4" t="s">
         <v>115</v>
       </c>
@@ -6451,6 +6598,9 @@
       <c r="A53" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B53" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="C53" s="4" t="s">
         <v>117</v>
       </c>
@@ -6511,7 +6661,9 @@
       <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B54"/>
+      <c r="B54" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C54" t="s">
         <v>118</v>
       </c>
@@ -6572,7 +6724,9 @@
       <c r="A55" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B55"/>
+      <c r="B55" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C55" t="s">
         <v>119</v>
       </c>
@@ -6640,7 +6794,9 @@
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B56"/>
+      <c r="B56" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="C56" t="s">
         <v>121</v>
       </c>
@@ -6698,7 +6854,9 @@
       <c r="A57" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B57"/>
+      <c r="B57" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C57" t="s">
         <v>123</v>
       </c>
@@ -6759,7 +6917,9 @@
       <c r="A58" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B58"/>
+      <c r="B58" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C58" t="s">
         <v>125</v>
       </c>
@@ -6820,7 +6980,9 @@
       <c r="A59" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B59"/>
+      <c r="B59" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C59" t="s">
         <v>126</v>
       </c>
@@ -6881,7 +7043,9 @@
       <c r="A60" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B60"/>
+      <c r="B60" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="C60" t="s">
         <v>127</v>
       </c>
@@ -6936,7 +7100,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L39" xr:uid="{AED31219-598C-422B-B10B-DB13322004E4}"/>
+  <autoFilter ref="B1:L60" xr:uid="{5858A0B2-01F7-4A3C-A534-0711714E3913}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BA-SO"/>
+        <filter val="IN-DEV"/>
+        <filter val="IN-QA"/>
+        <filter val="OPEN"/>
+        <filter val="READY"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>

--- a/ncis-sprint-burndowns.xlsx
+++ b/ncis-sprint-burndowns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE0558-ED67-4300-880C-5C552B9E533D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407E56E1-0E85-4AB1-99D9-D468449FF080}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Summary" sheetId="7" r:id="rId1"/>
@@ -718,10 +718,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$12</c:f>
+              <c:f>'Burndown Summary'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -754,16 +754,22 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$C$2:$C$12</c:f>
+              <c:f>'Burndown Summary'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -786,7 +792,7 @@
                   <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -795,7 +801,13 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>81</c:v>
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,10 +873,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$12</c:f>
+              <c:f>'Burndown Summary'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -897,16 +909,22 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$D$2:$D$12</c:f>
+              <c:f>'Burndown Summary'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -939,6 +957,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,13 +1051,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$A$2:$A$12</c15:sqref>
+                          <c15:sqref>'Burndown Summary'!$A$2:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="13"/>
                       <c:pt idx="0">
                         <c:v>3</c:v>
                       </c:pt>
@@ -1067,6 +1091,12 @@
                       <c:pt idx="10">
                         <c:v>16</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>18</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1075,13 +1105,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$B$2:$B$12</c15:sqref>
+                          <c15:sqref>'Burndown Summary'!$B$2:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="13"/>
                       <c:pt idx="0">
                         <c:v>21</c:v>
                       </c:pt>
@@ -1095,7 +1125,7 @@
                         <c:v>34</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>76</c:v>
+                        <c:v>186</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>359</c:v>
@@ -1104,16 +1134,22 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>55</c:v>
+                        <c:v>68</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>42</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>81</c:v>
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1165,10 +1201,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$12</c:f>
+              <c:f>'Burndown Summary'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1201,16 +1237,22 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$E$2:$E$12</c:f>
+              <c:f>'Burndown Summary'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1243,6 +1285,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,10 +1336,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$12</c:f>
+              <c:f>'Burndown Summary'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1324,16 +1372,22 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$G$2:$G$12</c:f>
+              <c:f>'Burndown Summary'!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -1347,25 +1401,31 @@
                   <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>385</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>744</c:v>
+                  <c:v>854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>744</c:v>
+                  <c:v>854</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>744</c:v>
+                  <c:v>862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>799</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>841</c:v>
+                  <c:v>972</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>922</c:v>
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,10 +1473,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$12</c:f>
+              <c:f>'Burndown Summary'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1449,16 +1509,22 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$H$2:$H$12</c:f>
+              <c:f>'Burndown Summary'!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -1472,25 +1538,31 @@
                   <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>385</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>723</c:v>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>723</c:v>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>584</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>249</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>270</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165</c:v>
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,13 +1632,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$A$2:$A$12</c15:sqref>
+                          <c15:sqref>'Burndown Summary'!$A$2:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="13"/>
                       <c:pt idx="0">
                         <c:v>3</c:v>
                       </c:pt>
@@ -1600,6 +1672,12 @@
                       <c:pt idx="10">
                         <c:v>16</c:v>
                       </c:pt>
+                      <c:pt idx="11">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>18</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -1608,13 +1686,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$F$2:$F$12</c15:sqref>
+                          <c15:sqref>'Burndown Summary'!$F$2:$F$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="13"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -1647,6 +1725,12 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>757</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>817</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1021</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2717,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF9B5FC-B68C-490C-BD95-2891DA1E6071}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,7 +2967,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -2900,11 +2984,11 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>385</v>
+        <v>495</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2929,11 +3013,11 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>744</v>
+        <v>854</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>723</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2958,11 +3042,11 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>744</v>
+        <v>854</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>723</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2970,10 +3054,10 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="D9">
         <v>139</v>
@@ -2987,11 +3071,11 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>744</v>
+        <v>862</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>584</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2999,7 +3083,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3016,11 +3100,11 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>799</v>
+        <v>930</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3045,11 +3129,11 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>841</v>
+        <v>972</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3057,10 +3141,10 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C12">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>186</v>
@@ -3074,11 +3158,69 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" ref="G12" si="4">G11+B12</f>
-        <v>922</v>
+        <v>1079</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ref="H12" si="5">G12 -F12</f>
-        <v>165</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>152</v>
+      </c>
+      <c r="C13">
+        <v>199</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13" si="6">F12 + D13</f>
+        <v>817</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ref="G13" si="7">G12+B13</f>
+        <v>1231</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="8">G13 -F13</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>204</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14" si="9">F13 + D14</f>
+        <v>1021</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14" si="10">G13+B14</f>
+        <v>1236</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14" si="11">G14 -F14</f>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3092,8 +3234,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,7 +3324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -3252,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
@@ -3322,7 +3464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -3392,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -3462,7 +3604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -3532,7 +3674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -3602,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -3672,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -3742,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -3812,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -3882,7 +4024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
@@ -3952,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
@@ -4089,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -4159,7 +4301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
@@ -4229,7 +4371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -4301,7 +4443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4373,7 +4515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -4431,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
@@ -4500,7 +4642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
@@ -4569,7 +4711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -4638,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
@@ -4707,7 +4849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
@@ -4779,7 +4921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
@@ -4851,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>71</v>
       </c>
@@ -4917,7 +5059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
@@ -4980,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
@@ -5044,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -5107,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -5176,7 +5318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
@@ -5239,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
@@ -5449,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
@@ -5511,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
@@ -5571,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
@@ -5640,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>81</v>
       </c>
@@ -5709,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>81</v>
       </c>
@@ -6042,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>94</v>
       </c>
@@ -6165,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>94</v>
       </c>
@@ -6228,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>94</v>
       </c>
@@ -6348,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>94</v>
       </c>
@@ -6468,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>94</v>
       </c>
@@ -6531,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>94</v>
       </c>
@@ -6594,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>94</v>
       </c>
@@ -6657,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
@@ -6720,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>128</v>
       </c>
@@ -6790,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -6850,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>128</v>
       </c>
@@ -6913,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>128</v>
       </c>
@@ -6976,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>128</v>
       </c>
@@ -7039,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>128</v>
       </c>
@@ -7108,6 +7250,11 @@
         <filter val="IN-QA"/>
         <filter val="OPEN"/>
         <filter val="READY"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="18"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/ncis-sprint-burndowns.xlsx
+++ b/ncis-sprint-burndowns.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407E56E1-0E85-4AB1-99D9-D468449FF080}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A524DD5B-922F-497D-8D8A-D990C5F91ACF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Burndown Summary" sheetId="7" r:id="rId1"/>
-    <sheet name="Data" sheetId="5" r:id="rId2"/>
-    <sheet name="SP" sheetId="8" r:id="rId3"/>
-    <sheet name="Sprints" sheetId="9" r:id="rId4"/>
+    <sheet name="DEV Burndown" sheetId="7" r:id="rId1"/>
+    <sheet name="QA Burndown" sheetId="10" r:id="rId2"/>
+    <sheet name="Data" sheetId="5" r:id="rId3"/>
+    <sheet name="SP" sheetId="8" r:id="rId4"/>
+    <sheet name="Sprints" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$1:$L$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$B$1:$L$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
   <si>
     <t>Backlog Sprint</t>
   </si>
@@ -668,7 +669,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Summary'!$C$1</c:f>
+              <c:f>'DEV Burndown'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -718,7 +719,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$14</c:f>
+              <c:f>'DEV Burndown'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -766,7 +767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$C$2:$C$14</c:f>
+              <c:f>'DEV Burndown'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -823,7 +824,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Summary'!$D$1</c:f>
+              <c:f>'DEV Burndown'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,7 +874,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$14</c:f>
+              <c:f>'DEV Burndown'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -921,7 +922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$D$2:$D$14</c:f>
+              <c:f>'DEV Burndown'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -995,7 +996,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$B$1</c15:sqref>
+                          <c15:sqref>'DEV Burndown'!$B$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1051,7 +1052,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>'DEV Burndown'!$A$2:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1105,7 +1106,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$B$2:$B$14</c15:sqref>
+                          <c15:sqref>'DEV Burndown'!$B$2:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1172,7 +1173,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Summary'!$E$1</c:f>
+              <c:f>'DEV Burndown'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1201,7 +1202,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$14</c:f>
+              <c:f>'DEV Burndown'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1249,7 +1250,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$E$2:$E$14</c:f>
+              <c:f>'DEV Burndown'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1307,7 +1308,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Summary'!$G$1</c:f>
+              <c:f>'DEV Burndown'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1336,7 +1337,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$14</c:f>
+              <c:f>'DEV Burndown'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1384,7 +1385,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$G$2:$G$14</c:f>
+              <c:f>'DEV Burndown'!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1442,7 +1443,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Summary'!$H$1</c:f>
+              <c:f>'DEV Burndown'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1473,7 +1474,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Summary'!$A$2:$A$14</c:f>
+              <c:f>'DEV Burndown'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1521,7 +1522,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Summary'!$H$2:$H$14</c:f>
+              <c:f>'DEV Burndown'!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1597,7 +1598,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$F$1</c15:sqref>
+                          <c15:sqref>'DEV Burndown'!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1632,7 +1633,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>'DEV Burndown'!$A$2:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1686,7 +1687,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Burndown Summary'!$F$2:$F$14</c15:sqref>
+                          <c15:sqref>'DEV Burndown'!$F$2:$F$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1944,7 +1945,1416 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DEV Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QA Burndown'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(SP) Commited</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QA Burndown'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C34D-42BC-847E-F105B09B76E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QA Burndown'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(SP) Done</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QA Burndown'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C34D-42BC-847E-F105B09B76E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="629179296"/>
+        <c:axId val="678207296"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'QA Burndown'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>(SP) Added</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'QA Burndown'!$A$2:$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>18</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'QA Burndown'!$B$2:$B$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>186</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>359</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-C34D-42BC-847E-F105B09B76E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QA Burndown'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Burnt Carries (US)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QA Burndown'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C34D-42BC-847E-F105B09B76E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QA Burndown'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(SP) Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QA Burndown'!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C34D-42BC-847E-F105B09B76E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QA Burndown'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(SP) Remain to Burn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QA Burndown'!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C34D-42BC-847E-F105B09B76E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="629179296"/>
+        <c:axId val="678207296"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'QA Burndown'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>(SP) Burnt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'QA Burndown'!$A$2:$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>18</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'QA Burndown'!$F$2:$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>377</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>398</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>398</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>492</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>762</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-C34D-42BC-847E-F105B09B76E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="629179296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678207296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678207296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629179296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2497,20 +3907,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2522,6 +4445,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557D52D9-CE05-45A8-AB3E-E56FB49EFFC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2803,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF9B5FC-B68C-490C-BD95-2891DA1E6071}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,12 +5196,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC0E560-D797-42BC-BC56-CF69B6E909EF}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <f>B2</f>
+        <v>21</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H14" si="0">G2 -F2</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>144</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F14" si="1">F2 + D3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G14" si="2">G2+B3</f>
+        <v>165</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>309</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>186</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>495</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>359</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>854</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>854</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>862</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>356</v>
+      </c>
+      <c r="D10">
+        <v>356</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>930</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>972</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>107</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>1079</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>152</v>
+      </c>
+      <c r="C13">
+        <v>317</v>
+      </c>
+      <c r="D13">
+        <v>94</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>492</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>1231</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>280</v>
+      </c>
+      <c r="D14">
+        <v>270</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>762</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>1236</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C989A-0DB4-4957-8B7C-55617C9397A2}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,7 +5720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -3394,7 +5790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
@@ -3464,7 +5860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -3534,7 +5930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -3604,7 +6000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -3674,7 +6070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -3744,7 +6140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -3814,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -3884,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -3954,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -4024,7 +6420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
@@ -4094,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
@@ -4231,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -4301,7 +6697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
@@ -4371,7 +6767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -4443,7 +6839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4515,7 +6911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -4573,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
@@ -4642,7 +7038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
@@ -4711,7 +7107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -4780,7 +7176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
@@ -4849,7 +7245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
@@ -4921,7 +7317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
@@ -4993,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>71</v>
       </c>
@@ -5059,7 +7455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
@@ -5122,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
@@ -5186,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -5249,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -5318,7 +7714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
@@ -5381,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
@@ -5591,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
@@ -5653,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
@@ -5713,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
@@ -5782,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>81</v>
       </c>
@@ -5851,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>81</v>
       </c>
@@ -6184,7 +8580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>94</v>
       </c>
@@ -6307,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>94</v>
       </c>
@@ -6370,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>94</v>
       </c>
@@ -6490,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>94</v>
       </c>
@@ -6610,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>94</v>
       </c>
@@ -6673,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>94</v>
       </c>
@@ -6736,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>94</v>
       </c>
@@ -6799,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
@@ -6862,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>128</v>
       </c>
@@ -6932,7 +9328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -6992,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>128</v>
       </c>
@@ -7055,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>128</v>
       </c>
@@ -7118,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>128</v>
       </c>
@@ -7181,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>128</v>
       </c>
@@ -7252,11 +9648,6 @@
         <filter val="READY"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="18"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7266,7 +9657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA68DE-49B5-450C-B56C-8FE4562D72A6}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7386,7 +9777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B002830-2D91-48C2-9C27-20C71EEBA17A}">
   <dimension ref="A1:C20"/>
   <sheetViews>
